--- a/BackTest/2020-01-19 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-19 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.54</v>
+        <v>12.11</v>
       </c>
       <c r="C2" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="E2" t="n">
         <v>11.89</v>
       </c>
-      <c r="D2" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="E2" t="n">
-        <v>11.53</v>
-      </c>
       <c r="F2" t="n">
-        <v>42764.0228</v>
+        <v>130</v>
       </c>
       <c r="G2" t="n">
-        <v>11.86299999999998</v>
+        <v>11.85933333333332</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.51</v>
+        <v>11.54</v>
       </c>
       <c r="C3" t="n">
-        <v>11.51</v>
+        <v>11.89</v>
       </c>
       <c r="D3" t="n">
-        <v>11.51</v>
+        <v>11.89</v>
       </c>
       <c r="E3" t="n">
-        <v>11.51</v>
+        <v>11.53</v>
       </c>
       <c r="F3" t="n">
-        <v>12802.9052</v>
+        <v>42764.0228</v>
       </c>
       <c r="G3" t="n">
-        <v>11.86116666666665</v>
+        <v>11.86299999999998</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>11.51</v>
       </c>
       <c r="F4" t="n">
-        <v>23705.2272</v>
+        <v>12802.9052</v>
       </c>
       <c r="G4" t="n">
-        <v>11.86099999999998</v>
+        <v>11.86116666666665</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.93</v>
+        <v>11.51</v>
       </c>
       <c r="C5" t="n">
-        <v>11.93</v>
+        <v>11.51</v>
       </c>
       <c r="D5" t="n">
-        <v>11.93</v>
+        <v>11.51</v>
       </c>
       <c r="E5" t="n">
-        <v>11.93</v>
+        <v>11.51</v>
       </c>
       <c r="F5" t="n">
-        <v>18914.8864</v>
+        <v>23705.2272</v>
       </c>
       <c r="G5" t="n">
-        <v>11.86599999999998</v>
+        <v>11.86099999999998</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.94</v>
+        <v>11.93</v>
       </c>
       <c r="C6" t="n">
-        <v>11.23</v>
+        <v>11.93</v>
       </c>
       <c r="D6" t="n">
-        <v>11.94</v>
+        <v>11.93</v>
       </c>
       <c r="E6" t="n">
-        <v>11.23</v>
+        <v>11.93</v>
       </c>
       <c r="F6" t="n">
-        <v>344678.2548</v>
+        <v>18914.8864</v>
       </c>
       <c r="G6" t="n">
-        <v>11.85866666666665</v>
+        <v>11.86599999999998</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.5</v>
+        <v>11.94</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5</v>
+        <v>11.23</v>
       </c>
       <c r="D7" t="n">
-        <v>11.5</v>
+        <v>11.94</v>
       </c>
       <c r="E7" t="n">
-        <v>11.5</v>
+        <v>11.23</v>
       </c>
       <c r="F7" t="n">
-        <v>1300</v>
+        <v>344678.2548</v>
       </c>
       <c r="G7" t="n">
-        <v>11.85816666666665</v>
+        <v>11.85866666666665</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.51</v>
+        <v>11.5</v>
       </c>
       <c r="C8" t="n">
-        <v>11.51</v>
+        <v>11.5</v>
       </c>
       <c r="D8" t="n">
-        <v>11.51</v>
+        <v>11.5</v>
       </c>
       <c r="E8" t="n">
-        <v>11.51</v>
+        <v>11.5</v>
       </c>
       <c r="F8" t="n">
-        <v>6459.6004</v>
+        <v>1300</v>
       </c>
       <c r="G8" t="n">
-        <v>11.85549999999999</v>
+        <v>11.85816666666665</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.5</v>
+        <v>11.51</v>
       </c>
       <c r="C9" t="n">
-        <v>11.5</v>
+        <v>11.51</v>
       </c>
       <c r="D9" t="n">
-        <v>11.5</v>
+        <v>11.51</v>
       </c>
       <c r="E9" t="n">
-        <v>11.5</v>
+        <v>11.51</v>
       </c>
       <c r="F9" t="n">
-        <v>3646.6429</v>
+        <v>6459.6004</v>
       </c>
       <c r="G9" t="n">
-        <v>11.85266666666665</v>
+        <v>11.85549999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.33</v>
+        <v>11.5</v>
       </c>
       <c r="C10" t="n">
-        <v>11.24</v>
+        <v>11.5</v>
       </c>
       <c r="D10" t="n">
-        <v>11.33</v>
+        <v>11.5</v>
       </c>
       <c r="E10" t="n">
-        <v>11.24</v>
+        <v>11.5</v>
       </c>
       <c r="F10" t="n">
-        <v>79426.52559999999</v>
+        <v>3646.6429</v>
       </c>
       <c r="G10" t="n">
-        <v>11.84783333333332</v>
+        <v>11.85266666666665</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.25</v>
+        <v>11.33</v>
       </c>
       <c r="C11" t="n">
         <v>11.24</v>
       </c>
       <c r="D11" t="n">
-        <v>11.25</v>
+        <v>11.33</v>
       </c>
       <c r="E11" t="n">
         <v>11.24</v>
       </c>
       <c r="F11" t="n">
-        <v>32549.2214</v>
+        <v>79426.52559999999</v>
       </c>
       <c r="G11" t="n">
-        <v>11.84233333333332</v>
+        <v>11.84783333333332</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.35</v>
+        <v>11.25</v>
       </c>
       <c r="C12" t="n">
-        <v>11.35</v>
+        <v>11.24</v>
       </c>
       <c r="D12" t="n">
-        <v>11.35</v>
+        <v>11.25</v>
       </c>
       <c r="E12" t="n">
-        <v>11.35</v>
+        <v>11.24</v>
       </c>
       <c r="F12" t="n">
-        <v>27226</v>
+        <v>32549.2214</v>
       </c>
       <c r="G12" t="n">
-        <v>11.83899999999999</v>
+        <v>11.84233333333332</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.49</v>
+        <v>11.35</v>
       </c>
       <c r="C13" t="n">
-        <v>11.49</v>
+        <v>11.35</v>
       </c>
       <c r="D13" t="n">
-        <v>11.49</v>
+        <v>11.35</v>
       </c>
       <c r="E13" t="n">
-        <v>11.49</v>
+        <v>11.35</v>
       </c>
       <c r="F13" t="n">
-        <v>30000</v>
+        <v>27226</v>
       </c>
       <c r="G13" t="n">
-        <v>11.83583333333332</v>
+        <v>11.83899999999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.45</v>
+        <v>11.49</v>
       </c>
       <c r="C14" t="n">
-        <v>11.45</v>
+        <v>11.49</v>
       </c>
       <c r="D14" t="n">
-        <v>11.45</v>
+        <v>11.49</v>
       </c>
       <c r="E14" t="n">
-        <v>11.45</v>
+        <v>11.49</v>
       </c>
       <c r="F14" t="n">
-        <v>29452.5868</v>
+        <v>30000</v>
       </c>
       <c r="G14" t="n">
-        <v>11.83216666666666</v>
+        <v>11.83583333333332</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.34</v>
+        <v>11.45</v>
       </c>
       <c r="C15" t="n">
-        <v>11.25</v>
+        <v>11.45</v>
       </c>
       <c r="D15" t="n">
-        <v>11.34</v>
+        <v>11.45</v>
       </c>
       <c r="E15" t="n">
-        <v>11.25</v>
+        <v>11.45</v>
       </c>
       <c r="F15" t="n">
-        <v>348982.6373</v>
+        <v>29452.5868</v>
       </c>
       <c r="G15" t="n">
-        <v>11.82449999999999</v>
+        <v>11.83216666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.25</v>
+        <v>11.34</v>
       </c>
       <c r="C16" t="n">
         <v>11.25</v>
       </c>
       <c r="D16" t="n">
-        <v>11.25</v>
+        <v>11.34</v>
       </c>
       <c r="E16" t="n">
         <v>11.25</v>
       </c>
       <c r="F16" t="n">
-        <v>1507.5656</v>
+        <v>348982.6373</v>
       </c>
       <c r="G16" t="n">
-        <v>11.81666666666666</v>
+        <v>11.82449999999999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="C17" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="D17" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="E17" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="F17" t="n">
-        <v>44832.8131</v>
+        <v>1507.5656</v>
       </c>
       <c r="G17" t="n">
-        <v>11.81366666666666</v>
+        <v>11.81666666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>11.5</v>
       </c>
       <c r="F18" t="n">
-        <v>63930.5969</v>
+        <v>44832.8131</v>
       </c>
       <c r="G18" t="n">
-        <v>11.80899999999999</v>
+        <v>11.81366666666666</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.54</v>
+        <v>11.5</v>
       </c>
       <c r="C19" t="n">
-        <v>11.54</v>
+        <v>11.5</v>
       </c>
       <c r="D19" t="n">
-        <v>11.54</v>
+        <v>11.5</v>
       </c>
       <c r="E19" t="n">
-        <v>11.54</v>
+        <v>11.5</v>
       </c>
       <c r="F19" t="n">
-        <v>15053</v>
+        <v>63930.5969</v>
       </c>
       <c r="G19" t="n">
-        <v>11.80666666666666</v>
+        <v>11.80899999999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>11.54</v>
       </c>
       <c r="F20" t="n">
-        <v>7526</v>
+        <v>15053</v>
       </c>
       <c r="G20" t="n">
-        <v>11.80433333333332</v>
+        <v>11.80666666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.48</v>
+        <v>11.54</v>
       </c>
       <c r="C21" t="n">
-        <v>11.48</v>
+        <v>11.54</v>
       </c>
       <c r="D21" t="n">
-        <v>11.48</v>
+        <v>11.54</v>
       </c>
       <c r="E21" t="n">
-        <v>11.48</v>
+        <v>11.54</v>
       </c>
       <c r="F21" t="n">
-        <v>3763</v>
+        <v>7526</v>
       </c>
       <c r="G21" t="n">
-        <v>11.80316666666666</v>
+        <v>11.80433333333332</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.49</v>
+        <v>11.48</v>
       </c>
       <c r="C22" t="n">
-        <v>11.49</v>
+        <v>11.48</v>
       </c>
       <c r="D22" t="n">
-        <v>11.49</v>
+        <v>11.48</v>
       </c>
       <c r="E22" t="n">
-        <v>11.49</v>
+        <v>11.48</v>
       </c>
       <c r="F22" t="n">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="G22" t="n">
-        <v>11.80216666666666</v>
+        <v>11.80316666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.58</v>
+        <v>11.49</v>
       </c>
       <c r="C23" t="n">
-        <v>11.58</v>
+        <v>11.49</v>
       </c>
       <c r="D23" t="n">
-        <v>11.58</v>
+        <v>11.49</v>
       </c>
       <c r="E23" t="n">
-        <v>11.58</v>
+        <v>11.49</v>
       </c>
       <c r="F23" t="n">
-        <v>7865.5752</v>
+        <v>3764</v>
       </c>
       <c r="G23" t="n">
-        <v>11.80266666666666</v>
+        <v>11.80216666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>11.58</v>
       </c>
       <c r="C24" t="n">
-        <v>11.5</v>
+        <v>11.58</v>
       </c>
       <c r="D24" t="n">
         <v>11.58</v>
       </c>
       <c r="E24" t="n">
-        <v>11.5</v>
+        <v>11.58</v>
       </c>
       <c r="F24" t="n">
-        <v>83886.8098</v>
+        <v>7865.5752</v>
       </c>
       <c r="G24" t="n">
-        <v>11.79966666666666</v>
+        <v>11.80266666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.51</v>
+        <v>11.58</v>
       </c>
       <c r="C25" t="n">
-        <v>11.51</v>
+        <v>11.5</v>
       </c>
       <c r="D25" t="n">
-        <v>11.51</v>
+        <v>11.58</v>
       </c>
       <c r="E25" t="n">
-        <v>11.51</v>
+        <v>11.5</v>
       </c>
       <c r="F25" t="n">
-        <v>8012.4848</v>
+        <v>83886.8098</v>
       </c>
       <c r="G25" t="n">
-        <v>11.80266666666666</v>
+        <v>11.79966666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.5</v>
+        <v>11.51</v>
       </c>
       <c r="C26" t="n">
-        <v>11.5</v>
+        <v>11.51</v>
       </c>
       <c r="D26" t="n">
-        <v>11.5</v>
+        <v>11.51</v>
       </c>
       <c r="E26" t="n">
-        <v>11.5</v>
+        <v>11.51</v>
       </c>
       <c r="F26" t="n">
-        <v>49091.678</v>
+        <v>8012.4848</v>
       </c>
       <c r="G26" t="n">
-        <v>11.79983333333333</v>
+        <v>11.80266666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>11.5</v>
       </c>
       <c r="F27" t="n">
-        <v>26782.6471</v>
+        <v>49091.678</v>
       </c>
       <c r="G27" t="n">
-        <v>11.797</v>
+        <v>11.79983333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,19 +1343,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.66</v>
+        <v>11.5</v>
       </c>
       <c r="C28" t="n">
-        <v>11.67</v>
+        <v>11.5</v>
       </c>
       <c r="D28" t="n">
-        <v>11.67</v>
+        <v>11.5</v>
       </c>
       <c r="E28" t="n">
-        <v>11.66</v>
+        <v>11.5</v>
       </c>
       <c r="F28" t="n">
-        <v>37859.8057</v>
+        <v>26782.6471</v>
       </c>
       <c r="G28" t="n">
         <v>11.797</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.64</v>
+        <v>11.66</v>
       </c>
       <c r="C29" t="n">
-        <v>11.61</v>
+        <v>11.67</v>
       </c>
       <c r="D29" t="n">
-        <v>11.64</v>
+        <v>11.67</v>
       </c>
       <c r="E29" t="n">
-        <v>11.61</v>
+        <v>11.66</v>
       </c>
       <c r="F29" t="n">
-        <v>28587.865</v>
+        <v>37859.8057</v>
       </c>
       <c r="G29" t="n">
-        <v>11.79566666666666</v>
+        <v>11.797</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.61</v>
+        <v>11.64</v>
       </c>
       <c r="C30" t="n">
         <v>11.61</v>
       </c>
       <c r="D30" t="n">
-        <v>11.61</v>
+        <v>11.64</v>
       </c>
       <c r="E30" t="n">
         <v>11.61</v>
       </c>
       <c r="F30" t="n">
-        <v>4358.8697</v>
+        <v>28587.865</v>
       </c>
       <c r="G30" t="n">
-        <v>11.787</v>
+        <v>11.79566666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>11.61</v>
       </c>
       <c r="F31" t="n">
-        <v>5642.2768</v>
+        <v>4358.8697</v>
       </c>
       <c r="G31" t="n">
-        <v>11.78133333333333</v>
+        <v>11.787</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.75</v>
+        <v>11.61</v>
       </c>
       <c r="C32" t="n">
-        <v>11.75</v>
+        <v>11.61</v>
       </c>
       <c r="D32" t="n">
-        <v>11.75</v>
+        <v>11.61</v>
       </c>
       <c r="E32" t="n">
-        <v>11.75</v>
+        <v>11.61</v>
       </c>
       <c r="F32" t="n">
-        <v>3488.6168</v>
+        <v>5642.2768</v>
       </c>
       <c r="G32" t="n">
-        <v>11.77666666666666</v>
+        <v>11.78133333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>11.75</v>
       </c>
       <c r="C33" t="n">
-        <v>11.72</v>
+        <v>11.75</v>
       </c>
       <c r="D33" t="n">
         <v>11.75</v>
       </c>
       <c r="E33" t="n">
-        <v>11.72</v>
+        <v>11.75</v>
       </c>
       <c r="F33" t="n">
-        <v>6278.7551</v>
+        <v>3488.6168</v>
       </c>
       <c r="G33" t="n">
-        <v>11.76983333333333</v>
+        <v>11.77666666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.62</v>
+        <v>11.75</v>
       </c>
       <c r="C34" t="n">
-        <v>11.62</v>
+        <v>11.72</v>
       </c>
       <c r="D34" t="n">
-        <v>11.62</v>
+        <v>11.75</v>
       </c>
       <c r="E34" t="n">
-        <v>11.62</v>
+        <v>11.72</v>
       </c>
       <c r="F34" t="n">
-        <v>8869.616599999999</v>
+        <v>6278.7551</v>
       </c>
       <c r="G34" t="n">
-        <v>11.76599999999999</v>
+        <v>11.76983333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.77</v>
+        <v>11.62</v>
       </c>
       <c r="C35" t="n">
-        <v>11.77</v>
+        <v>11.62</v>
       </c>
       <c r="D35" t="n">
-        <v>11.77</v>
+        <v>11.62</v>
       </c>
       <c r="E35" t="n">
-        <v>11.77</v>
+        <v>11.62</v>
       </c>
       <c r="F35" t="n">
-        <v>1000</v>
+        <v>8869.616599999999</v>
       </c>
       <c r="G35" t="n">
-        <v>11.76466666666666</v>
+        <v>11.76599999999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.82</v>
+        <v>11.77</v>
       </c>
       <c r="C36" t="n">
-        <v>11.82</v>
+        <v>11.77</v>
       </c>
       <c r="D36" t="n">
-        <v>11.82</v>
+        <v>11.77</v>
       </c>
       <c r="E36" t="n">
-        <v>11.82</v>
+        <v>11.77</v>
       </c>
       <c r="F36" t="n">
-        <v>43</v>
+        <v>1000</v>
       </c>
       <c r="G36" t="n">
-        <v>11.75516666666666</v>
+        <v>11.76466666666666</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.81</v>
+        <v>11.82</v>
       </c>
       <c r="C37" t="n">
-        <v>11.88</v>
+        <v>11.82</v>
       </c>
       <c r="D37" t="n">
-        <v>11.88</v>
+        <v>11.82</v>
       </c>
       <c r="E37" t="n">
-        <v>11.81</v>
+        <v>11.82</v>
       </c>
       <c r="F37" t="n">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="G37" t="n">
-        <v>11.74833333333333</v>
+        <v>11.75516666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.8</v>
+        <v>11.81</v>
       </c>
       <c r="C38" t="n">
-        <v>11.8</v>
+        <v>11.88</v>
       </c>
       <c r="D38" t="n">
-        <v>11.8</v>
+        <v>11.88</v>
       </c>
       <c r="E38" t="n">
-        <v>11.8</v>
+        <v>11.81</v>
       </c>
       <c r="F38" t="n">
-        <v>10299.9659</v>
+        <v>87</v>
       </c>
       <c r="G38" t="n">
-        <v>11.74583333333333</v>
+        <v>11.74833333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>11.8</v>
       </c>
       <c r="F39" t="n">
-        <v>11876.8285</v>
+        <v>10299.9659</v>
       </c>
       <c r="G39" t="n">
-        <v>11.73783333333333</v>
+        <v>11.74583333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.64</v>
+        <v>11.8</v>
       </c>
       <c r="C40" t="n">
-        <v>11.64</v>
+        <v>11.8</v>
       </c>
       <c r="D40" t="n">
-        <v>11.64</v>
+        <v>11.8</v>
       </c>
       <c r="E40" t="n">
-        <v>11.64</v>
+        <v>11.8</v>
       </c>
       <c r="F40" t="n">
-        <v>4565.37</v>
+        <v>11876.8285</v>
       </c>
       <c r="G40" t="n">
-        <v>11.73433333333333</v>
+        <v>11.73783333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>11.64</v>
       </c>
       <c r="F41" t="n">
-        <v>12064.7466</v>
+        <v>4565.37</v>
       </c>
       <c r="G41" t="n">
-        <v>11.72733333333333</v>
+        <v>11.73433333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.67</v>
+        <v>11.64</v>
       </c>
       <c r="C42" t="n">
-        <v>11.66</v>
+        <v>11.64</v>
       </c>
       <c r="D42" t="n">
-        <v>11.67</v>
+        <v>11.64</v>
       </c>
       <c r="E42" t="n">
-        <v>11.66</v>
+        <v>11.64</v>
       </c>
       <c r="F42" t="n">
-        <v>65467.9187</v>
+        <v>12064.7466</v>
       </c>
       <c r="G42" t="n">
-        <v>11.71683333333333</v>
+        <v>11.72733333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.81</v>
+        <v>11.67</v>
       </c>
       <c r="C43" t="n">
-        <v>11.81</v>
+        <v>11.66</v>
       </c>
       <c r="D43" t="n">
-        <v>11.81</v>
+        <v>11.67</v>
       </c>
       <c r="E43" t="n">
-        <v>11.81</v>
+        <v>11.66</v>
       </c>
       <c r="F43" t="n">
-        <v>21.7392</v>
+        <v>65467.9187</v>
       </c>
       <c r="G43" t="n">
-        <v>11.71249999999999</v>
+        <v>11.71683333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.7</v>
+        <v>11.81</v>
       </c>
       <c r="C44" t="n">
-        <v>11.66</v>
+        <v>11.81</v>
       </c>
       <c r="D44" t="n">
-        <v>11.7</v>
+        <v>11.81</v>
       </c>
       <c r="E44" t="n">
-        <v>11.66</v>
+        <v>11.81</v>
       </c>
       <c r="F44" t="n">
-        <v>50365.6715</v>
+        <v>21.7392</v>
       </c>
       <c r="G44" t="n">
-        <v>11.70199999999999</v>
+        <v>11.71249999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.65</v>
+        <v>11.7</v>
       </c>
       <c r="C45" t="n">
-        <v>11.65</v>
+        <v>11.66</v>
       </c>
       <c r="D45" t="n">
-        <v>11.65</v>
+        <v>11.7</v>
       </c>
       <c r="E45" t="n">
-        <v>11.65</v>
+        <v>11.66</v>
       </c>
       <c r="F45" t="n">
-        <v>3976</v>
+        <v>50365.6715</v>
       </c>
       <c r="G45" t="n">
-        <v>11.69883333333332</v>
+        <v>11.70199999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.81</v>
+        <v>11.65</v>
       </c>
       <c r="C46" t="n">
-        <v>11.81</v>
+        <v>11.65</v>
       </c>
       <c r="D46" t="n">
-        <v>11.81</v>
+        <v>11.65</v>
       </c>
       <c r="E46" t="n">
-        <v>11.81</v>
+        <v>11.65</v>
       </c>
       <c r="F46" t="n">
-        <v>21.5518</v>
+        <v>3976</v>
       </c>
       <c r="G46" t="n">
-        <v>11.69266666666666</v>
+        <v>11.69883333333332</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.65</v>
+        <v>11.81</v>
       </c>
       <c r="C47" t="n">
-        <v>11.65</v>
+        <v>11.81</v>
       </c>
       <c r="D47" t="n">
-        <v>11.65</v>
+        <v>11.81</v>
       </c>
       <c r="E47" t="n">
-        <v>11.65</v>
+        <v>11.81</v>
       </c>
       <c r="F47" t="n">
-        <v>7696.748</v>
+        <v>21.5518</v>
       </c>
       <c r="G47" t="n">
-        <v>11.68666666666666</v>
+        <v>11.69266666666666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>11.65</v>
       </c>
       <c r="F48" t="n">
-        <v>38863.017</v>
+        <v>7696.748</v>
       </c>
       <c r="G48" t="n">
-        <v>11.68016666666666</v>
+        <v>11.68666666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.81</v>
+        <v>11.65</v>
       </c>
       <c r="C49" t="n">
-        <v>11.81</v>
+        <v>11.65</v>
       </c>
       <c r="D49" t="n">
-        <v>11.81</v>
+        <v>11.65</v>
       </c>
       <c r="E49" t="n">
-        <v>11.81</v>
+        <v>11.65</v>
       </c>
       <c r="F49" t="n">
-        <v>21.4593</v>
+        <v>38863.017</v>
       </c>
       <c r="G49" t="n">
-        <v>11.68299999999999</v>
+        <v>11.68016666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.65</v>
+        <v>11.81</v>
       </c>
       <c r="C50" t="n">
-        <v>11.65</v>
+        <v>11.81</v>
       </c>
       <c r="D50" t="n">
-        <v>11.65</v>
+        <v>11.81</v>
       </c>
       <c r="E50" t="n">
-        <v>11.65</v>
+        <v>11.81</v>
       </c>
       <c r="F50" t="n">
-        <v>191.8925</v>
+        <v>21.4593</v>
       </c>
       <c r="G50" t="n">
-        <v>11.67483333333332</v>
+        <v>11.68299999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>11.65</v>
       </c>
       <c r="C51" t="n">
-        <v>11.64</v>
+        <v>11.65</v>
       </c>
       <c r="D51" t="n">
         <v>11.65</v>
       </c>
       <c r="E51" t="n">
-        <v>11.64</v>
+        <v>11.65</v>
       </c>
       <c r="F51" t="n">
-        <v>39416</v>
+        <v>191.8925</v>
       </c>
       <c r="G51" t="n">
-        <v>11.66433333333332</v>
+        <v>11.67483333333332</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.81</v>
+        <v>11.65</v>
       </c>
       <c r="C52" t="n">
-        <v>11.81</v>
+        <v>11.64</v>
       </c>
       <c r="D52" t="n">
-        <v>11.81</v>
+        <v>11.65</v>
       </c>
       <c r="E52" t="n">
-        <v>11.81</v>
+        <v>11.64</v>
       </c>
       <c r="F52" t="n">
-        <v>973.2497</v>
+        <v>39416</v>
       </c>
       <c r="G52" t="n">
-        <v>11.66449999999999</v>
+        <v>11.66433333333332</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>11.81</v>
       </c>
       <c r="F53" t="n">
-        <v>4314.9206</v>
+        <v>973.2497</v>
       </c>
       <c r="G53" t="n">
-        <v>11.65866666666666</v>
+        <v>11.66449999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.64</v>
+        <v>11.81</v>
       </c>
       <c r="C54" t="n">
-        <v>11.6</v>
+        <v>11.81</v>
       </c>
       <c r="D54" t="n">
-        <v>11.64</v>
+        <v>11.81</v>
       </c>
       <c r="E54" t="n">
-        <v>11.6</v>
+        <v>11.81</v>
       </c>
       <c r="F54" t="n">
-        <v>250498.0665</v>
+        <v>4314.9206</v>
       </c>
       <c r="G54" t="n">
-        <v>11.64949999999999</v>
+        <v>11.65866666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.72</v>
+        <v>11.64</v>
       </c>
       <c r="C55" t="n">
-        <v>11.95</v>
+        <v>11.6</v>
       </c>
       <c r="D55" t="n">
-        <v>11.95</v>
+        <v>11.64</v>
       </c>
       <c r="E55" t="n">
-        <v>11.72</v>
+        <v>11.6</v>
       </c>
       <c r="F55" t="n">
-        <v>86</v>
+        <v>250498.0665</v>
       </c>
       <c r="G55" t="n">
-        <v>11.64633333333333</v>
+        <v>11.64949999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.77</v>
+        <v>11.72</v>
       </c>
       <c r="C56" t="n">
-        <v>11.77</v>
+        <v>11.95</v>
       </c>
       <c r="D56" t="n">
-        <v>11.77</v>
+        <v>11.95</v>
       </c>
       <c r="E56" t="n">
-        <v>11.77</v>
+        <v>11.72</v>
       </c>
       <c r="F56" t="n">
-        <v>4248.0884</v>
+        <v>86</v>
       </c>
       <c r="G56" t="n">
-        <v>11.63999999999999</v>
+        <v>11.64633333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.73</v>
+        <v>11.77</v>
       </c>
       <c r="C57" t="n">
-        <v>11.6</v>
+        <v>11.77</v>
       </c>
       <c r="D57" t="n">
-        <v>11.73</v>
+        <v>11.77</v>
       </c>
       <c r="E57" t="n">
-        <v>11.6</v>
+        <v>11.77</v>
       </c>
       <c r="F57" t="n">
-        <v>148969.7505</v>
+        <v>4248.0884</v>
       </c>
       <c r="G57" t="n">
-        <v>11.63283333333333</v>
+        <v>11.63999999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.6</v>
+        <v>11.73</v>
       </c>
       <c r="C58" t="n">
         <v>11.6</v>
       </c>
       <c r="D58" t="n">
-        <v>11.6</v>
+        <v>11.73</v>
       </c>
       <c r="E58" t="n">
         <v>11.6</v>
       </c>
       <c r="F58" t="n">
-        <v>17137.9605</v>
+        <v>148969.7505</v>
       </c>
       <c r="G58" t="n">
-        <v>11.62416666666666</v>
+        <v>11.63283333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.64</v>
+        <v>11.6</v>
       </c>
       <c r="C59" t="n">
-        <v>11.64</v>
+        <v>11.6</v>
       </c>
       <c r="D59" t="n">
-        <v>11.64</v>
+        <v>11.6</v>
       </c>
       <c r="E59" t="n">
-        <v>11.64</v>
+        <v>11.6</v>
       </c>
       <c r="F59" t="n">
-        <v>263.8316151202749</v>
+        <v>17137.9605</v>
       </c>
       <c r="G59" t="n">
-        <v>11.61383333333333</v>
+        <v>11.62416666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.6</v>
+        <v>11.64</v>
       </c>
       <c r="C60" t="n">
-        <v>11.6</v>
+        <v>11.64</v>
       </c>
       <c r="D60" t="n">
-        <v>11.6</v>
+        <v>11.64</v>
       </c>
       <c r="E60" t="n">
-        <v>11.6</v>
+        <v>11.64</v>
       </c>
       <c r="F60" t="n">
-        <v>86488.38860000001</v>
+        <v>263.8316151202749</v>
       </c>
       <c r="G60" t="n">
-        <v>11.61499999999999</v>
+        <v>11.61383333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>11.6</v>
       </c>
       <c r="F61" t="n">
-        <v>82455</v>
+        <v>86488.38860000001</v>
       </c>
       <c r="G61" t="n">
-        <v>11.60666666666666</v>
+        <v>11.61499999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>11.6</v>
       </c>
       <c r="F62" t="n">
-        <v>197699.8499</v>
+        <v>82455</v>
       </c>
       <c r="G62" t="n">
-        <v>11.60183333333333</v>
+        <v>11.60666666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.53</v>
+        <v>11.6</v>
       </c>
       <c r="C63" t="n">
         <v>11.6</v>
@@ -2577,13 +2577,13 @@
         <v>11.6</v>
       </c>
       <c r="E63" t="n">
-        <v>11.53</v>
+        <v>11.6</v>
       </c>
       <c r="F63" t="n">
-        <v>13000.3426</v>
+        <v>197699.8499</v>
       </c>
       <c r="G63" t="n">
-        <v>11.60333333333333</v>
+        <v>11.60183333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.61</v>
+        <v>11.53</v>
       </c>
       <c r="C64" t="n">
-        <v>11.61</v>
+        <v>11.6</v>
       </c>
       <c r="D64" t="n">
-        <v>11.61</v>
+        <v>11.6</v>
       </c>
       <c r="E64" t="n">
-        <v>11.61</v>
+        <v>11.53</v>
       </c>
       <c r="F64" t="n">
-        <v>17194.2302</v>
+        <v>13000.3426</v>
       </c>
       <c r="G64" t="n">
-        <v>11.605</v>
+        <v>11.60333333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.67</v>
+        <v>11.61</v>
       </c>
       <c r="C65" t="n">
-        <v>11.67</v>
+        <v>11.61</v>
       </c>
       <c r="D65" t="n">
-        <v>11.67</v>
+        <v>11.61</v>
       </c>
       <c r="E65" t="n">
-        <v>11.67</v>
+        <v>11.61</v>
       </c>
       <c r="F65" t="n">
-        <v>279.0737</v>
+        <v>17194.2302</v>
       </c>
       <c r="G65" t="n">
-        <v>11.60066666666666</v>
+        <v>11.605</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.73</v>
+        <v>11.67</v>
       </c>
       <c r="C66" t="n">
-        <v>11.73</v>
+        <v>11.67</v>
       </c>
       <c r="D66" t="n">
-        <v>11.73</v>
+        <v>11.67</v>
       </c>
       <c r="E66" t="n">
-        <v>11.73</v>
+        <v>11.67</v>
       </c>
       <c r="F66" t="n">
-        <v>582.5234441602728</v>
+        <v>279.0737</v>
       </c>
       <c r="G66" t="n">
-        <v>11.609</v>
+        <v>11.60066666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.66</v>
+        <v>11.73</v>
       </c>
       <c r="C67" t="n">
-        <v>11.66</v>
+        <v>11.73</v>
       </c>
       <c r="D67" t="n">
-        <v>11.66</v>
+        <v>11.73</v>
       </c>
       <c r="E67" t="n">
-        <v>11.66</v>
+        <v>11.73</v>
       </c>
       <c r="F67" t="n">
-        <v>50730</v>
+        <v>582.5234441602728</v>
       </c>
       <c r="G67" t="n">
-        <v>11.61166666666666</v>
+        <v>11.609</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.61</v>
+        <v>11.66</v>
       </c>
       <c r="C68" t="n">
-        <v>11.61</v>
+        <v>11.66</v>
       </c>
       <c r="D68" t="n">
-        <v>11.61</v>
+        <v>11.66</v>
       </c>
       <c r="E68" t="n">
-        <v>11.61</v>
+        <v>11.66</v>
       </c>
       <c r="F68" t="n">
-        <v>202138.8608</v>
+        <v>50730</v>
       </c>
       <c r="G68" t="n">
-        <v>11.61333333333333</v>
+        <v>11.61166666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>11.61</v>
       </c>
       <c r="F69" t="n">
-        <v>4891.6686</v>
+        <v>202138.8608</v>
       </c>
       <c r="G69" t="n">
-        <v>11.61516666666666</v>
+        <v>11.61333333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2816,19 +2816,19 @@
         <v>11.61</v>
       </c>
       <c r="C70" t="n">
-        <v>11.53</v>
+        <v>11.61</v>
       </c>
       <c r="D70" t="n">
         <v>11.61</v>
       </c>
       <c r="E70" t="n">
-        <v>11.53</v>
+        <v>11.61</v>
       </c>
       <c r="F70" t="n">
-        <v>71892.92630000001</v>
+        <v>4891.6686</v>
       </c>
       <c r="G70" t="n">
-        <v>11.62</v>
+        <v>11.61516666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.53</v>
+        <v>11.61</v>
       </c>
       <c r="C71" t="n">
         <v>11.53</v>
       </c>
       <c r="D71" t="n">
-        <v>11.53</v>
+        <v>11.61</v>
       </c>
       <c r="E71" t="n">
         <v>11.53</v>
       </c>
       <c r="F71" t="n">
-        <v>10693.3269</v>
+        <v>71892.92630000001</v>
       </c>
       <c r="G71" t="n">
-        <v>11.62483333333333</v>
+        <v>11.62</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.52</v>
+        <v>11.53</v>
       </c>
       <c r="C72" t="n">
-        <v>11.5</v>
+        <v>11.53</v>
       </c>
       <c r="D72" t="n">
-        <v>11.52</v>
+        <v>11.53</v>
       </c>
       <c r="E72" t="n">
-        <v>11.5</v>
+        <v>11.53</v>
       </c>
       <c r="F72" t="n">
-        <v>88626</v>
+        <v>10693.3269</v>
       </c>
       <c r="G72" t="n">
-        <v>11.62733333333333</v>
+        <v>11.62483333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.48</v>
+        <v>11.52</v>
       </c>
       <c r="C73" t="n">
-        <v>11.48</v>
+        <v>11.5</v>
       </c>
       <c r="D73" t="n">
-        <v>11.48</v>
+        <v>11.52</v>
       </c>
       <c r="E73" t="n">
-        <v>11.48</v>
+        <v>11.5</v>
       </c>
       <c r="F73" t="n">
-        <v>2583.3934</v>
+        <v>88626</v>
       </c>
       <c r="G73" t="n">
-        <v>11.62716666666666</v>
+        <v>11.62733333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.38</v>
+        <v>11.48</v>
       </c>
       <c r="C74" t="n">
-        <v>11.38</v>
+        <v>11.48</v>
       </c>
       <c r="D74" t="n">
-        <v>11.38</v>
+        <v>11.48</v>
       </c>
       <c r="E74" t="n">
-        <v>11.38</v>
+        <v>11.48</v>
       </c>
       <c r="F74" t="n">
-        <v>382.2504</v>
+        <v>2583.3934</v>
       </c>
       <c r="G74" t="n">
-        <v>11.62599999999999</v>
+        <v>11.62716666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="C75" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="D75" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="E75" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="F75" t="n">
-        <v>66286.81299999999</v>
+        <v>382.2504</v>
       </c>
       <c r="G75" t="n">
-        <v>11.62933333333333</v>
+        <v>11.62599999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,19 +3035,23 @@
         <v>11.45</v>
       </c>
       <c r="F76" t="n">
-        <v>174.9965</v>
+        <v>66286.81299999999</v>
       </c>
       <c r="G76" t="n">
-        <v>11.63266666666666</v>
+        <v>11.62933333333333</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K76" t="n">
+        <v>11.38</v>
+      </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
@@ -3070,20 +3074,28 @@
         <v>11.45</v>
       </c>
       <c r="F77" t="n">
-        <v>6288.0484</v>
+        <v>174.9965</v>
       </c>
       <c r="G77" t="n">
-        <v>11.63183333333333</v>
+        <v>11.63266666666666</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="K77" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,32 +3105,40 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.39</v>
+        <v>11.45</v>
       </c>
       <c r="C78" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="D78" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="E78" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="F78" t="n">
+        <v>6288.0484</v>
+      </c>
+      <c r="G78" t="n">
+        <v>11.63183333333333</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="K78" t="n">
         <v>11.38</v>
       </c>
-      <c r="D78" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="E78" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="F78" t="n">
-        <v>10934.4575</v>
-      </c>
-      <c r="G78" t="n">
-        <v>11.62983333333333</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,32 +3148,40 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.43</v>
+        <v>11.39</v>
       </c>
       <c r="C79" t="n">
-        <v>11.53</v>
+        <v>11.38</v>
       </c>
       <c r="D79" t="n">
-        <v>11.53</v>
+        <v>11.39</v>
       </c>
       <c r="E79" t="n">
-        <v>11.43</v>
+        <v>11.38</v>
       </c>
       <c r="F79" t="n">
-        <v>174836.471</v>
+        <v>10934.4575</v>
       </c>
       <c r="G79" t="n">
-        <v>11.62966666666666</v>
+        <v>11.62983333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="K79" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,22 +3191,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.57</v>
+        <v>11.43</v>
       </c>
       <c r="C80" t="n">
-        <v>11.67</v>
+        <v>11.53</v>
       </c>
       <c r="D80" t="n">
-        <v>11.67</v>
+        <v>11.53</v>
       </c>
       <c r="E80" t="n">
-        <v>11.57</v>
+        <v>11.43</v>
       </c>
       <c r="F80" t="n">
-        <v>45271.8734</v>
+        <v>174836.471</v>
       </c>
       <c r="G80" t="n">
-        <v>11.63183333333333</v>
+        <v>11.62966666666666</v>
       </c>
       <c r="H80" t="n">
         <v>1</v>
@@ -3187,12 +3215,16 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>11.53</v>
+        <v>11.38</v>
       </c>
       <c r="K80" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="L80" t="inlineStr"/>
+        <v>11.38</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3202,7 +3234,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.67</v>
+        <v>11.57</v>
       </c>
       <c r="C81" t="n">
         <v>11.67</v>
@@ -3211,13 +3243,13 @@
         <v>11.67</v>
       </c>
       <c r="E81" t="n">
-        <v>11.67</v>
+        <v>11.57</v>
       </c>
       <c r="F81" t="n">
-        <v>253.8204</v>
+        <v>45271.8734</v>
       </c>
       <c r="G81" t="n">
-        <v>11.63499999999999</v>
+        <v>11.63183333333333</v>
       </c>
       <c r="H81" t="n">
         <v>1</v>
@@ -3226,14 +3258,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>11.67</v>
+        <v>11.53</v>
       </c>
       <c r="K81" t="n">
-        <v>11.53</v>
+        <v>11.38</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M81" t="n">
@@ -3245,38 +3277,36 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.48</v>
+        <v>11.67</v>
       </c>
       <c r="C82" t="n">
-        <v>11.48</v>
+        <v>11.67</v>
       </c>
       <c r="D82" t="n">
-        <v>11.48</v>
+        <v>11.67</v>
       </c>
       <c r="E82" t="n">
-        <v>11.48</v>
+        <v>11.67</v>
       </c>
       <c r="F82" t="n">
-        <v>100</v>
+        <v>253.8204</v>
       </c>
       <c r="G82" t="n">
-        <v>11.63483333333333</v>
+        <v>11.63499999999999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>11.67</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>11.53</v>
+        <v>11.38</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M82" t="n">
@@ -3288,36 +3318,38 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.66</v>
+        <v>11.48</v>
       </c>
       <c r="C83" t="n">
-        <v>11.66</v>
+        <v>11.48</v>
       </c>
       <c r="D83" t="n">
-        <v>11.66</v>
+        <v>11.48</v>
       </c>
       <c r="E83" t="n">
-        <v>11.66</v>
+        <v>11.48</v>
       </c>
       <c r="F83" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="G83" t="n">
-        <v>11.63616666666666</v>
+        <v>11.63483333333333</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>11.48</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L83" t="inlineStr"/>
+        <v>11.38</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3330,35 +3362,33 @@
         <v>11.66</v>
       </c>
       <c r="C84" t="n">
-        <v>11.69</v>
+        <v>11.66</v>
       </c>
       <c r="D84" t="n">
-        <v>11.69</v>
+        <v>11.66</v>
       </c>
       <c r="E84" t="n">
         <v>11.66</v>
       </c>
       <c r="F84" t="n">
-        <v>230272.215</v>
+        <v>44</v>
       </c>
       <c r="G84" t="n">
-        <v>11.63933333333333</v>
+        <v>11.63616666666666</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>11.66</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>11.48</v>
+        <v>11.38</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M84" t="n">
@@ -3370,7 +3400,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.69</v>
+        <v>11.66</v>
       </c>
       <c r="C85" t="n">
         <v>11.69</v>
@@ -3379,13 +3409,13 @@
         <v>11.69</v>
       </c>
       <c r="E85" t="n">
-        <v>11.69</v>
+        <v>11.66</v>
       </c>
       <c r="F85" t="n">
-        <v>5473.4805</v>
+        <v>230272.215</v>
       </c>
       <c r="G85" t="n">
-        <v>11.64233333333333</v>
+        <v>11.63933333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3395,11 +3425,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>11.48</v>
+        <v>11.38</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -3414,19 +3444,19 @@
         <v>11.69</v>
       </c>
       <c r="C86" t="n">
-        <v>12.06</v>
+        <v>11.69</v>
       </c>
       <c r="D86" t="n">
-        <v>12.06</v>
+        <v>11.69</v>
       </c>
       <c r="E86" t="n">
         <v>11.69</v>
       </c>
       <c r="F86" t="n">
-        <v>15500</v>
+        <v>5473.4805</v>
       </c>
       <c r="G86" t="n">
-        <v>11.65166666666666</v>
+        <v>11.64233333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3435,8 +3465,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3446,22 +3482,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.95</v>
+        <v>11.69</v>
       </c>
       <c r="C87" t="n">
-        <v>12.05</v>
+        <v>12.06</v>
       </c>
       <c r="D87" t="n">
-        <v>12.05</v>
+        <v>12.06</v>
       </c>
       <c r="E87" t="n">
-        <v>11.95</v>
+        <v>11.69</v>
       </c>
       <c r="F87" t="n">
-        <v>11364.49</v>
+        <v>15500</v>
       </c>
       <c r="G87" t="n">
-        <v>11.66083333333333</v>
+        <v>11.65166666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3470,8 +3506,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3481,22 +3523,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12</v>
+        <v>11.95</v>
       </c>
       <c r="C88" t="n">
-        <v>12</v>
+        <v>12.05</v>
       </c>
       <c r="D88" t="n">
-        <v>12</v>
+        <v>12.05</v>
       </c>
       <c r="E88" t="n">
-        <v>12</v>
+        <v>11.95</v>
       </c>
       <c r="F88" t="n">
-        <v>5000</v>
+        <v>11364.49</v>
       </c>
       <c r="G88" t="n">
-        <v>11.66633333333333</v>
+        <v>11.66083333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3505,8 +3547,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3516,32 +3564,38 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11.95</v>
+        <v>12</v>
       </c>
       <c r="C89" t="n">
-        <v>11.95</v>
+        <v>12</v>
       </c>
       <c r="D89" t="n">
-        <v>11.95</v>
+        <v>12</v>
       </c>
       <c r="E89" t="n">
-        <v>11.95</v>
+        <v>12</v>
       </c>
       <c r="F89" t="n">
-        <v>5485.263</v>
+        <v>5000</v>
       </c>
       <c r="G89" t="n">
-        <v>11.672</v>
+        <v>11.66633333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3551,32 +3605,38 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11.63</v>
+        <v>11.95</v>
       </c>
       <c r="C90" t="n">
-        <v>11.63</v>
+        <v>11.95</v>
       </c>
       <c r="D90" t="n">
-        <v>11.63</v>
+        <v>11.95</v>
       </c>
       <c r="E90" t="n">
-        <v>11.63</v>
+        <v>11.95</v>
       </c>
       <c r="F90" t="n">
-        <v>43</v>
+        <v>5485.263</v>
       </c>
       <c r="G90" t="n">
-        <v>11.67233333333333</v>
+        <v>11.672</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3586,22 +3646,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>11.95</v>
+        <v>11.63</v>
       </c>
       <c r="C91" t="n">
-        <v>11.95</v>
+        <v>11.63</v>
       </c>
       <c r="D91" t="n">
-        <v>11.95</v>
+        <v>11.63</v>
       </c>
       <c r="E91" t="n">
-        <v>11.95</v>
+        <v>11.63</v>
       </c>
       <c r="F91" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G91" t="n">
-        <v>11.678</v>
+        <v>11.67233333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3610,10 +3670,16 @@
         <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M91" t="n">
-        <v>1</v>
+        <v>1.016968365553603</v>
       </c>
     </row>
     <row r="92">
@@ -3621,22 +3687,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.65</v>
+        <v>11.95</v>
       </c>
       <c r="C92" t="n">
-        <v>11.83</v>
+        <v>11.95</v>
       </c>
       <c r="D92" t="n">
-        <v>11.83</v>
+        <v>11.95</v>
       </c>
       <c r="E92" t="n">
-        <v>11.65</v>
+        <v>11.95</v>
       </c>
       <c r="F92" t="n">
-        <v>8516.9318</v>
+        <v>42</v>
       </c>
       <c r="G92" t="n">
-        <v>11.67933333333333</v>
+        <v>11.678</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3656,28 +3722,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.66</v>
+        <v>11.65</v>
       </c>
       <c r="C93" t="n">
-        <v>11.66</v>
+        <v>11.83</v>
       </c>
       <c r="D93" t="n">
-        <v>11.66</v>
+        <v>11.83</v>
       </c>
       <c r="E93" t="n">
-        <v>11.66</v>
+        <v>11.65</v>
       </c>
       <c r="F93" t="n">
-        <v>6470.169</v>
+        <v>8516.9318</v>
       </c>
       <c r="G93" t="n">
-        <v>11.67833333333333</v>
+        <v>11.67933333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3694,19 +3760,19 @@
         <v>11.66</v>
       </c>
       <c r="C94" t="n">
-        <v>11.83</v>
+        <v>11.66</v>
       </c>
       <c r="D94" t="n">
-        <v>11.83</v>
+        <v>11.66</v>
       </c>
       <c r="E94" t="n">
         <v>11.66</v>
       </c>
       <c r="F94" t="n">
-        <v>45</v>
+        <v>6470.169</v>
       </c>
       <c r="G94" t="n">
-        <v>11.68183333333333</v>
+        <v>11.67833333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3726,28 +3792,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.64</v>
+        <v>11.66</v>
       </c>
       <c r="C95" t="n">
-        <v>11.63</v>
+        <v>11.83</v>
       </c>
       <c r="D95" t="n">
-        <v>11.64</v>
+        <v>11.83</v>
       </c>
       <c r="E95" t="n">
-        <v>11.63</v>
+        <v>11.66</v>
       </c>
       <c r="F95" t="n">
-        <v>55108.1576</v>
+        <v>45</v>
       </c>
       <c r="G95" t="n">
-        <v>11.6795</v>
+        <v>11.68183333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3761,28 +3827,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.63</v>
+        <v>11.64</v>
       </c>
       <c r="C96" t="n">
         <v>11.63</v>
       </c>
       <c r="D96" t="n">
-        <v>11.63</v>
+        <v>11.64</v>
       </c>
       <c r="E96" t="n">
         <v>11.63</v>
       </c>
       <c r="F96" t="n">
-        <v>1756.4455</v>
+        <v>55108.1576</v>
       </c>
       <c r="G96" t="n">
-        <v>11.67633333333333</v>
+        <v>11.6795</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3796,22 +3862,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.75</v>
+        <v>11.63</v>
       </c>
       <c r="C97" t="n">
-        <v>11.75</v>
+        <v>11.63</v>
       </c>
       <c r="D97" t="n">
-        <v>11.75</v>
+        <v>11.63</v>
       </c>
       <c r="E97" t="n">
-        <v>11.75</v>
+        <v>11.63</v>
       </c>
       <c r="F97" t="n">
-        <v>88</v>
+        <v>1756.4455</v>
       </c>
       <c r="G97" t="n">
-        <v>11.67416666666666</v>
+        <v>11.67633333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3831,22 +3897,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11.74</v>
+        <v>11.75</v>
       </c>
       <c r="C98" t="n">
-        <v>11.85</v>
+        <v>11.75</v>
       </c>
       <c r="D98" t="n">
-        <v>11.85</v>
+        <v>11.75</v>
       </c>
       <c r="E98" t="n">
-        <v>11.74</v>
+        <v>11.75</v>
       </c>
       <c r="F98" t="n">
         <v>88</v>
       </c>
       <c r="G98" t="n">
-        <v>11.675</v>
+        <v>11.67416666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3866,22 +3932,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>11.61</v>
+        <v>11.74</v>
       </c>
       <c r="C99" t="n">
-        <v>11.61</v>
+        <v>11.85</v>
       </c>
       <c r="D99" t="n">
-        <v>11.61</v>
+        <v>11.85</v>
       </c>
       <c r="E99" t="n">
-        <v>11.61</v>
+        <v>11.74</v>
       </c>
       <c r="F99" t="n">
-        <v>191787.7247</v>
+        <v>88</v>
       </c>
       <c r="G99" t="n">
-        <v>11.67183333333333</v>
+        <v>11.675</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3904,19 +3970,19 @@
         <v>11.61</v>
       </c>
       <c r="C100" t="n">
-        <v>11.51</v>
+        <v>11.61</v>
       </c>
       <c r="D100" t="n">
         <v>11.61</v>
       </c>
       <c r="E100" t="n">
-        <v>11.51</v>
+        <v>11.61</v>
       </c>
       <c r="F100" t="n">
-        <v>101528.7913</v>
+        <v>191787.7247</v>
       </c>
       <c r="G100" t="n">
-        <v>11.66966666666666</v>
+        <v>11.67183333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3936,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11.51</v>
+        <v>11.61</v>
       </c>
       <c r="C101" t="n">
         <v>11.51</v>
       </c>
       <c r="D101" t="n">
-        <v>11.51</v>
+        <v>11.61</v>
       </c>
       <c r="E101" t="n">
         <v>11.51</v>
       </c>
       <c r="F101" t="n">
-        <v>4307.1201</v>
+        <v>101528.7913</v>
       </c>
       <c r="G101" t="n">
-        <v>11.6675</v>
+        <v>11.66966666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3983,10 +4049,10 @@
         <v>11.51</v>
       </c>
       <c r="F102" t="n">
-        <v>29313.6387</v>
+        <v>4307.1201</v>
       </c>
       <c r="G102" t="n">
-        <v>11.665</v>
+        <v>11.6675</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4006,22 +4072,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>11.9</v>
+        <v>11.51</v>
       </c>
       <c r="C103" t="n">
-        <v>11.9</v>
+        <v>11.51</v>
       </c>
       <c r="D103" t="n">
-        <v>11.9</v>
+        <v>11.51</v>
       </c>
       <c r="E103" t="n">
-        <v>11.9</v>
+        <v>11.51</v>
       </c>
       <c r="F103" t="n">
-        <v>44</v>
+        <v>29313.6387</v>
       </c>
       <c r="G103" t="n">
-        <v>11.6665</v>
+        <v>11.665</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4041,22 +4107,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>11.79</v>
+        <v>11.9</v>
       </c>
       <c r="C104" t="n">
-        <v>11.79</v>
+        <v>11.9</v>
       </c>
       <c r="D104" t="n">
-        <v>11.79</v>
+        <v>11.9</v>
       </c>
       <c r="E104" t="n">
-        <v>11.79</v>
+        <v>11.9</v>
       </c>
       <c r="F104" t="n">
-        <v>1670.992366412214</v>
+        <v>44</v>
       </c>
       <c r="G104" t="n">
-        <v>11.66866666666666</v>
+        <v>11.6665</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4076,22 +4142,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>11.9</v>
+        <v>11.79</v>
       </c>
       <c r="C105" t="n">
-        <v>11.9</v>
+        <v>11.79</v>
       </c>
       <c r="D105" t="n">
-        <v>11.9</v>
+        <v>11.79</v>
       </c>
       <c r="E105" t="n">
-        <v>11.9</v>
+        <v>11.79</v>
       </c>
       <c r="F105" t="n">
-        <v>43</v>
+        <v>1670.992366412214</v>
       </c>
       <c r="G105" t="n">
-        <v>11.67283333333333</v>
+        <v>11.66866666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4111,7 +4177,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>11.52</v>
+        <v>11.9</v>
       </c>
       <c r="C106" t="n">
         <v>11.9</v>
@@ -4120,13 +4186,13 @@
         <v>11.9</v>
       </c>
       <c r="E106" t="n">
-        <v>11.51</v>
+        <v>11.9</v>
       </c>
       <c r="F106" t="n">
-        <v>87446.97</v>
+        <v>43</v>
       </c>
       <c r="G106" t="n">
-        <v>11.67433333333333</v>
+        <v>11.67283333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4146,22 +4212,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>11.55</v>
+        <v>11.52</v>
       </c>
       <c r="C107" t="n">
-        <v>11.55</v>
+        <v>11.9</v>
       </c>
       <c r="D107" t="n">
-        <v>11.55</v>
+        <v>11.9</v>
       </c>
       <c r="E107" t="n">
-        <v>11.55</v>
+        <v>11.51</v>
       </c>
       <c r="F107" t="n">
-        <v>1507.5656</v>
+        <v>87446.97</v>
       </c>
       <c r="G107" t="n">
-        <v>11.67266666666666</v>
+        <v>11.67433333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4181,22 +4247,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>11.78</v>
+        <v>11.55</v>
       </c>
       <c r="C108" t="n">
-        <v>11.78</v>
+        <v>11.55</v>
       </c>
       <c r="D108" t="n">
-        <v>11.78</v>
+        <v>11.55</v>
       </c>
       <c r="E108" t="n">
-        <v>11.78</v>
+        <v>11.55</v>
       </c>
       <c r="F108" t="n">
-        <v>3515.025466893039</v>
+        <v>1507.5656</v>
       </c>
       <c r="G108" t="n">
-        <v>11.67483333333333</v>
+        <v>11.67266666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4228,10 +4294,10 @@
         <v>11.78</v>
       </c>
       <c r="F109" t="n">
-        <v>2401.6342</v>
+        <v>3515.025466893039</v>
       </c>
       <c r="G109" t="n">
-        <v>11.67433333333333</v>
+        <v>11.67483333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4251,22 +4317,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.77</v>
+        <v>11.78</v>
       </c>
       <c r="C110" t="n">
-        <v>11.51</v>
+        <v>11.78</v>
       </c>
       <c r="D110" t="n">
-        <v>11.77</v>
+        <v>11.78</v>
       </c>
       <c r="E110" t="n">
-        <v>11.51</v>
+        <v>11.78</v>
       </c>
       <c r="F110" t="n">
-        <v>65259.46</v>
+        <v>2401.6342</v>
       </c>
       <c r="G110" t="n">
-        <v>11.672</v>
+        <v>11.67433333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4286,22 +4352,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>11.51</v>
+        <v>11.77</v>
       </c>
       <c r="C111" t="n">
         <v>11.51</v>
       </c>
       <c r="D111" t="n">
-        <v>11.51</v>
+        <v>11.77</v>
       </c>
       <c r="E111" t="n">
         <v>11.51</v>
       </c>
       <c r="F111" t="n">
-        <v>72755</v>
+        <v>65259.46</v>
       </c>
       <c r="G111" t="n">
-        <v>11.66983333333333</v>
+        <v>11.672</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4321,22 +4387,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>11.52</v>
+        <v>11.51</v>
       </c>
       <c r="C112" t="n">
         <v>11.51</v>
       </c>
       <c r="D112" t="n">
-        <v>11.52</v>
+        <v>11.51</v>
       </c>
       <c r="E112" t="n">
         <v>11.51</v>
       </c>
       <c r="F112" t="n">
-        <v>77872.2668</v>
+        <v>72755</v>
       </c>
       <c r="G112" t="n">
-        <v>11.66483333333333</v>
+        <v>11.66983333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4356,22 +4422,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>11.41</v>
+        <v>11.52</v>
       </c>
       <c r="C113" t="n">
-        <v>11.41</v>
+        <v>11.51</v>
       </c>
       <c r="D113" t="n">
-        <v>11.41</v>
+        <v>11.52</v>
       </c>
       <c r="E113" t="n">
-        <v>11.41</v>
+        <v>11.51</v>
       </c>
       <c r="F113" t="n">
-        <v>2401.6342</v>
+        <v>77872.2668</v>
       </c>
       <c r="G113" t="n">
-        <v>11.65816666666667</v>
+        <v>11.66483333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4391,31 +4457,35 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.68</v>
+        <v>11.41</v>
       </c>
       <c r="C114" t="n">
-        <v>11.68</v>
+        <v>11.41</v>
       </c>
       <c r="D114" t="n">
-        <v>11.68</v>
+        <v>11.41</v>
       </c>
       <c r="E114" t="n">
-        <v>11.68</v>
+        <v>11.41</v>
       </c>
       <c r="F114" t="n">
-        <v>44</v>
+        <v>2401.6342</v>
       </c>
       <c r="G114" t="n">
-        <v>11.6595</v>
+        <v>11.65816666666667</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="K114" t="n">
+        <v>11.51</v>
+      </c>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
@@ -4426,7 +4496,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>11.44</v>
+        <v>11.68</v>
       </c>
       <c r="C115" t="n">
         <v>11.68</v>
@@ -4435,23 +4505,31 @@
         <v>11.68</v>
       </c>
       <c r="E115" t="n">
-        <v>11.44</v>
+        <v>11.68</v>
       </c>
       <c r="F115" t="n">
-        <v>421.7747</v>
+        <v>44</v>
       </c>
       <c r="G115" t="n">
-        <v>11.655</v>
+        <v>11.6595</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="K115" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4461,32 +4539,40 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="C116" t="n">
         <v>11.68</v>
       </c>
-      <c r="C116" t="n">
-        <v>11.88</v>
-      </c>
       <c r="D116" t="n">
-        <v>11.88</v>
+        <v>11.68</v>
       </c>
       <c r="E116" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="F116" t="n">
+        <v>421.7747</v>
+      </c>
+      <c r="G116" t="n">
+        <v>11.655</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
         <v>11.68</v>
       </c>
-      <c r="F116" t="n">
-        <v>16944.8124</v>
-      </c>
-      <c r="G116" t="n">
-        <v>11.65683333333333</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4496,22 +4582,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>11.67</v>
+        <v>11.68</v>
       </c>
       <c r="C117" t="n">
-        <v>11.77</v>
+        <v>11.88</v>
       </c>
       <c r="D117" t="n">
-        <v>11.77</v>
+        <v>11.88</v>
       </c>
       <c r="E117" t="n">
-        <v>11.67</v>
+        <v>11.68</v>
       </c>
       <c r="F117" t="n">
-        <v>16861.441</v>
+        <v>16944.8124</v>
       </c>
       <c r="G117" t="n">
-        <v>11.65966666666666</v>
+        <v>11.65683333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4520,8 +4606,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4534,29 +4626,37 @@
         <v>11.67</v>
       </c>
       <c r="C118" t="n">
-        <v>11.67</v>
+        <v>11.77</v>
       </c>
       <c r="D118" t="n">
-        <v>11.67</v>
+        <v>11.77</v>
       </c>
       <c r="E118" t="n">
         <v>11.67</v>
       </c>
       <c r="F118" t="n">
-        <v>4028</v>
+        <v>16861.441</v>
       </c>
       <c r="G118" t="n">
-        <v>11.66083333333333</v>
+        <v>11.65966666666666</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="K118" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4569,19 +4669,19 @@
         <v>11.67</v>
       </c>
       <c r="C119" t="n">
-        <v>11.54</v>
+        <v>11.67</v>
       </c>
       <c r="D119" t="n">
         <v>11.67</v>
       </c>
       <c r="E119" t="n">
-        <v>11.54</v>
+        <v>11.67</v>
       </c>
       <c r="F119" t="n">
-        <v>30745.8067</v>
+        <v>4028</v>
       </c>
       <c r="G119" t="n">
-        <v>11.65916666666666</v>
+        <v>11.66083333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4590,8 +4690,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4601,22 +4707,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>11.79</v>
+        <v>11.67</v>
       </c>
       <c r="C120" t="n">
         <v>11.54</v>
       </c>
       <c r="D120" t="n">
-        <v>11.79</v>
+        <v>11.67</v>
       </c>
       <c r="E120" t="n">
         <v>11.54</v>
       </c>
       <c r="F120" t="n">
-        <v>3060.4467</v>
+        <v>30745.8067</v>
       </c>
       <c r="G120" t="n">
-        <v>11.65816666666666</v>
+        <v>11.65916666666666</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4625,8 +4731,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4639,19 +4751,19 @@
         <v>11.79</v>
       </c>
       <c r="C121" t="n">
-        <v>11.79</v>
+        <v>11.54</v>
       </c>
       <c r="D121" t="n">
         <v>11.79</v>
       </c>
       <c r="E121" t="n">
-        <v>11.79</v>
+        <v>11.54</v>
       </c>
       <c r="F121" t="n">
-        <v>43</v>
+        <v>3060.4467</v>
       </c>
       <c r="G121" t="n">
-        <v>11.66133333333333</v>
+        <v>11.65816666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4660,8 +4772,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4671,22 +4789,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.89</v>
+        <v>11.79</v>
       </c>
       <c r="C122" t="n">
-        <v>11.89</v>
+        <v>11.79</v>
       </c>
       <c r="D122" t="n">
-        <v>11.89</v>
+        <v>11.79</v>
       </c>
       <c r="E122" t="n">
-        <v>11.89</v>
+        <v>11.79</v>
       </c>
       <c r="F122" t="n">
         <v>43</v>
       </c>
       <c r="G122" t="n">
-        <v>11.66616666666666</v>
+        <v>11.66133333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4695,8 +4813,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4718,10 +4842,10 @@
         <v>11.89</v>
       </c>
       <c r="F123" t="n">
-        <v>14471.737</v>
+        <v>43</v>
       </c>
       <c r="G123" t="n">
-        <v>11.67099999999999</v>
+        <v>11.66616666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4730,8 +4854,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4741,22 +4871,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>12.06</v>
+        <v>11.89</v>
       </c>
       <c r="C124" t="n">
-        <v>12.06</v>
+        <v>11.89</v>
       </c>
       <c r="D124" t="n">
-        <v>12.06</v>
+        <v>11.89</v>
       </c>
       <c r="E124" t="n">
-        <v>12.06</v>
+        <v>11.89</v>
       </c>
       <c r="F124" t="n">
-        <v>21707</v>
+        <v>14471.737</v>
       </c>
       <c r="G124" t="n">
-        <v>11.67849999999999</v>
+        <v>11.67099999999999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4765,8 +4895,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4776,22 +4912,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>12.16</v>
+        <v>12.06</v>
       </c>
       <c r="C125" t="n">
-        <v>12.16</v>
+        <v>12.06</v>
       </c>
       <c r="D125" t="n">
-        <v>12.16</v>
+        <v>12.06</v>
       </c>
       <c r="E125" t="n">
         <v>12.06</v>
       </c>
       <c r="F125" t="n">
-        <v>4028</v>
+        <v>21707</v>
       </c>
       <c r="G125" t="n">
-        <v>11.68666666666666</v>
+        <v>11.67849999999999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4800,8 +4936,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4811,22 +4953,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>12.08</v>
+        <v>12.16</v>
       </c>
       <c r="C126" t="n">
-        <v>12.08</v>
+        <v>12.16</v>
       </c>
       <c r="D126" t="n">
-        <v>12.08</v>
+        <v>12.16</v>
       </c>
       <c r="E126" t="n">
-        <v>12.08</v>
+        <v>12.06</v>
       </c>
       <c r="F126" t="n">
-        <v>1857.4631</v>
+        <v>4028</v>
       </c>
       <c r="G126" t="n">
-        <v>11.69249999999999</v>
+        <v>11.68666666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4835,8 +4977,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4858,22 +5006,28 @@
         <v>12.08</v>
       </c>
       <c r="F127" t="n">
-        <v>84</v>
+        <v>1857.4631</v>
       </c>
       <c r="G127" t="n">
-        <v>11.69949999999999</v>
+        <v>11.69249999999999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M127" t="n">
-        <v>1</v>
+        <v>1.044522154648132</v>
       </c>
     </row>
     <row r="128">
@@ -4884,19 +5038,19 @@
         <v>12.08</v>
       </c>
       <c r="C128" t="n">
-        <v>11.98</v>
+        <v>12.08</v>
       </c>
       <c r="D128" t="n">
         <v>12.08</v>
       </c>
       <c r="E128" t="n">
-        <v>11.88</v>
+        <v>12.08</v>
       </c>
       <c r="F128" t="n">
-        <v>4978</v>
+        <v>84</v>
       </c>
       <c r="G128" t="n">
-        <v>11.70566666666666</v>
+        <v>11.69949999999999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4916,28 +5070,28 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>11.86</v>
+        <v>12.08</v>
       </c>
       <c r="C129" t="n">
-        <v>11.85</v>
+        <v>11.98</v>
       </c>
       <c r="D129" t="n">
-        <v>11.86</v>
+        <v>12.08</v>
       </c>
       <c r="E129" t="n">
-        <v>11.74</v>
+        <v>11.88</v>
       </c>
       <c r="F129" t="n">
-        <v>35975.3773</v>
+        <v>4978</v>
       </c>
       <c r="G129" t="n">
-        <v>11.70966666666666</v>
+        <v>11.70566666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -4951,28 +5105,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C130" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D130" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="E130" t="n">
         <v>11.74</v>
       </c>
-      <c r="C130" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="D130" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="E130" t="n">
-        <v>11.6</v>
-      </c>
       <c r="F130" t="n">
-        <v>13711.6227</v>
+        <v>35975.3773</v>
       </c>
       <c r="G130" t="n">
-        <v>11.71316666666666</v>
+        <v>11.70966666666666</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -4986,28 +5140,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>11.75</v>
+        <v>11.74</v>
       </c>
       <c r="C131" t="n">
-        <v>11.75</v>
+        <v>11.74</v>
       </c>
       <c r="D131" t="n">
-        <v>11.75</v>
+        <v>11.74</v>
       </c>
       <c r="E131" t="n">
-        <v>11.75</v>
+        <v>11.6</v>
       </c>
       <c r="F131" t="n">
-        <v>44</v>
+        <v>13711.6227</v>
       </c>
       <c r="G131" t="n">
-        <v>11.71683333333333</v>
+        <v>11.71316666666666</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5033,10 +5187,10 @@
         <v>11.75</v>
       </c>
       <c r="F132" t="n">
-        <v>4419.1215</v>
+        <v>44</v>
       </c>
       <c r="G132" t="n">
-        <v>11.72099999999999</v>
+        <v>11.71683333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5056,22 +5210,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>11.55</v>
+        <v>11.75</v>
       </c>
       <c r="C133" t="n">
-        <v>11.55</v>
+        <v>11.75</v>
       </c>
       <c r="D133" t="n">
-        <v>11.55</v>
+        <v>11.75</v>
       </c>
       <c r="E133" t="n">
-        <v>11.55</v>
+        <v>11.75</v>
       </c>
       <c r="F133" t="n">
-        <v>163.7945</v>
+        <v>4419.1215</v>
       </c>
       <c r="G133" t="n">
-        <v>11.72216666666666</v>
+        <v>11.72099999999999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5091,22 +5245,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>11.75</v>
+        <v>11.55</v>
       </c>
       <c r="C134" t="n">
-        <v>11.75</v>
+        <v>11.55</v>
       </c>
       <c r="D134" t="n">
-        <v>11.75</v>
+        <v>11.55</v>
       </c>
       <c r="E134" t="n">
-        <v>11.75</v>
+        <v>11.55</v>
       </c>
       <c r="F134" t="n">
-        <v>44</v>
+        <v>163.7945</v>
       </c>
       <c r="G134" t="n">
-        <v>11.72833333333333</v>
+        <v>11.72216666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5126,22 +5280,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>11.55</v>
+        <v>11.75</v>
       </c>
       <c r="C135" t="n">
-        <v>11.54</v>
+        <v>11.75</v>
       </c>
       <c r="D135" t="n">
-        <v>11.55</v>
+        <v>11.75</v>
       </c>
       <c r="E135" t="n">
-        <v>11.54</v>
+        <v>11.75</v>
       </c>
       <c r="F135" t="n">
-        <v>23251.94</v>
+        <v>44</v>
       </c>
       <c r="G135" t="n">
-        <v>11.72983333333332</v>
+        <v>11.72833333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5161,22 +5315,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>11.73</v>
+        <v>11.55</v>
       </c>
       <c r="C136" t="n">
-        <v>11.73</v>
+        <v>11.54</v>
       </c>
       <c r="D136" t="n">
-        <v>11.73</v>
+        <v>11.55</v>
       </c>
       <c r="E136" t="n">
-        <v>11.73</v>
+        <v>11.54</v>
       </c>
       <c r="F136" t="n">
-        <v>44</v>
+        <v>23251.94</v>
       </c>
       <c r="G136" t="n">
-        <v>11.73449999999999</v>
+        <v>11.72983333333332</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5196,22 +5350,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>11.54</v>
+        <v>11.73</v>
       </c>
       <c r="C137" t="n">
-        <v>11.31</v>
+        <v>11.73</v>
       </c>
       <c r="D137" t="n">
-        <v>11.55</v>
+        <v>11.73</v>
       </c>
       <c r="E137" t="n">
-        <v>11.31</v>
+        <v>11.73</v>
       </c>
       <c r="F137" t="n">
-        <v>89419.06</v>
+        <v>44</v>
       </c>
       <c r="G137" t="n">
-        <v>11.73216666666666</v>
+        <v>11.73449999999999</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5231,22 +5385,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>11.63</v>
+        <v>11.54</v>
       </c>
       <c r="C138" t="n">
-        <v>11.63</v>
+        <v>11.31</v>
       </c>
       <c r="D138" t="n">
-        <v>11.63</v>
+        <v>11.55</v>
       </c>
       <c r="E138" t="n">
-        <v>11.63</v>
+        <v>11.31</v>
       </c>
       <c r="F138" t="n">
-        <v>255</v>
+        <v>89419.06</v>
       </c>
       <c r="G138" t="n">
-        <v>11.73633333333332</v>
+        <v>11.73216666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5266,22 +5420,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>11.64</v>
+        <v>11.63</v>
       </c>
       <c r="C139" t="n">
-        <v>11.64</v>
+        <v>11.63</v>
       </c>
       <c r="D139" t="n">
-        <v>11.64</v>
+        <v>11.63</v>
       </c>
       <c r="E139" t="n">
-        <v>11.64</v>
+        <v>11.63</v>
       </c>
       <c r="F139" t="n">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="G139" t="n">
-        <v>11.73816666666666</v>
+        <v>11.73633333333332</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5313,10 +5467,10 @@
         <v>11.64</v>
       </c>
       <c r="F140" t="n">
-        <v>17383.714</v>
+        <v>44</v>
       </c>
       <c r="G140" t="n">
-        <v>11.73766666666666</v>
+        <v>11.73816666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5336,22 +5490,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>11.71</v>
+        <v>11.64</v>
       </c>
       <c r="C141" t="n">
-        <v>11.71</v>
+        <v>11.64</v>
       </c>
       <c r="D141" t="n">
-        <v>11.71</v>
+        <v>11.64</v>
       </c>
       <c r="E141" t="n">
-        <v>11.71</v>
+        <v>11.64</v>
       </c>
       <c r="F141" t="n">
-        <v>43</v>
+        <v>17383.714</v>
       </c>
       <c r="G141" t="n">
-        <v>11.73833333333332</v>
+        <v>11.73766666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5383,10 +5537,10 @@
         <v>11.71</v>
       </c>
       <c r="F142" t="n">
-        <v>2135.7566</v>
+        <v>43</v>
       </c>
       <c r="G142" t="n">
-        <v>11.74216666666666</v>
+        <v>11.73833333333332</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5418,10 +5572,10 @@
         <v>11.71</v>
       </c>
       <c r="F143" t="n">
-        <v>5962.8375</v>
+        <v>2135.7566</v>
       </c>
       <c r="G143" t="n">
-        <v>11.74299999999999</v>
+        <v>11.74216666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5441,22 +5595,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>11.79</v>
+        <v>11.71</v>
       </c>
       <c r="C144" t="n">
-        <v>11.79</v>
+        <v>11.71</v>
       </c>
       <c r="D144" t="n">
-        <v>11.79</v>
+        <v>11.71</v>
       </c>
       <c r="E144" t="n">
-        <v>11.79</v>
+        <v>11.71</v>
       </c>
       <c r="F144" t="n">
-        <v>44</v>
+        <v>5962.8375</v>
       </c>
       <c r="G144" t="n">
-        <v>11.74466666666666</v>
+        <v>11.74299999999999</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5488,10 +5642,10 @@
         <v>11.79</v>
       </c>
       <c r="F145" t="n">
-        <v>10000</v>
+        <v>44</v>
       </c>
       <c r="G145" t="n">
-        <v>11.74633333333332</v>
+        <v>11.74466666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5523,10 +5677,10 @@
         <v>11.79</v>
       </c>
       <c r="F146" t="n">
-        <v>2702.9762</v>
+        <v>10000</v>
       </c>
       <c r="G146" t="n">
-        <v>11.74183333333332</v>
+        <v>11.74633333333332</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5546,22 +5700,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>11.7</v>
+        <v>11.79</v>
       </c>
       <c r="C147" t="n">
-        <v>11.7</v>
+        <v>11.79</v>
       </c>
       <c r="D147" t="n">
-        <v>11.7</v>
+        <v>11.79</v>
       </c>
       <c r="E147" t="n">
-        <v>11.7</v>
+        <v>11.79</v>
       </c>
       <c r="F147" t="n">
-        <v>34051.7149</v>
+        <v>2702.9762</v>
       </c>
       <c r="G147" t="n">
-        <v>11.73599999999999</v>
+        <v>11.74183333333332</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5581,22 +5735,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>11.61</v>
+        <v>11.7</v>
       </c>
       <c r="C148" t="n">
-        <v>11.44</v>
+        <v>11.7</v>
       </c>
       <c r="D148" t="n">
-        <v>11.61</v>
+        <v>11.7</v>
       </c>
       <c r="E148" t="n">
-        <v>11.44</v>
+        <v>11.7</v>
       </c>
       <c r="F148" t="n">
-        <v>7879</v>
+        <v>34051.7149</v>
       </c>
       <c r="G148" t="n">
-        <v>11.72666666666666</v>
+        <v>11.73599999999999</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5616,22 +5770,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>11.44</v>
+        <v>11.61</v>
       </c>
       <c r="C149" t="n">
         <v>11.44</v>
       </c>
       <c r="D149" t="n">
-        <v>11.44</v>
+        <v>11.61</v>
       </c>
       <c r="E149" t="n">
         <v>11.44</v>
       </c>
       <c r="F149" t="n">
-        <v>38059.3679</v>
+        <v>7879</v>
       </c>
       <c r="G149" t="n">
-        <v>11.71816666666666</v>
+        <v>11.72666666666666</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5646,6 +5800,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="C150" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="D150" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="E150" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="F150" t="n">
+        <v>38059.3679</v>
+      </c>
+      <c r="G150" t="n">
+        <v>11.71816666666666</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-19 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-19 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:N160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>130</v>
       </c>
       <c r="G2" t="n">
+        <v>12.036</v>
+      </c>
+      <c r="H2" t="n">
         <v>11.85933333333332</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>42764.0228</v>
       </c>
       <c r="G3" t="n">
+        <v>12.028</v>
+      </c>
+      <c r="H3" t="n">
         <v>11.86299999999998</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>12802.9052</v>
       </c>
       <c r="G4" t="n">
+        <v>11.99266666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>11.86116666666665</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>23705.2272</v>
       </c>
       <c r="G5" t="n">
+        <v>11.984</v>
+      </c>
+      <c r="H5" t="n">
         <v>11.86099999999998</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>18914.8864</v>
       </c>
       <c r="G6" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="H6" t="n">
         <v>11.86599999999998</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>344678.2548</v>
       </c>
       <c r="G7" t="n">
+        <v>11.90066666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>11.85866666666665</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1300</v>
       </c>
       <c r="G8" t="n">
+        <v>11.88066666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>11.85816666666665</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>6459.6004</v>
       </c>
       <c r="G9" t="n">
+        <v>11.83733333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>11.85549999999999</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>3646.6429</v>
       </c>
       <c r="G10" t="n">
+        <v>11.794</v>
+      </c>
+      <c r="H10" t="n">
         <v>11.85266666666665</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>79426.52559999999</v>
       </c>
       <c r="G11" t="n">
+        <v>11.734</v>
+      </c>
+      <c r="H11" t="n">
         <v>11.84783333333332</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>32549.2214</v>
       </c>
       <c r="G12" t="n">
+        <v>11.67333333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>11.84233333333332</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>27226</v>
       </c>
       <c r="G13" t="n">
+        <v>11.628</v>
+      </c>
+      <c r="H13" t="n">
         <v>11.83899999999999</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>30000</v>
       </c>
       <c r="G14" t="n">
+        <v>11.586</v>
+      </c>
+      <c r="H14" t="n">
         <v>11.83583333333332</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>29452.5868</v>
       </c>
       <c r="G15" t="n">
+        <v>11.532</v>
+      </c>
+      <c r="H15" t="n">
         <v>11.83216666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>348982.6373</v>
       </c>
       <c r="G16" t="n">
+        <v>11.51333333333334</v>
+      </c>
+      <c r="H16" t="n">
         <v>11.82449999999999</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1507.5656</v>
       </c>
       <c r="G17" t="n">
+        <v>11.45666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>11.81666666666666</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>44832.8131</v>
       </c>
       <c r="G18" t="n">
+        <v>11.43066666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>11.81366666666666</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>63930.5969</v>
       </c>
       <c r="G19" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="H19" t="n">
         <v>11.80899999999999</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>15053</v>
       </c>
       <c r="G20" t="n">
+        <v>11.432</v>
+      </c>
+      <c r="H20" t="n">
         <v>11.80666666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>7526</v>
       </c>
       <c r="G21" t="n">
+        <v>11.406</v>
+      </c>
+      <c r="H21" t="n">
         <v>11.80433333333332</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>3763</v>
       </c>
       <c r="G22" t="n">
+        <v>11.42266666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>11.80316666666666</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>3764</v>
       </c>
       <c r="G23" t="n">
+        <v>11.422</v>
+      </c>
+      <c r="H23" t="n">
         <v>11.80216666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>7865.5752</v>
       </c>
       <c r="G24" t="n">
+        <v>11.42666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>11.80266666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>83886.8098</v>
       </c>
       <c r="G25" t="n">
+        <v>11.42666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>11.79966666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>8012.4848</v>
       </c>
       <c r="G26" t="n">
+        <v>11.44466666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>11.80266666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>49091.678</v>
       </c>
       <c r="G27" t="n">
+        <v>11.462</v>
+      </c>
+      <c r="H27" t="n">
         <v>11.79983333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>26782.6471</v>
       </c>
       <c r="G28" t="n">
+        <v>11.472</v>
+      </c>
+      <c r="H28" t="n">
         <v>11.797</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>37859.8057</v>
       </c>
       <c r="G29" t="n">
+        <v>11.484</v>
+      </c>
+      <c r="H29" t="n">
         <v>11.797</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>28587.865</v>
       </c>
       <c r="G30" t="n">
+        <v>11.49466666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>11.79566666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>4358.8697</v>
       </c>
       <c r="G31" t="n">
+        <v>11.51866666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>11.787</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>5642.2768</v>
       </c>
       <c r="G32" t="n">
+        <v>11.54266666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>11.78133333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>3488.6168</v>
       </c>
       <c r="G33" t="n">
+        <v>11.55933333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>11.77666666666666</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>6278.7551</v>
       </c>
       <c r="G34" t="n">
+        <v>11.574</v>
+      </c>
+      <c r="H34" t="n">
         <v>11.76983333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>8869.616599999999</v>
       </c>
       <c r="G35" t="n">
+        <v>11.57933333333334</v>
+      </c>
+      <c r="H35" t="n">
         <v>11.76599999999999</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>1000</v>
       </c>
       <c r="G36" t="n">
+        <v>11.59466666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>11.76466666666666</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>43</v>
       </c>
       <c r="G37" t="n">
+        <v>11.61733333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>11.75516666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>87</v>
       </c>
       <c r="G38" t="n">
+        <v>11.64333333333334</v>
+      </c>
+      <c r="H38" t="n">
         <v>11.74833333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>10299.9659</v>
       </c>
       <c r="G39" t="n">
+        <v>11.658</v>
+      </c>
+      <c r="H39" t="n">
         <v>11.74583333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>11876.8285</v>
       </c>
       <c r="G40" t="n">
+        <v>11.678</v>
+      </c>
+      <c r="H40" t="n">
         <v>11.73783333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>4565.37</v>
       </c>
       <c r="G41" t="n">
+        <v>11.68666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>11.73433333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>12064.7466</v>
       </c>
       <c r="G42" t="n">
+        <v>11.696</v>
+      </c>
+      <c r="H42" t="n">
         <v>11.72733333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>65467.9187</v>
       </c>
       <c r="G43" t="n">
+        <v>11.70666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>11.71683333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>21.7392</v>
       </c>
       <c r="G44" t="n">
+        <v>11.716</v>
+      </c>
+      <c r="H44" t="n">
         <v>11.71249999999999</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>50365.6715</v>
       </c>
       <c r="G45" t="n">
+        <v>11.71933333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>11.70199999999999</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>3976</v>
       </c>
       <c r="G46" t="n">
+        <v>11.72200000000001</v>
+      </c>
+      <c r="H46" t="n">
         <v>11.69883333333332</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>21.5518</v>
       </c>
       <c r="G47" t="n">
+        <v>11.73533333333334</v>
+      </c>
+      <c r="H47" t="n">
         <v>11.69266666666666</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>7696.748</v>
       </c>
       <c r="G48" t="n">
+        <v>11.72866666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>11.68666666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>38863.017</v>
       </c>
       <c r="G49" t="n">
+        <v>11.72400000000001</v>
+      </c>
+      <c r="H49" t="n">
         <v>11.68016666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>21.4593</v>
       </c>
       <c r="G50" t="n">
+        <v>11.73666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>11.68299999999999</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>191.8925</v>
       </c>
       <c r="G51" t="n">
+        <v>11.72866666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>11.67483333333332</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>39416</v>
       </c>
       <c r="G52" t="n">
+        <v>11.71666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>11.66433333333332</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>973.2497</v>
       </c>
       <c r="G53" t="n">
+        <v>11.71200000000001</v>
+      </c>
+      <c r="H53" t="n">
         <v>11.66449999999999</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>4314.9206</v>
       </c>
       <c r="G54" t="n">
+        <v>11.71266666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>11.65866666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>250498.0665</v>
       </c>
       <c r="G55" t="n">
+        <v>11.69933333333334</v>
+      </c>
+      <c r="H55" t="n">
         <v>11.64949999999999</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>86</v>
       </c>
       <c r="G56" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="H56" t="n">
         <v>11.64633333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>4248.0884</v>
       </c>
       <c r="G57" t="n">
+        <v>11.72866666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>11.63999999999999</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>148969.7505</v>
       </c>
       <c r="G58" t="n">
+        <v>11.72466666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>11.63283333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>17137.9605</v>
       </c>
       <c r="G59" t="n">
+        <v>11.71066666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>11.62416666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>263.8316151202749</v>
       </c>
       <c r="G60" t="n">
+        <v>11.70933333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>11.61383333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>86488.38860000001</v>
       </c>
       <c r="G61" t="n">
+        <v>11.706</v>
+      </c>
+      <c r="H61" t="n">
         <v>11.61499999999999</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>82455</v>
       </c>
       <c r="G62" t="n">
+        <v>11.692</v>
+      </c>
+      <c r="H62" t="n">
         <v>11.60666666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>197699.8499</v>
       </c>
       <c r="G63" t="n">
+        <v>11.68866666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>11.60183333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>13000.3426</v>
       </c>
       <c r="G64" t="n">
+        <v>11.68533333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>11.60333333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>17194.2302</v>
       </c>
       <c r="G65" t="n">
+        <v>11.672</v>
+      </c>
+      <c r="H65" t="n">
         <v>11.605</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>279.0737</v>
       </c>
       <c r="G66" t="n">
+        <v>11.67333333333334</v>
+      </c>
+      <c r="H66" t="n">
         <v>11.60066666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>582.5234441602728</v>
       </c>
       <c r="G67" t="n">
+        <v>11.67933333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>11.609</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>50730</v>
       </c>
       <c r="G68" t="n">
+        <v>11.66933333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>11.61166666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>202138.8608</v>
       </c>
       <c r="G69" t="n">
+        <v>11.656</v>
+      </c>
+      <c r="H69" t="n">
         <v>11.61333333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>4891.6686</v>
       </c>
       <c r="G70" t="n">
+        <v>11.65666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>11.61516666666666</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>71892.92630000001</v>
       </c>
       <c r="G71" t="n">
+        <v>11.62866666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>11.62</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>10693.3269</v>
       </c>
       <c r="G72" t="n">
+        <v>11.61266666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>11.62483333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>88626</v>
       </c>
       <c r="G73" t="n">
+        <v>11.606</v>
+      </c>
+      <c r="H73" t="n">
         <v>11.62733333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>2583.3934</v>
       </c>
       <c r="G74" t="n">
+        <v>11.598</v>
+      </c>
+      <c r="H74" t="n">
         <v>11.62716666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,25 @@
         <v>382.2504</v>
       </c>
       <c r="G75" t="n">
+        <v>11.58066666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>11.62599999999999</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L75" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,22 +3269,29 @@
         <v>66286.81299999999</v>
       </c>
       <c r="G76" t="n">
+        <v>11.57066666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>11.62933333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>11.38</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
         <v>11.38</v>
       </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3077,26 +3315,29 @@
         <v>174.9965</v>
       </c>
       <c r="G77" t="n">
+        <v>11.56066666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>11.63266666666666</v>
       </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>11.45</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="L77" t="inlineStr">
+        <v>11.45</v>
+      </c>
+      <c r="L77" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3120,26 +3361,25 @@
         <v>6288.0484</v>
       </c>
       <c r="G78" t="n">
+        <v>11.55066666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>11.63183333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>11.45</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L78" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3163,26 +3403,29 @@
         <v>10934.4575</v>
       </c>
       <c r="G79" t="n">
+        <v>11.536</v>
+      </c>
+      <c r="H79" t="n">
         <v>11.62983333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>11.45</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="L79" t="inlineStr">
+        <v>11.45</v>
+      </c>
+      <c r="L79" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3206,26 +3449,29 @@
         <v>174836.471</v>
       </c>
       <c r="G80" t="n">
+        <v>11.53066666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>11.62966666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>11.38</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
         <v>11.38</v>
       </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3249,26 +3495,29 @@
         <v>45271.8734</v>
       </c>
       <c r="G81" t="n">
+        <v>11.53066666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>11.63183333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
         <v>11.53</v>
       </c>
-      <c r="K81" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3292,24 +3541,27 @@
         <v>253.8204</v>
       </c>
       <c r="G82" t="n">
+        <v>11.52666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>11.63499999999999</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3333,24 +3585,27 @@
         <v>100</v>
       </c>
       <c r="G83" t="n">
+        <v>11.51466666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>11.63483333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3374,24 +3629,27 @@
         <v>44</v>
       </c>
       <c r="G84" t="n">
+        <v>11.518</v>
+      </c>
+      <c r="H84" t="n">
         <v>11.63616666666666</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3415,24 +3673,27 @@
         <v>230272.215</v>
       </c>
       <c r="G85" t="n">
+        <v>11.52333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>11.63933333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3456,24 +3717,27 @@
         <v>5473.4805</v>
       </c>
       <c r="G86" t="n">
+        <v>11.534</v>
+      </c>
+      <c r="H86" t="n">
         <v>11.64233333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3497,24 +3761,27 @@
         <v>15500</v>
       </c>
       <c r="G87" t="n">
+        <v>11.56933333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>11.65166666666666</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,24 +3805,27 @@
         <v>11364.49</v>
       </c>
       <c r="G88" t="n">
+        <v>11.606</v>
+      </c>
+      <c r="H88" t="n">
         <v>11.66083333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3579,24 +3849,27 @@
         <v>5000</v>
       </c>
       <c r="G89" t="n">
+        <v>11.64066666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>11.66633333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3620,24 +3893,27 @@
         <v>5485.263</v>
       </c>
       <c r="G90" t="n">
+        <v>11.67866666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>11.672</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,25 +3937,28 @@
         <v>43</v>
       </c>
       <c r="G91" t="n">
+        <v>11.69066666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>11.67233333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1.016968365553603</v>
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3702,18 +3981,27 @@
         <v>42</v>
       </c>
       <c r="G92" t="n">
+        <v>11.724</v>
+      </c>
+      <c r="H92" t="n">
         <v>11.678</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3737,18 +4025,27 @@
         <v>8516.9318</v>
       </c>
       <c r="G93" t="n">
+        <v>11.74933333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>11.67933333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3772,18 +4069,27 @@
         <v>6470.169</v>
       </c>
       <c r="G94" t="n">
+        <v>11.768</v>
+      </c>
+      <c r="H94" t="n">
         <v>11.67833333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3807,18 +4113,27 @@
         <v>45</v>
       </c>
       <c r="G95" t="n">
+        <v>11.788</v>
+      </c>
+      <c r="H95" t="n">
         <v>11.68183333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3842,18 +4157,27 @@
         <v>55108.1576</v>
       </c>
       <c r="G96" t="n">
+        <v>11.78533333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>11.6795</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3877,18 +4201,27 @@
         <v>1756.4455</v>
       </c>
       <c r="G97" t="n">
+        <v>11.78266666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>11.67633333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3912,18 +4245,27 @@
         <v>88</v>
       </c>
       <c r="G98" t="n">
+        <v>11.80066666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>11.67416666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3947,18 +4289,27 @@
         <v>88</v>
       </c>
       <c r="G99" t="n">
+        <v>11.81333333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>11.675</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3982,18 +4333,27 @@
         <v>191787.7247</v>
       </c>
       <c r="G100" t="n">
+        <v>11.808</v>
+      </c>
+      <c r="H100" t="n">
         <v>11.67183333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4017,18 +4377,27 @@
         <v>101528.7913</v>
       </c>
       <c r="G101" t="n">
+        <v>11.796</v>
+      </c>
+      <c r="H101" t="n">
         <v>11.66966666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4052,18 +4421,27 @@
         <v>4307.1201</v>
       </c>
       <c r="G102" t="n">
+        <v>11.75933333333334</v>
+      </c>
+      <c r="H102" t="n">
         <v>11.6675</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4087,18 +4465,27 @@
         <v>29313.6387</v>
       </c>
       <c r="G103" t="n">
+        <v>11.72333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>11.665</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4122,18 +4509,27 @@
         <v>44</v>
       </c>
       <c r="G104" t="n">
+        <v>11.71666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>11.6665</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4157,18 +4553,27 @@
         <v>1670.992366412214</v>
       </c>
       <c r="G105" t="n">
+        <v>11.706</v>
+      </c>
+      <c r="H105" t="n">
         <v>11.66866666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4192,18 +4597,27 @@
         <v>43</v>
       </c>
       <c r="G106" t="n">
+        <v>11.724</v>
+      </c>
+      <c r="H106" t="n">
         <v>11.67283333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4227,18 +4641,27 @@
         <v>87446.97</v>
       </c>
       <c r="G107" t="n">
+        <v>11.72066666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>11.67433333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4262,18 +4685,27 @@
         <v>1507.5656</v>
       </c>
       <c r="G108" t="n">
+        <v>11.702</v>
+      </c>
+      <c r="H108" t="n">
         <v>11.67266666666666</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4297,18 +4729,27 @@
         <v>3515.025466893039</v>
       </c>
       <c r="G109" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="H109" t="n">
         <v>11.67483333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4332,18 +4773,27 @@
         <v>2401.6342</v>
       </c>
       <c r="G110" t="n">
+        <v>11.70666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>11.67433333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4367,18 +4817,27 @@
         <v>65259.46</v>
       </c>
       <c r="G111" t="n">
+        <v>11.69866666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>11.672</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4402,18 +4861,27 @@
         <v>72755</v>
       </c>
       <c r="G112" t="n">
+        <v>11.69066666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>11.66983333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4437,18 +4905,27 @@
         <v>77872.2668</v>
       </c>
       <c r="G113" t="n">
+        <v>11.67466666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>11.66483333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4472,22 +4949,27 @@
         <v>2401.6342</v>
       </c>
       <c r="G114" t="n">
+        <v>11.64533333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>11.65816666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="K114" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4511,26 +4993,27 @@
         <v>44</v>
       </c>
       <c r="G115" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="H115" t="n">
         <v>11.6595</v>
       </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="K115" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4554,26 +5037,29 @@
         <v>421.7747</v>
       </c>
       <c r="G116" t="n">
+        <v>11.66133333333334</v>
+      </c>
+      <c r="H116" t="n">
         <v>11.655</v>
       </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
         <v>11.68</v>
       </c>
-      <c r="K116" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4597,24 +5083,27 @@
         <v>16944.8124</v>
       </c>
       <c r="G117" t="n">
+        <v>11.68600000000001</v>
+      </c>
+      <c r="H117" t="n">
         <v>11.65683333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4638,26 +5127,27 @@
         <v>16861.441</v>
       </c>
       <c r="G118" t="n">
+        <v>11.70333333333334</v>
+      </c>
+      <c r="H118" t="n">
         <v>11.65966666666666</v>
       </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="K118" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,24 +5171,27 @@
         <v>4028</v>
       </c>
       <c r="G119" t="n">
+        <v>11.68800000000001</v>
+      </c>
+      <c r="H119" t="n">
         <v>11.66083333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4722,24 +5215,27 @@
         <v>30745.8067</v>
       </c>
       <c r="G120" t="n">
+        <v>11.67133333333334</v>
+      </c>
+      <c r="H120" t="n">
         <v>11.65916666666666</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4763,24 +5259,27 @@
         <v>3060.4467</v>
       </c>
       <c r="G121" t="n">
+        <v>11.64733333333334</v>
+      </c>
+      <c r="H121" t="n">
         <v>11.65816666666666</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,24 +5303,27 @@
         <v>43</v>
       </c>
       <c r="G122" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="H122" t="n">
         <v>11.66133333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4845,24 +5347,27 @@
         <v>43</v>
       </c>
       <c r="G123" t="n">
+        <v>11.66266666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>11.66616666666666</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4886,24 +5391,27 @@
         <v>14471.737</v>
       </c>
       <c r="G124" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="H124" t="n">
         <v>11.67099999999999</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4927,24 +5435,27 @@
         <v>21707</v>
       </c>
       <c r="G125" t="n">
+        <v>11.68866666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>11.67849999999999</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4968,24 +5479,27 @@
         <v>4028</v>
       </c>
       <c r="G126" t="n">
+        <v>11.732</v>
+      </c>
+      <c r="H126" t="n">
         <v>11.68666666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5009,25 +5523,28 @@
         <v>1857.4631</v>
       </c>
       <c r="G127" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="H127" t="n">
         <v>11.69249999999999</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1.044522154648132</v>
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -5050,18 +5567,27 @@
         <v>84</v>
       </c>
       <c r="G128" t="n">
+        <v>11.80800000000001</v>
+      </c>
+      <c r="H128" t="n">
         <v>11.69949999999999</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5085,18 +5611,27 @@
         <v>4978</v>
       </c>
       <c r="G129" t="n">
+        <v>11.84600000000001</v>
+      </c>
+      <c r="H129" t="n">
         <v>11.70566666666666</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5120,18 +5655,27 @@
         <v>35975.3773</v>
       </c>
       <c r="G130" t="n">
+        <v>11.85733333333334</v>
+      </c>
+      <c r="H130" t="n">
         <v>11.70966666666666</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5155,18 +5699,27 @@
         <v>13711.6227</v>
       </c>
       <c r="G131" t="n">
+        <v>11.86133333333334</v>
+      </c>
+      <c r="H131" t="n">
         <v>11.71316666666666</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5190,18 +5743,27 @@
         <v>44</v>
       </c>
       <c r="G132" t="n">
+        <v>11.85266666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>11.71683333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5225,18 +5787,27 @@
         <v>4419.1215</v>
       </c>
       <c r="G133" t="n">
+        <v>11.85133333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>11.72099999999999</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5260,18 +5831,27 @@
         <v>163.7945</v>
       </c>
       <c r="G134" t="n">
+        <v>11.84333333333334</v>
+      </c>
+      <c r="H134" t="n">
         <v>11.72216666666666</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5295,18 +5875,27 @@
         <v>44</v>
       </c>
       <c r="G135" t="n">
+        <v>11.85733333333334</v>
+      </c>
+      <c r="H135" t="n">
         <v>11.72833333333333</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5330,18 +5919,27 @@
         <v>23251.94</v>
       </c>
       <c r="G136" t="n">
+        <v>11.85733333333334</v>
+      </c>
+      <c r="H136" t="n">
         <v>11.72983333333332</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5365,18 +5963,27 @@
         <v>44</v>
       </c>
       <c r="G137" t="n">
+        <v>11.85333333333334</v>
+      </c>
+      <c r="H137" t="n">
         <v>11.73449999999999</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5400,18 +6007,27 @@
         <v>89419.06</v>
       </c>
       <c r="G138" t="n">
+        <v>11.81466666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>11.73216666666666</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5435,18 +6051,27 @@
         <v>255</v>
       </c>
       <c r="G139" t="n">
+        <v>11.79733333333334</v>
+      </c>
+      <c r="H139" t="n">
         <v>11.73633333333332</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5470,18 +6095,27 @@
         <v>44</v>
       </c>
       <c r="G140" t="n">
+        <v>11.76933333333334</v>
+      </c>
+      <c r="H140" t="n">
         <v>11.73816666666666</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5505,18 +6139,27 @@
         <v>17383.714</v>
       </c>
       <c r="G141" t="n">
+        <v>11.73466666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>11.73766666666666</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5540,18 +6183,27 @@
         <v>43</v>
       </c>
       <c r="G142" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="H142" t="n">
         <v>11.73833333333332</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5575,18 +6227,27 @@
         <v>2135.7566</v>
       </c>
       <c r="G143" t="n">
+        <v>11.68533333333334</v>
+      </c>
+      <c r="H143" t="n">
         <v>11.74216666666666</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5610,18 +6271,27 @@
         <v>5962.8375</v>
       </c>
       <c r="G144" t="n">
+        <v>11.66733333333334</v>
+      </c>
+      <c r="H144" t="n">
         <v>11.74299999999999</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5645,18 +6315,27 @@
         <v>44</v>
       </c>
       <c r="G145" t="n">
+        <v>11.66333333333334</v>
+      </c>
+      <c r="H145" t="n">
         <v>11.74466666666666</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5680,18 +6359,27 @@
         <v>10000</v>
       </c>
       <c r="G146" t="n">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>11.74633333333332</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5715,18 +6403,27 @@
         <v>2702.9762</v>
       </c>
       <c r="G147" t="n">
+        <v>11.66933333333334</v>
+      </c>
+      <c r="H147" t="n">
         <v>11.74183333333332</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5750,18 +6447,27 @@
         <v>34051.7149</v>
       </c>
       <c r="G148" t="n">
+        <v>11.666</v>
+      </c>
+      <c r="H148" t="n">
         <v>11.73599999999999</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5785,18 +6491,27 @@
         <v>7879</v>
       </c>
       <c r="G149" t="n">
+        <v>11.65866666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>11.72666666666666</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5820,18 +6535,481 @@
         <v>38059.3679</v>
       </c>
       <c r="G150" t="n">
+        <v>11.638</v>
+      </c>
+      <c r="H150" t="n">
         <v>11.71816666666666</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="C151" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="D151" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="E151" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="F151" t="n">
+        <v>280.1614</v>
+      </c>
+      <c r="G151" t="n">
+        <v>11.63133333333334</v>
+      </c>
+      <c r="H151" t="n">
+        <v>11.71499999999999</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="C152" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="D152" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="E152" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="F152" t="n">
+        <v>23080.254</v>
+      </c>
+      <c r="G152" t="n">
+        <v>11.61133333333334</v>
+      </c>
+      <c r="H152" t="n">
+        <v>11.70633333333333</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C153" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="D153" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E153" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="F153" t="n">
+        <v>64939.626</v>
+      </c>
+      <c r="G153" t="n">
+        <v>11.61133333333334</v>
+      </c>
+      <c r="H153" t="n">
+        <v>11.69766666666666</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="L153" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="C154" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="D154" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="E154" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="F154" t="n">
+        <v>44</v>
+      </c>
+      <c r="G154" t="n">
+        <v>11.59866666666667</v>
+      </c>
+      <c r="H154" t="n">
+        <v>11.69399999999999</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="L154" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="C155" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="D155" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="E155" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="F155" t="n">
+        <v>23627.4707</v>
+      </c>
+      <c r="G155" t="n">
+        <v>11.58533333333333</v>
+      </c>
+      <c r="H155" t="n">
+        <v>11.68749999999999</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="L155" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C156" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D156" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E156" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F156" t="n">
+        <v>44</v>
+      </c>
+      <c r="G156" t="n">
+        <v>11.58266666666667</v>
+      </c>
+      <c r="H156" t="n">
+        <v>11.68699999999999</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="L156" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="C157" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="D157" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="E157" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="F157" t="n">
+        <v>4974</v>
+      </c>
+      <c r="G157" t="n">
+        <v>11.574</v>
+      </c>
+      <c r="H157" t="n">
+        <v>11.68616666666666</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="L157" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="C158" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="D158" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="E158" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="F158" t="n">
+        <v>44</v>
+      </c>
+      <c r="G158" t="n">
+        <v>11.566</v>
+      </c>
+      <c r="H158" t="n">
+        <v>11.68349999999999</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="L158" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="C159" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="D159" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="E159" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="F159" t="n">
+        <v>603.9689387402933</v>
+      </c>
+      <c r="G159" t="n">
+        <v>11.558</v>
+      </c>
+      <c r="H159" t="n">
+        <v>11.67916666666666</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="C160" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="D160" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="E160" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="F160" t="n">
+        <v>85.2329</v>
+      </c>
+      <c r="G160" t="n">
+        <v>11.54466666666667</v>
+      </c>
+      <c r="H160" t="n">
+        <v>11.67883333333333</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="L160" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-19 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N160"/>
+  <dimension ref="A1:M189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.11</v>
+        <v>12.03</v>
       </c>
       <c r="C2" t="n">
-        <v>12.1</v>
+        <v>12.03</v>
       </c>
       <c r="D2" t="n">
-        <v>12.11</v>
+        <v>12.03</v>
       </c>
       <c r="E2" t="n">
-        <v>11.89</v>
+        <v>12.03</v>
       </c>
       <c r="F2" t="n">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="G2" t="n">
-        <v>12.036</v>
+        <v>-1950960.713478153</v>
       </c>
       <c r="H2" t="n">
-        <v>11.85933333333332</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.54</v>
+        <v>12.13</v>
       </c>
       <c r="C3" t="n">
-        <v>11.89</v>
+        <v>12.13</v>
       </c>
       <c r="D3" t="n">
-        <v>11.89</v>
+        <v>12.13</v>
       </c>
       <c r="E3" t="n">
-        <v>11.53</v>
+        <v>12.13</v>
       </c>
       <c r="F3" t="n">
-        <v>42764.0228</v>
+        <v>43</v>
       </c>
       <c r="G3" t="n">
-        <v>12.028</v>
+        <v>-1950917.713478153</v>
       </c>
       <c r="H3" t="n">
-        <v>11.86299999999998</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.51</v>
+        <v>11.96</v>
       </c>
       <c r="C4" t="n">
-        <v>11.51</v>
+        <v>11.85</v>
       </c>
       <c r="D4" t="n">
-        <v>11.51</v>
+        <v>11.96</v>
       </c>
       <c r="E4" t="n">
-        <v>11.51</v>
+        <v>11.85</v>
       </c>
       <c r="F4" t="n">
-        <v>12802.9052</v>
+        <v>35285</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99266666666667</v>
+        <v>-1986202.713478153</v>
       </c>
       <c r="H4" t="n">
-        <v>11.86116666666665</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.51</v>
+        <v>11.85</v>
       </c>
       <c r="C5" t="n">
-        <v>11.51</v>
+        <v>11.85</v>
       </c>
       <c r="D5" t="n">
-        <v>11.51</v>
+        <v>11.85</v>
       </c>
       <c r="E5" t="n">
-        <v>11.51</v>
+        <v>11.85</v>
       </c>
       <c r="F5" t="n">
-        <v>23705.2272</v>
+        <v>187</v>
       </c>
       <c r="G5" t="n">
-        <v>11.984</v>
+        <v>-1986202.713478153</v>
       </c>
       <c r="H5" t="n">
-        <v>11.86099999999998</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.93</v>
+        <v>11.85</v>
       </c>
       <c r="C6" t="n">
-        <v>11.93</v>
+        <v>12.39</v>
       </c>
       <c r="D6" t="n">
-        <v>11.93</v>
+        <v>12.39</v>
       </c>
       <c r="E6" t="n">
-        <v>11.93</v>
+        <v>11.85</v>
       </c>
       <c r="F6" t="n">
-        <v>18914.8864</v>
+        <v>12028.84157815334</v>
       </c>
       <c r="G6" t="n">
-        <v>11.97</v>
+        <v>-1974173.871899999</v>
       </c>
       <c r="H6" t="n">
-        <v>11.86599999999998</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.94</v>
+        <v>12.29</v>
       </c>
       <c r="C7" t="n">
-        <v>11.23</v>
+        <v>12.29</v>
       </c>
       <c r="D7" t="n">
-        <v>11.94</v>
+        <v>12.29</v>
       </c>
       <c r="E7" t="n">
-        <v>11.23</v>
+        <v>12.29</v>
       </c>
       <c r="F7" t="n">
-        <v>344678.2548</v>
+        <v>3210.258421846661</v>
       </c>
       <c r="G7" t="n">
-        <v>11.90066666666667</v>
+        <v>-1977384.130321846</v>
       </c>
       <c r="H7" t="n">
-        <v>11.85866666666665</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.5</v>
+        <v>11.95</v>
       </c>
       <c r="C8" t="n">
-        <v>11.5</v>
+        <v>11.95</v>
       </c>
       <c r="D8" t="n">
-        <v>11.5</v>
+        <v>11.95</v>
       </c>
       <c r="E8" t="n">
-        <v>11.5</v>
+        <v>11.95</v>
       </c>
       <c r="F8" t="n">
-        <v>1300</v>
+        <v>14123.551</v>
       </c>
       <c r="G8" t="n">
-        <v>11.88066666666667</v>
+        <v>-1991507.681321846</v>
       </c>
       <c r="H8" t="n">
-        <v>11.85816666666665</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.51</v>
+        <v>12.28</v>
       </c>
       <c r="C9" t="n">
-        <v>11.51</v>
+        <v>12.28</v>
       </c>
       <c r="D9" t="n">
-        <v>11.51</v>
+        <v>12.28</v>
       </c>
       <c r="E9" t="n">
-        <v>11.51</v>
+        <v>12.28</v>
       </c>
       <c r="F9" t="n">
-        <v>6459.6004</v>
+        <v>43</v>
       </c>
       <c r="G9" t="n">
-        <v>11.83733333333334</v>
+        <v>-1991464.681321846</v>
       </c>
       <c r="H9" t="n">
-        <v>11.85549999999999</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.5</v>
+        <v>11.85</v>
       </c>
       <c r="C10" t="n">
-        <v>11.5</v>
+        <v>11.85</v>
       </c>
       <c r="D10" t="n">
-        <v>11.5</v>
+        <v>11.85</v>
       </c>
       <c r="E10" t="n">
-        <v>11.5</v>
+        <v>11.85</v>
       </c>
       <c r="F10" t="n">
-        <v>3646.6429</v>
+        <v>2666.1906</v>
       </c>
       <c r="G10" t="n">
-        <v>11.794</v>
+        <v>-1994130.871921846</v>
       </c>
       <c r="H10" t="n">
-        <v>11.85266666666665</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.33</v>
+        <v>12.06</v>
       </c>
       <c r="C11" t="n">
-        <v>11.24</v>
+        <v>12.06</v>
       </c>
       <c r="D11" t="n">
-        <v>11.33</v>
+        <v>12.06</v>
       </c>
       <c r="E11" t="n">
-        <v>11.24</v>
+        <v>12.06</v>
       </c>
       <c r="F11" t="n">
-        <v>79426.52559999999</v>
+        <v>43</v>
       </c>
       <c r="G11" t="n">
-        <v>11.734</v>
+        <v>-1994087.871921846</v>
       </c>
       <c r="H11" t="n">
-        <v>11.84783333333332</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.25</v>
+        <v>12.29</v>
       </c>
       <c r="C12" t="n">
-        <v>11.24</v>
+        <v>12.29</v>
       </c>
       <c r="D12" t="n">
-        <v>11.25</v>
+        <v>12.29</v>
       </c>
       <c r="E12" t="n">
-        <v>11.24</v>
+        <v>12.29</v>
       </c>
       <c r="F12" t="n">
-        <v>32549.2214</v>
+        <v>43</v>
       </c>
       <c r="G12" t="n">
-        <v>11.67333333333334</v>
+        <v>-1994044.871921846</v>
       </c>
       <c r="H12" t="n">
-        <v>11.84233333333332</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.35</v>
+        <v>12.06</v>
       </c>
       <c r="C13" t="n">
-        <v>11.35</v>
+        <v>12.07</v>
       </c>
       <c r="D13" t="n">
-        <v>11.35</v>
+        <v>12.07</v>
       </c>
       <c r="E13" t="n">
-        <v>11.35</v>
+        <v>12.06</v>
       </c>
       <c r="F13" t="n">
-        <v>27226</v>
+        <v>83355.9506</v>
       </c>
       <c r="G13" t="n">
-        <v>11.628</v>
+        <v>-2077400.822521846</v>
       </c>
       <c r="H13" t="n">
-        <v>11.83899999999999</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.49</v>
+        <v>12.29</v>
       </c>
       <c r="C14" t="n">
-        <v>11.49</v>
+        <v>12.29</v>
       </c>
       <c r="D14" t="n">
-        <v>11.49</v>
+        <v>12.29</v>
       </c>
       <c r="E14" t="n">
-        <v>11.49</v>
+        <v>12.29</v>
       </c>
       <c r="F14" t="n">
-        <v>30000</v>
+        <v>43</v>
       </c>
       <c r="G14" t="n">
-        <v>11.586</v>
+        <v>-2077357.822521846</v>
       </c>
       <c r="H14" t="n">
-        <v>11.83583333333332</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.45</v>
+        <v>12.07</v>
       </c>
       <c r="C15" t="n">
-        <v>11.45</v>
+        <v>11.84</v>
       </c>
       <c r="D15" t="n">
-        <v>11.45</v>
+        <v>12.07</v>
       </c>
       <c r="E15" t="n">
-        <v>11.45</v>
+        <v>11.54</v>
       </c>
       <c r="F15" t="n">
-        <v>29452.5868</v>
+        <v>95209.92083189727</v>
       </c>
       <c r="G15" t="n">
-        <v>11.532</v>
+        <v>-2172567.743353744</v>
       </c>
       <c r="H15" t="n">
-        <v>11.83216666666666</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.34</v>
+        <v>12.18</v>
       </c>
       <c r="C16" t="n">
-        <v>11.25</v>
+        <v>12.18</v>
       </c>
       <c r="D16" t="n">
-        <v>11.34</v>
+        <v>12.18</v>
       </c>
       <c r="E16" t="n">
-        <v>11.25</v>
+        <v>12.18</v>
       </c>
       <c r="F16" t="n">
-        <v>348982.6373</v>
+        <v>41</v>
       </c>
       <c r="G16" t="n">
-        <v>11.51333333333334</v>
+        <v>-2172526.743353744</v>
       </c>
       <c r="H16" t="n">
-        <v>11.82449999999999</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.25</v>
+        <v>11.81</v>
       </c>
       <c r="C17" t="n">
-        <v>11.25</v>
+        <v>12.01</v>
       </c>
       <c r="D17" t="n">
-        <v>11.25</v>
+        <v>12.06</v>
       </c>
       <c r="E17" t="n">
-        <v>11.25</v>
+        <v>11.81</v>
       </c>
       <c r="F17" t="n">
-        <v>1507.5656</v>
+        <v>167.8053</v>
       </c>
       <c r="G17" t="n">
-        <v>11.45666666666667</v>
+        <v>-2172694.548653744</v>
       </c>
       <c r="H17" t="n">
-        <v>11.81666666666666</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.5</v>
+        <v>12.13</v>
       </c>
       <c r="C18" t="n">
-        <v>11.5</v>
+        <v>12.04</v>
       </c>
       <c r="D18" t="n">
-        <v>11.5</v>
+        <v>12.13</v>
       </c>
       <c r="E18" t="n">
-        <v>11.5</v>
+        <v>11.96</v>
       </c>
       <c r="F18" t="n">
-        <v>44832.8131</v>
+        <v>168</v>
       </c>
       <c r="G18" t="n">
-        <v>11.43066666666667</v>
+        <v>-2172526.548653744</v>
       </c>
       <c r="H18" t="n">
-        <v>11.81366666666666</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.5</v>
+        <v>12.15</v>
       </c>
       <c r="C19" t="n">
-        <v>11.5</v>
+        <v>11.64</v>
       </c>
       <c r="D19" t="n">
-        <v>11.5</v>
+        <v>12.15</v>
       </c>
       <c r="E19" t="n">
-        <v>11.5</v>
+        <v>11.64</v>
       </c>
       <c r="F19" t="n">
-        <v>63930.5969</v>
+        <v>54502.7239</v>
       </c>
       <c r="G19" t="n">
-        <v>11.43</v>
+        <v>-2227029.272553744</v>
       </c>
       <c r="H19" t="n">
-        <v>11.80899999999999</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.54</v>
+        <v>12.24</v>
       </c>
       <c r="C20" t="n">
-        <v>11.54</v>
+        <v>12.14</v>
       </c>
       <c r="D20" t="n">
-        <v>11.54</v>
+        <v>12.24</v>
       </c>
       <c r="E20" t="n">
         <v>11.54</v>
       </c>
       <c r="F20" t="n">
-        <v>15053</v>
+        <v>22094.9717</v>
       </c>
       <c r="G20" t="n">
-        <v>11.432</v>
+        <v>-2204934.300853744</v>
       </c>
       <c r="H20" t="n">
-        <v>11.80666666666666</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.54</v>
+        <v>12.01</v>
       </c>
       <c r="C21" t="n">
-        <v>11.54</v>
+        <v>12.27</v>
       </c>
       <c r="D21" t="n">
-        <v>11.54</v>
+        <v>12.27</v>
       </c>
       <c r="E21" t="n">
-        <v>11.54</v>
+        <v>12.01</v>
       </c>
       <c r="F21" t="n">
-        <v>7526</v>
+        <v>168</v>
       </c>
       <c r="G21" t="n">
-        <v>11.406</v>
+        <v>-2204766.300853744</v>
       </c>
       <c r="H21" t="n">
-        <v>11.80433333333332</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.48</v>
+        <v>11.8</v>
       </c>
       <c r="C22" t="n">
-        <v>11.48</v>
+        <v>11.8</v>
       </c>
       <c r="D22" t="n">
-        <v>11.48</v>
+        <v>11.8</v>
       </c>
       <c r="E22" t="n">
-        <v>11.48</v>
+        <v>11.8</v>
       </c>
       <c r="F22" t="n">
-        <v>3763</v>
+        <v>4302</v>
       </c>
       <c r="G22" t="n">
-        <v>11.42266666666667</v>
+        <v>-2209068.300853744</v>
       </c>
       <c r="H22" t="n">
-        <v>11.80316666666666</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.49</v>
+        <v>12.13</v>
       </c>
       <c r="C23" t="n">
-        <v>11.49</v>
+        <v>12.16</v>
       </c>
       <c r="D23" t="n">
-        <v>11.49</v>
+        <v>12.16</v>
       </c>
       <c r="E23" t="n">
-        <v>11.49</v>
+        <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>3764</v>
+        <v>169</v>
       </c>
       <c r="G23" t="n">
-        <v>11.422</v>
+        <v>-2208899.300853744</v>
       </c>
       <c r="H23" t="n">
-        <v>11.80216666666666</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.58</v>
+        <v>12.23</v>
       </c>
       <c r="C24" t="n">
-        <v>11.58</v>
+        <v>12.15</v>
       </c>
       <c r="D24" t="n">
-        <v>11.58</v>
+        <v>12.23</v>
       </c>
       <c r="E24" t="n">
-        <v>11.58</v>
+        <v>12.15</v>
       </c>
       <c r="F24" t="n">
-        <v>7865.5752</v>
+        <v>84</v>
       </c>
       <c r="G24" t="n">
-        <v>11.42666666666667</v>
+        <v>-2208983.300853744</v>
       </c>
       <c r="H24" t="n">
-        <v>11.80266666666666</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.58</v>
+        <v>12.08</v>
       </c>
       <c r="C25" t="n">
-        <v>11.5</v>
+        <v>12.14</v>
       </c>
       <c r="D25" t="n">
-        <v>11.58</v>
+        <v>12.14</v>
       </c>
       <c r="E25" t="n">
-        <v>11.5</v>
+        <v>12.07</v>
       </c>
       <c r="F25" t="n">
-        <v>83886.8098</v>
+        <v>126</v>
       </c>
       <c r="G25" t="n">
-        <v>11.42666666666667</v>
+        <v>-2209109.300853744</v>
       </c>
       <c r="H25" t="n">
-        <v>11.79966666666666</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.51</v>
+        <v>12.09</v>
       </c>
       <c r="C26" t="n">
-        <v>11.51</v>
+        <v>12.15</v>
       </c>
       <c r="D26" t="n">
-        <v>11.51</v>
+        <v>12.15</v>
       </c>
       <c r="E26" t="n">
-        <v>11.51</v>
+        <v>12.07</v>
       </c>
       <c r="F26" t="n">
-        <v>8012.4848</v>
+        <v>168</v>
       </c>
       <c r="G26" t="n">
-        <v>11.44466666666667</v>
+        <v>-2208941.300853744</v>
       </c>
       <c r="H26" t="n">
-        <v>11.80266666666666</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.5</v>
+        <v>12.05</v>
       </c>
       <c r="C27" t="n">
-        <v>11.5</v>
+        <v>12.03</v>
       </c>
       <c r="D27" t="n">
-        <v>11.5</v>
+        <v>12.05</v>
       </c>
       <c r="E27" t="n">
-        <v>11.5</v>
+        <v>12.03</v>
       </c>
       <c r="F27" t="n">
-        <v>49091.678</v>
+        <v>84</v>
       </c>
       <c r="G27" t="n">
-        <v>11.462</v>
+        <v>-2209025.300853744</v>
       </c>
       <c r="H27" t="n">
-        <v>11.79983333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.5</v>
+        <v>12.19</v>
       </c>
       <c r="C28" t="n">
-        <v>11.5</v>
+        <v>12.12</v>
       </c>
       <c r="D28" t="n">
-        <v>11.5</v>
+        <v>12.19</v>
       </c>
       <c r="E28" t="n">
-        <v>11.5</v>
+        <v>12.12</v>
       </c>
       <c r="F28" t="n">
-        <v>26782.6471</v>
+        <v>84</v>
       </c>
       <c r="G28" t="n">
-        <v>11.472</v>
+        <v>-2208941.300853744</v>
       </c>
       <c r="H28" t="n">
-        <v>11.797</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.66</v>
+        <v>12.26</v>
       </c>
       <c r="C29" t="n">
-        <v>11.67</v>
+        <v>12.26</v>
       </c>
       <c r="D29" t="n">
-        <v>11.67</v>
+        <v>12.26</v>
       </c>
       <c r="E29" t="n">
-        <v>11.66</v>
+        <v>12.26</v>
       </c>
       <c r="F29" t="n">
-        <v>37859.8057</v>
+        <v>42</v>
       </c>
       <c r="G29" t="n">
-        <v>11.484</v>
+        <v>-2208899.300853744</v>
       </c>
       <c r="H29" t="n">
-        <v>11.797</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.64</v>
+        <v>11.54</v>
       </c>
       <c r="C30" t="n">
-        <v>11.61</v>
+        <v>11.53</v>
       </c>
       <c r="D30" t="n">
-        <v>11.64</v>
+        <v>11.54</v>
       </c>
       <c r="E30" t="n">
-        <v>11.61</v>
+        <v>11.53</v>
       </c>
       <c r="F30" t="n">
-        <v>28587.865</v>
+        <v>8712.8174</v>
       </c>
       <c r="G30" t="n">
-        <v>11.49466666666667</v>
+        <v>-2217612.118253744</v>
       </c>
       <c r="H30" t="n">
-        <v>11.79566666666666</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.61</v>
+        <v>12.11</v>
       </c>
       <c r="C31" t="n">
-        <v>11.61</v>
+        <v>12.1</v>
       </c>
       <c r="D31" t="n">
-        <v>11.61</v>
+        <v>12.11</v>
       </c>
       <c r="E31" t="n">
-        <v>11.61</v>
+        <v>11.89</v>
       </c>
       <c r="F31" t="n">
-        <v>4358.8697</v>
+        <v>130</v>
       </c>
       <c r="G31" t="n">
-        <v>11.51866666666667</v>
+        <v>-2217482.118253744</v>
       </c>
       <c r="H31" t="n">
-        <v>11.787</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.61</v>
+        <v>11.54</v>
       </c>
       <c r="C32" t="n">
-        <v>11.61</v>
+        <v>11.89</v>
       </c>
       <c r="D32" t="n">
-        <v>11.61</v>
+        <v>11.89</v>
       </c>
       <c r="E32" t="n">
-        <v>11.61</v>
+        <v>11.53</v>
       </c>
       <c r="F32" t="n">
-        <v>5642.2768</v>
+        <v>42764.0228</v>
       </c>
       <c r="G32" t="n">
-        <v>11.54266666666667</v>
+        <v>-2260246.141053744</v>
       </c>
       <c r="H32" t="n">
-        <v>11.78133333333333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.75</v>
+        <v>11.51</v>
       </c>
       <c r="C33" t="n">
-        <v>11.75</v>
+        <v>11.51</v>
       </c>
       <c r="D33" t="n">
-        <v>11.75</v>
+        <v>11.51</v>
       </c>
       <c r="E33" t="n">
-        <v>11.75</v>
+        <v>11.51</v>
       </c>
       <c r="F33" t="n">
-        <v>3488.6168</v>
+        <v>12802.9052</v>
       </c>
       <c r="G33" t="n">
-        <v>11.55933333333334</v>
+        <v>-2273049.046253744</v>
       </c>
       <c r="H33" t="n">
-        <v>11.77666666666666</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.75</v>
+        <v>11.51</v>
       </c>
       <c r="C34" t="n">
-        <v>11.72</v>
+        <v>11.51</v>
       </c>
       <c r="D34" t="n">
-        <v>11.75</v>
+        <v>11.51</v>
       </c>
       <c r="E34" t="n">
-        <v>11.72</v>
+        <v>11.51</v>
       </c>
       <c r="F34" t="n">
-        <v>6278.7551</v>
+        <v>23705.2272</v>
       </c>
       <c r="G34" t="n">
-        <v>11.574</v>
+        <v>-2273049.046253744</v>
       </c>
       <c r="H34" t="n">
-        <v>11.76983333333333</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.62</v>
+        <v>11.93</v>
       </c>
       <c r="C35" t="n">
-        <v>11.62</v>
+        <v>11.93</v>
       </c>
       <c r="D35" t="n">
-        <v>11.62</v>
+        <v>11.93</v>
       </c>
       <c r="E35" t="n">
-        <v>11.62</v>
+        <v>11.93</v>
       </c>
       <c r="F35" t="n">
-        <v>8869.616599999999</v>
+        <v>18914.8864</v>
       </c>
       <c r="G35" t="n">
-        <v>11.57933333333334</v>
+        <v>-2254134.159853743</v>
       </c>
       <c r="H35" t="n">
-        <v>11.76599999999999</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.77</v>
+        <v>11.94</v>
       </c>
       <c r="C36" t="n">
-        <v>11.77</v>
+        <v>11.23</v>
       </c>
       <c r="D36" t="n">
-        <v>11.77</v>
+        <v>11.94</v>
       </c>
       <c r="E36" t="n">
-        <v>11.77</v>
+        <v>11.23</v>
       </c>
       <c r="F36" t="n">
-        <v>1000</v>
+        <v>344678.2548</v>
       </c>
       <c r="G36" t="n">
-        <v>11.59466666666667</v>
+        <v>-2598812.414653744</v>
       </c>
       <c r="H36" t="n">
-        <v>11.76466666666666</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.82</v>
+        <v>11.5</v>
       </c>
       <c r="C37" t="n">
-        <v>11.82</v>
+        <v>11.5</v>
       </c>
       <c r="D37" t="n">
-        <v>11.82</v>
+        <v>11.5</v>
       </c>
       <c r="E37" t="n">
-        <v>11.82</v>
+        <v>11.5</v>
       </c>
       <c r="F37" t="n">
-        <v>43</v>
+        <v>1300</v>
       </c>
       <c r="G37" t="n">
-        <v>11.61733333333334</v>
+        <v>-2597512.414653744</v>
       </c>
       <c r="H37" t="n">
-        <v>11.75516666666666</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.81</v>
+        <v>11.51</v>
       </c>
       <c r="C38" t="n">
-        <v>11.88</v>
+        <v>11.51</v>
       </c>
       <c r="D38" t="n">
-        <v>11.88</v>
+        <v>11.51</v>
       </c>
       <c r="E38" t="n">
-        <v>11.81</v>
+        <v>11.51</v>
       </c>
       <c r="F38" t="n">
-        <v>87</v>
+        <v>6459.6004</v>
       </c>
       <c r="G38" t="n">
-        <v>11.64333333333334</v>
+        <v>-2591052.814253744</v>
       </c>
       <c r="H38" t="n">
-        <v>11.74833333333333</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="C39" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="D39" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="E39" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="F39" t="n">
-        <v>10299.9659</v>
+        <v>3646.6429</v>
       </c>
       <c r="G39" t="n">
-        <v>11.658</v>
+        <v>-2594699.457153744</v>
       </c>
       <c r="H39" t="n">
-        <v>11.74583333333333</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.8</v>
+        <v>11.33</v>
       </c>
       <c r="C40" t="n">
-        <v>11.8</v>
+        <v>11.24</v>
       </c>
       <c r="D40" t="n">
-        <v>11.8</v>
+        <v>11.33</v>
       </c>
       <c r="E40" t="n">
-        <v>11.8</v>
+        <v>11.24</v>
       </c>
       <c r="F40" t="n">
-        <v>11876.8285</v>
+        <v>79426.52559999999</v>
       </c>
       <c r="G40" t="n">
-        <v>11.678</v>
+        <v>-2674125.982753743</v>
       </c>
       <c r="H40" t="n">
-        <v>11.73783333333333</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.64</v>
+        <v>11.25</v>
       </c>
       <c r="C41" t="n">
-        <v>11.64</v>
+        <v>11.24</v>
       </c>
       <c r="D41" t="n">
-        <v>11.64</v>
+        <v>11.25</v>
       </c>
       <c r="E41" t="n">
-        <v>11.64</v>
+        <v>11.24</v>
       </c>
       <c r="F41" t="n">
-        <v>4565.37</v>
+        <v>32549.2214</v>
       </c>
       <c r="G41" t="n">
-        <v>11.68666666666667</v>
+        <v>-2674125.982753743</v>
       </c>
       <c r="H41" t="n">
-        <v>11.73433333333333</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.64</v>
+        <v>11.35</v>
       </c>
       <c r="C42" t="n">
-        <v>11.64</v>
+        <v>11.35</v>
       </c>
       <c r="D42" t="n">
-        <v>11.64</v>
+        <v>11.35</v>
       </c>
       <c r="E42" t="n">
-        <v>11.64</v>
+        <v>11.35</v>
       </c>
       <c r="F42" t="n">
-        <v>12064.7466</v>
+        <v>27226</v>
       </c>
       <c r="G42" t="n">
-        <v>11.696</v>
+        <v>-2646899.982753743</v>
       </c>
       <c r="H42" t="n">
-        <v>11.72733333333333</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.67</v>
+        <v>11.49</v>
       </c>
       <c r="C43" t="n">
-        <v>11.66</v>
+        <v>11.49</v>
       </c>
       <c r="D43" t="n">
-        <v>11.67</v>
+        <v>11.49</v>
       </c>
       <c r="E43" t="n">
-        <v>11.66</v>
+        <v>11.49</v>
       </c>
       <c r="F43" t="n">
-        <v>65467.9187</v>
+        <v>30000</v>
       </c>
       <c r="G43" t="n">
-        <v>11.70666666666667</v>
+        <v>-2616899.982753743</v>
       </c>
       <c r="H43" t="n">
-        <v>11.71683333333333</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.81</v>
+        <v>11.45</v>
       </c>
       <c r="C44" t="n">
-        <v>11.81</v>
+        <v>11.45</v>
       </c>
       <c r="D44" t="n">
-        <v>11.81</v>
+        <v>11.45</v>
       </c>
       <c r="E44" t="n">
-        <v>11.81</v>
+        <v>11.45</v>
       </c>
       <c r="F44" t="n">
-        <v>21.7392</v>
+        <v>29452.5868</v>
       </c>
       <c r="G44" t="n">
-        <v>11.716</v>
+        <v>-2646352.569553744</v>
       </c>
       <c r="H44" t="n">
-        <v>11.71249999999999</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.7</v>
+        <v>11.34</v>
       </c>
       <c r="C45" t="n">
-        <v>11.66</v>
+        <v>11.25</v>
       </c>
       <c r="D45" t="n">
-        <v>11.7</v>
+        <v>11.34</v>
       </c>
       <c r="E45" t="n">
-        <v>11.66</v>
+        <v>11.25</v>
       </c>
       <c r="F45" t="n">
-        <v>50365.6715</v>
+        <v>348982.6373</v>
       </c>
       <c r="G45" t="n">
-        <v>11.71933333333334</v>
+        <v>-2995335.206853744</v>
       </c>
       <c r="H45" t="n">
-        <v>11.70199999999999</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.65</v>
+        <v>11.25</v>
       </c>
       <c r="C46" t="n">
-        <v>11.65</v>
+        <v>11.25</v>
       </c>
       <c r="D46" t="n">
-        <v>11.65</v>
+        <v>11.25</v>
       </c>
       <c r="E46" t="n">
-        <v>11.65</v>
+        <v>11.25</v>
       </c>
       <c r="F46" t="n">
-        <v>3976</v>
+        <v>1507.5656</v>
       </c>
       <c r="G46" t="n">
-        <v>11.72200000000001</v>
+        <v>-2995335.206853744</v>
       </c>
       <c r="H46" t="n">
-        <v>11.69883333333332</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.81</v>
+        <v>11.5</v>
       </c>
       <c r="C47" t="n">
-        <v>11.81</v>
+        <v>11.5</v>
       </c>
       <c r="D47" t="n">
-        <v>11.81</v>
+        <v>11.5</v>
       </c>
       <c r="E47" t="n">
-        <v>11.81</v>
+        <v>11.5</v>
       </c>
       <c r="F47" t="n">
-        <v>21.5518</v>
+        <v>44832.8131</v>
       </c>
       <c r="G47" t="n">
-        <v>11.73533333333334</v>
+        <v>-2950502.393753744</v>
       </c>
       <c r="H47" t="n">
-        <v>11.69266666666666</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.65</v>
+        <v>11.5</v>
       </c>
       <c r="C48" t="n">
-        <v>11.65</v>
+        <v>11.5</v>
       </c>
       <c r="D48" t="n">
-        <v>11.65</v>
+        <v>11.5</v>
       </c>
       <c r="E48" t="n">
-        <v>11.65</v>
+        <v>11.5</v>
       </c>
       <c r="F48" t="n">
-        <v>7696.748</v>
+        <v>63930.5969</v>
       </c>
       <c r="G48" t="n">
-        <v>11.72866666666667</v>
+        <v>-2950502.393753744</v>
       </c>
       <c r="H48" t="n">
-        <v>11.68666666666666</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.65</v>
+        <v>11.54</v>
       </c>
       <c r="C49" t="n">
-        <v>11.65</v>
+        <v>11.54</v>
       </c>
       <c r="D49" t="n">
-        <v>11.65</v>
+        <v>11.54</v>
       </c>
       <c r="E49" t="n">
-        <v>11.65</v>
+        <v>11.54</v>
       </c>
       <c r="F49" t="n">
-        <v>38863.017</v>
+        <v>15053</v>
       </c>
       <c r="G49" t="n">
-        <v>11.72400000000001</v>
+        <v>-2935449.393753744</v>
       </c>
       <c r="H49" t="n">
-        <v>11.68016666666666</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.81</v>
+        <v>11.54</v>
       </c>
       <c r="C50" t="n">
-        <v>11.81</v>
+        <v>11.54</v>
       </c>
       <c r="D50" t="n">
-        <v>11.81</v>
+        <v>11.54</v>
       </c>
       <c r="E50" t="n">
-        <v>11.81</v>
+        <v>11.54</v>
       </c>
       <c r="F50" t="n">
-        <v>21.4593</v>
+        <v>7526</v>
       </c>
       <c r="G50" t="n">
-        <v>11.73666666666667</v>
+        <v>-2935449.393753744</v>
       </c>
       <c r="H50" t="n">
-        <v>11.68299999999999</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.65</v>
+        <v>11.48</v>
       </c>
       <c r="C51" t="n">
-        <v>11.65</v>
+        <v>11.48</v>
       </c>
       <c r="D51" t="n">
-        <v>11.65</v>
+        <v>11.48</v>
       </c>
       <c r="E51" t="n">
-        <v>11.65</v>
+        <v>11.48</v>
       </c>
       <c r="F51" t="n">
-        <v>191.8925</v>
+        <v>3763</v>
       </c>
       <c r="G51" t="n">
-        <v>11.72866666666667</v>
+        <v>-2939212.393753744</v>
       </c>
       <c r="H51" t="n">
-        <v>11.67483333333332</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.65</v>
+        <v>11.49</v>
       </c>
       <c r="C52" t="n">
-        <v>11.64</v>
+        <v>11.49</v>
       </c>
       <c r="D52" t="n">
-        <v>11.65</v>
+        <v>11.49</v>
       </c>
       <c r="E52" t="n">
-        <v>11.64</v>
+        <v>11.49</v>
       </c>
       <c r="F52" t="n">
-        <v>39416</v>
+        <v>3764</v>
       </c>
       <c r="G52" t="n">
-        <v>11.71666666666667</v>
+        <v>-2935448.393753744</v>
       </c>
       <c r="H52" t="n">
-        <v>11.66433333333332</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.81</v>
+        <v>11.58</v>
       </c>
       <c r="C53" t="n">
-        <v>11.81</v>
+        <v>11.58</v>
       </c>
       <c r="D53" t="n">
-        <v>11.81</v>
+        <v>11.58</v>
       </c>
       <c r="E53" t="n">
-        <v>11.81</v>
+        <v>11.58</v>
       </c>
       <c r="F53" t="n">
-        <v>973.2497</v>
+        <v>7865.5752</v>
       </c>
       <c r="G53" t="n">
-        <v>11.71200000000001</v>
+        <v>-2927582.818553744</v>
       </c>
       <c r="H53" t="n">
-        <v>11.66449999999999</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.81</v>
+        <v>11.58</v>
       </c>
       <c r="C54" t="n">
-        <v>11.81</v>
+        <v>11.5</v>
       </c>
       <c r="D54" t="n">
-        <v>11.81</v>
+        <v>11.58</v>
       </c>
       <c r="E54" t="n">
-        <v>11.81</v>
+        <v>11.5</v>
       </c>
       <c r="F54" t="n">
-        <v>4314.9206</v>
+        <v>83886.8098</v>
       </c>
       <c r="G54" t="n">
-        <v>11.71266666666667</v>
+        <v>-3011469.628353744</v>
       </c>
       <c r="H54" t="n">
-        <v>11.65866666666666</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.64</v>
+        <v>11.51</v>
       </c>
       <c r="C55" t="n">
-        <v>11.6</v>
+        <v>11.51</v>
       </c>
       <c r="D55" t="n">
-        <v>11.64</v>
+        <v>11.51</v>
       </c>
       <c r="E55" t="n">
-        <v>11.6</v>
+        <v>11.51</v>
       </c>
       <c r="F55" t="n">
-        <v>250498.0665</v>
+        <v>8012.4848</v>
       </c>
       <c r="G55" t="n">
-        <v>11.69933333333334</v>
+        <v>-3003457.143553744</v>
       </c>
       <c r="H55" t="n">
-        <v>11.64949999999999</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.72</v>
+        <v>11.5</v>
       </c>
       <c r="C56" t="n">
-        <v>11.95</v>
+        <v>11.5</v>
       </c>
       <c r="D56" t="n">
-        <v>11.95</v>
+        <v>11.5</v>
       </c>
       <c r="E56" t="n">
-        <v>11.72</v>
+        <v>11.5</v>
       </c>
       <c r="F56" t="n">
-        <v>86</v>
+        <v>49091.678</v>
       </c>
       <c r="G56" t="n">
-        <v>11.72</v>
+        <v>-3052548.821553743</v>
       </c>
       <c r="H56" t="n">
-        <v>11.64633333333333</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.77</v>
+        <v>11.5</v>
       </c>
       <c r="C57" t="n">
-        <v>11.77</v>
+        <v>11.5</v>
       </c>
       <c r="D57" t="n">
-        <v>11.77</v>
+        <v>11.5</v>
       </c>
       <c r="E57" t="n">
-        <v>11.77</v>
+        <v>11.5</v>
       </c>
       <c r="F57" t="n">
-        <v>4248.0884</v>
+        <v>26782.6471</v>
       </c>
       <c r="G57" t="n">
-        <v>11.72866666666667</v>
+        <v>-3052548.821553743</v>
       </c>
       <c r="H57" t="n">
-        <v>11.63999999999999</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.73</v>
+        <v>11.66</v>
       </c>
       <c r="C58" t="n">
-        <v>11.6</v>
+        <v>11.67</v>
       </c>
       <c r="D58" t="n">
-        <v>11.73</v>
+        <v>11.67</v>
       </c>
       <c r="E58" t="n">
-        <v>11.6</v>
+        <v>11.66</v>
       </c>
       <c r="F58" t="n">
-        <v>148969.7505</v>
+        <v>37859.8057</v>
       </c>
       <c r="G58" t="n">
-        <v>11.72466666666667</v>
+        <v>-3014689.015853744</v>
       </c>
       <c r="H58" t="n">
-        <v>11.63283333333333</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.6</v>
+        <v>11.64</v>
       </c>
       <c r="C59" t="n">
-        <v>11.6</v>
+        <v>11.61</v>
       </c>
       <c r="D59" t="n">
-        <v>11.6</v>
+        <v>11.64</v>
       </c>
       <c r="E59" t="n">
-        <v>11.6</v>
+        <v>11.61</v>
       </c>
       <c r="F59" t="n">
-        <v>17137.9605</v>
+        <v>28587.865</v>
       </c>
       <c r="G59" t="n">
-        <v>11.71066666666667</v>
+        <v>-3043276.880853744</v>
       </c>
       <c r="H59" t="n">
-        <v>11.62416666666666</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.64</v>
+        <v>11.61</v>
       </c>
       <c r="C60" t="n">
-        <v>11.64</v>
+        <v>11.61</v>
       </c>
       <c r="D60" t="n">
-        <v>11.64</v>
+        <v>11.61</v>
       </c>
       <c r="E60" t="n">
-        <v>11.64</v>
+        <v>11.61</v>
       </c>
       <c r="F60" t="n">
-        <v>263.8316151202749</v>
+        <v>4358.8697</v>
       </c>
       <c r="G60" t="n">
-        <v>11.70933333333334</v>
+        <v>-3043276.880853744</v>
       </c>
       <c r="H60" t="n">
-        <v>11.61383333333333</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.6</v>
+        <v>11.61</v>
       </c>
       <c r="C61" t="n">
-        <v>11.6</v>
+        <v>11.61</v>
       </c>
       <c r="D61" t="n">
-        <v>11.6</v>
+        <v>11.61</v>
       </c>
       <c r="E61" t="n">
-        <v>11.6</v>
+        <v>11.61</v>
       </c>
       <c r="F61" t="n">
-        <v>86488.38860000001</v>
+        <v>5642.2768</v>
       </c>
       <c r="G61" t="n">
-        <v>11.706</v>
+        <v>-3043276.880853744</v>
       </c>
       <c r="H61" t="n">
-        <v>11.61499999999999</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.6</v>
+        <v>11.75</v>
       </c>
       <c r="C62" t="n">
-        <v>11.6</v>
+        <v>11.75</v>
       </c>
       <c r="D62" t="n">
-        <v>11.6</v>
+        <v>11.75</v>
       </c>
       <c r="E62" t="n">
-        <v>11.6</v>
+        <v>11.75</v>
       </c>
       <c r="F62" t="n">
-        <v>82455</v>
+        <v>3488.6168</v>
       </c>
       <c r="G62" t="n">
-        <v>11.692</v>
+        <v>-3039788.264053744</v>
       </c>
       <c r="H62" t="n">
-        <v>11.60666666666666</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.6</v>
+        <v>11.75</v>
       </c>
       <c r="C63" t="n">
-        <v>11.6</v>
+        <v>11.72</v>
       </c>
       <c r="D63" t="n">
-        <v>11.6</v>
+        <v>11.75</v>
       </c>
       <c r="E63" t="n">
-        <v>11.6</v>
+        <v>11.72</v>
       </c>
       <c r="F63" t="n">
-        <v>197699.8499</v>
+        <v>6278.7551</v>
       </c>
       <c r="G63" t="n">
-        <v>11.68866666666667</v>
+        <v>-3046067.019153744</v>
       </c>
       <c r="H63" t="n">
-        <v>11.60183333333333</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.53</v>
+        <v>11.62</v>
       </c>
       <c r="C64" t="n">
-        <v>11.6</v>
+        <v>11.62</v>
       </c>
       <c r="D64" t="n">
-        <v>11.6</v>
+        <v>11.62</v>
       </c>
       <c r="E64" t="n">
-        <v>11.53</v>
+        <v>11.62</v>
       </c>
       <c r="F64" t="n">
-        <v>13000.3426</v>
+        <v>8869.616599999999</v>
       </c>
       <c r="G64" t="n">
-        <v>11.68533333333334</v>
+        <v>-3054936.635753744</v>
       </c>
       <c r="H64" t="n">
-        <v>11.60333333333333</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.61</v>
+        <v>11.77</v>
       </c>
       <c r="C65" t="n">
-        <v>11.61</v>
+        <v>11.77</v>
       </c>
       <c r="D65" t="n">
-        <v>11.61</v>
+        <v>11.77</v>
       </c>
       <c r="E65" t="n">
-        <v>11.61</v>
+        <v>11.77</v>
       </c>
       <c r="F65" t="n">
-        <v>17194.2302</v>
+        <v>1000</v>
       </c>
       <c r="G65" t="n">
-        <v>11.672</v>
+        <v>-3053936.635753744</v>
       </c>
       <c r="H65" t="n">
-        <v>11.605</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.67</v>
+        <v>11.82</v>
       </c>
       <c r="C66" t="n">
-        <v>11.67</v>
+        <v>11.82</v>
       </c>
       <c r="D66" t="n">
-        <v>11.67</v>
+        <v>11.82</v>
       </c>
       <c r="E66" t="n">
-        <v>11.67</v>
+        <v>11.82</v>
       </c>
       <c r="F66" t="n">
-        <v>279.0737</v>
+        <v>43</v>
       </c>
       <c r="G66" t="n">
-        <v>11.67333333333334</v>
+        <v>-3053893.635753744</v>
       </c>
       <c r="H66" t="n">
-        <v>11.60066666666666</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.73</v>
+        <v>11.81</v>
       </c>
       <c r="C67" t="n">
-        <v>11.73</v>
+        <v>11.88</v>
       </c>
       <c r="D67" t="n">
-        <v>11.73</v>
+        <v>11.88</v>
       </c>
       <c r="E67" t="n">
-        <v>11.73</v>
+        <v>11.81</v>
       </c>
       <c r="F67" t="n">
-        <v>582.5234441602728</v>
+        <v>87</v>
       </c>
       <c r="G67" t="n">
-        <v>11.67933333333333</v>
+        <v>-3053806.635753744</v>
       </c>
       <c r="H67" t="n">
-        <v>11.609</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.66</v>
+        <v>11.8</v>
       </c>
       <c r="C68" t="n">
-        <v>11.66</v>
+        <v>11.8</v>
       </c>
       <c r="D68" t="n">
-        <v>11.66</v>
+        <v>11.8</v>
       </c>
       <c r="E68" t="n">
-        <v>11.66</v>
+        <v>11.8</v>
       </c>
       <c r="F68" t="n">
-        <v>50730</v>
+        <v>10299.9659</v>
       </c>
       <c r="G68" t="n">
-        <v>11.66933333333333</v>
+        <v>-3064106.601653744</v>
       </c>
       <c r="H68" t="n">
-        <v>11.61166666666666</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.61</v>
+        <v>11.8</v>
       </c>
       <c r="C69" t="n">
-        <v>11.61</v>
+        <v>11.8</v>
       </c>
       <c r="D69" t="n">
-        <v>11.61</v>
+        <v>11.8</v>
       </c>
       <c r="E69" t="n">
-        <v>11.61</v>
+        <v>11.8</v>
       </c>
       <c r="F69" t="n">
-        <v>202138.8608</v>
+        <v>11876.8285</v>
       </c>
       <c r="G69" t="n">
-        <v>11.656</v>
+        <v>-3064106.601653744</v>
       </c>
       <c r="H69" t="n">
-        <v>11.61333333333333</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.61</v>
+        <v>11.64</v>
       </c>
       <c r="C70" t="n">
-        <v>11.61</v>
+        <v>11.64</v>
       </c>
       <c r="D70" t="n">
-        <v>11.61</v>
+        <v>11.64</v>
       </c>
       <c r="E70" t="n">
-        <v>11.61</v>
+        <v>11.64</v>
       </c>
       <c r="F70" t="n">
-        <v>4891.6686</v>
+        <v>4565.37</v>
       </c>
       <c r="G70" t="n">
-        <v>11.65666666666667</v>
+        <v>-3068671.971653744</v>
       </c>
       <c r="H70" t="n">
-        <v>11.61516666666666</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.61</v>
+        <v>11.64</v>
       </c>
       <c r="C71" t="n">
-        <v>11.53</v>
+        <v>11.64</v>
       </c>
       <c r="D71" t="n">
-        <v>11.61</v>
+        <v>11.64</v>
       </c>
       <c r="E71" t="n">
-        <v>11.53</v>
+        <v>11.64</v>
       </c>
       <c r="F71" t="n">
-        <v>71892.92630000001</v>
+        <v>12064.7466</v>
       </c>
       <c r="G71" t="n">
-        <v>11.62866666666667</v>
+        <v>-3068671.971653744</v>
       </c>
       <c r="H71" t="n">
-        <v>11.62</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.53</v>
+        <v>11.67</v>
       </c>
       <c r="C72" t="n">
-        <v>11.53</v>
+        <v>11.66</v>
       </c>
       <c r="D72" t="n">
-        <v>11.53</v>
+        <v>11.67</v>
       </c>
       <c r="E72" t="n">
-        <v>11.53</v>
+        <v>11.66</v>
       </c>
       <c r="F72" t="n">
-        <v>10693.3269</v>
+        <v>65467.9187</v>
       </c>
       <c r="G72" t="n">
-        <v>11.61266666666667</v>
+        <v>-3003204.052953744</v>
       </c>
       <c r="H72" t="n">
-        <v>11.62483333333333</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.52</v>
+        <v>11.81</v>
       </c>
       <c r="C73" t="n">
-        <v>11.5</v>
+        <v>11.81</v>
       </c>
       <c r="D73" t="n">
-        <v>11.52</v>
+        <v>11.81</v>
       </c>
       <c r="E73" t="n">
-        <v>11.5</v>
+        <v>11.81</v>
       </c>
       <c r="F73" t="n">
-        <v>88626</v>
+        <v>21.7392</v>
       </c>
       <c r="G73" t="n">
-        <v>11.606</v>
+        <v>-3003182.313753744</v>
       </c>
       <c r="H73" t="n">
-        <v>11.62733333333333</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.48</v>
+        <v>11.7</v>
       </c>
       <c r="C74" t="n">
-        <v>11.48</v>
+        <v>11.66</v>
       </c>
       <c r="D74" t="n">
-        <v>11.48</v>
+        <v>11.7</v>
       </c>
       <c r="E74" t="n">
-        <v>11.48</v>
+        <v>11.66</v>
       </c>
       <c r="F74" t="n">
-        <v>2583.3934</v>
+        <v>50365.6715</v>
       </c>
       <c r="G74" t="n">
-        <v>11.598</v>
+        <v>-3053547.985253744</v>
       </c>
       <c r="H74" t="n">
-        <v>11.62716666666666</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,40 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.38</v>
+        <v>11.65</v>
       </c>
       <c r="C75" t="n">
-        <v>11.38</v>
+        <v>11.65</v>
       </c>
       <c r="D75" t="n">
-        <v>11.38</v>
+        <v>11.65</v>
       </c>
       <c r="E75" t="n">
-        <v>11.38</v>
+        <v>11.65</v>
       </c>
       <c r="F75" t="n">
-        <v>382.2504</v>
+        <v>3976</v>
       </c>
       <c r="G75" t="n">
-        <v>11.58066666666667</v>
+        <v>-3057523.985253744</v>
       </c>
       <c r="H75" t="n">
-        <v>11.62599999999999</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L75" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3254,44 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.45</v>
+        <v>11.81</v>
       </c>
       <c r="C76" t="n">
-        <v>11.45</v>
+        <v>11.81</v>
       </c>
       <c r="D76" t="n">
-        <v>11.45</v>
+        <v>11.81</v>
       </c>
       <c r="E76" t="n">
-        <v>11.45</v>
+        <v>11.81</v>
       </c>
       <c r="F76" t="n">
-        <v>66286.81299999999</v>
+        <v>21.5518</v>
       </c>
       <c r="G76" t="n">
-        <v>11.57066666666666</v>
+        <v>-3057502.433453744</v>
       </c>
       <c r="H76" t="n">
-        <v>11.62933333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="L76" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3300,44 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.45</v>
+        <v>11.65</v>
       </c>
       <c r="C77" t="n">
-        <v>11.45</v>
+        <v>11.65</v>
       </c>
       <c r="D77" t="n">
-        <v>11.45</v>
+        <v>11.65</v>
       </c>
       <c r="E77" t="n">
-        <v>11.45</v>
+        <v>11.65</v>
       </c>
       <c r="F77" t="n">
-        <v>174.9965</v>
+        <v>7696.748</v>
       </c>
       <c r="G77" t="n">
-        <v>11.56066666666666</v>
+        <v>-3065199.181453744</v>
       </c>
       <c r="H77" t="n">
-        <v>11.63266666666666</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L77" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3346,40 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.45</v>
+        <v>11.65</v>
       </c>
       <c r="C78" t="n">
-        <v>11.45</v>
+        <v>11.65</v>
       </c>
       <c r="D78" t="n">
-        <v>11.45</v>
+        <v>11.65</v>
       </c>
       <c r="E78" t="n">
-        <v>11.45</v>
+        <v>11.65</v>
       </c>
       <c r="F78" t="n">
-        <v>6288.0484</v>
+        <v>38863.017</v>
       </c>
       <c r="G78" t="n">
-        <v>11.55066666666666</v>
+        <v>-3065199.181453744</v>
       </c>
       <c r="H78" t="n">
-        <v>11.63183333333333</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L78" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,44 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.39</v>
+        <v>11.81</v>
       </c>
       <c r="C79" t="n">
-        <v>11.38</v>
+        <v>11.81</v>
       </c>
       <c r="D79" t="n">
-        <v>11.39</v>
+        <v>11.81</v>
       </c>
       <c r="E79" t="n">
-        <v>11.38</v>
+        <v>11.81</v>
       </c>
       <c r="F79" t="n">
-        <v>10934.4575</v>
+        <v>21.4593</v>
       </c>
       <c r="G79" t="n">
-        <v>11.536</v>
+        <v>-3065177.722153744</v>
       </c>
       <c r="H79" t="n">
-        <v>11.62983333333333</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L79" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3434,44 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.43</v>
+        <v>11.65</v>
       </c>
       <c r="C80" t="n">
-        <v>11.53</v>
+        <v>11.65</v>
       </c>
       <c r="D80" t="n">
-        <v>11.53</v>
+        <v>11.65</v>
       </c>
       <c r="E80" t="n">
-        <v>11.43</v>
+        <v>11.65</v>
       </c>
       <c r="F80" t="n">
-        <v>174836.471</v>
+        <v>191.8925</v>
       </c>
       <c r="G80" t="n">
-        <v>11.53066666666667</v>
+        <v>-3065369.614653744</v>
       </c>
       <c r="H80" t="n">
-        <v>11.62966666666666</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="L80" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3480,44 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.57</v>
+        <v>11.65</v>
       </c>
       <c r="C81" t="n">
-        <v>11.67</v>
+        <v>11.64</v>
       </c>
       <c r="D81" t="n">
-        <v>11.67</v>
+        <v>11.65</v>
       </c>
       <c r="E81" t="n">
-        <v>11.57</v>
+        <v>11.64</v>
       </c>
       <c r="F81" t="n">
-        <v>45271.8734</v>
+        <v>39416</v>
       </c>
       <c r="G81" t="n">
-        <v>11.53066666666667</v>
+        <v>-3104785.614653744</v>
       </c>
       <c r="H81" t="n">
-        <v>11.63183333333333</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="L81" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3526,42 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.67</v>
+        <v>11.81</v>
       </c>
       <c r="C82" t="n">
-        <v>11.67</v>
+        <v>11.81</v>
       </c>
       <c r="D82" t="n">
-        <v>11.67</v>
+        <v>11.81</v>
       </c>
       <c r="E82" t="n">
-        <v>11.67</v>
+        <v>11.81</v>
       </c>
       <c r="F82" t="n">
-        <v>253.8204</v>
+        <v>973.2497</v>
       </c>
       <c r="G82" t="n">
-        <v>11.52666666666667</v>
+        <v>-3103812.364953744</v>
       </c>
       <c r="H82" t="n">
-        <v>11.63499999999999</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3570,42 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.48</v>
+        <v>11.81</v>
       </c>
       <c r="C83" t="n">
-        <v>11.48</v>
+        <v>11.81</v>
       </c>
       <c r="D83" t="n">
-        <v>11.48</v>
+        <v>11.81</v>
       </c>
       <c r="E83" t="n">
-        <v>11.48</v>
+        <v>11.81</v>
       </c>
       <c r="F83" t="n">
-        <v>100</v>
+        <v>4314.9206</v>
       </c>
       <c r="G83" t="n">
-        <v>11.51466666666667</v>
+        <v>-3103812.364953744</v>
       </c>
       <c r="H83" t="n">
-        <v>11.63483333333333</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,42 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.66</v>
+        <v>11.64</v>
       </c>
       <c r="C84" t="n">
-        <v>11.66</v>
+        <v>11.6</v>
       </c>
       <c r="D84" t="n">
-        <v>11.66</v>
+        <v>11.64</v>
       </c>
       <c r="E84" t="n">
-        <v>11.66</v>
+        <v>11.6</v>
       </c>
       <c r="F84" t="n">
-        <v>44</v>
+        <v>250498.0665</v>
       </c>
       <c r="G84" t="n">
-        <v>11.518</v>
+        <v>-3354310.431453744</v>
       </c>
       <c r="H84" t="n">
-        <v>11.63616666666666</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3658,42 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.66</v>
+        <v>11.72</v>
       </c>
       <c r="C85" t="n">
-        <v>11.69</v>
+        <v>11.95</v>
       </c>
       <c r="D85" t="n">
-        <v>11.69</v>
+        <v>11.95</v>
       </c>
       <c r="E85" t="n">
-        <v>11.66</v>
+        <v>11.72</v>
       </c>
       <c r="F85" t="n">
-        <v>230272.215</v>
+        <v>86</v>
       </c>
       <c r="G85" t="n">
-        <v>11.52333333333333</v>
+        <v>-3354224.431453744</v>
       </c>
       <c r="H85" t="n">
-        <v>11.63933333333333</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3702,42 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.69</v>
+        <v>11.77</v>
       </c>
       <c r="C86" t="n">
-        <v>11.69</v>
+        <v>11.77</v>
       </c>
       <c r="D86" t="n">
-        <v>11.69</v>
+        <v>11.77</v>
       </c>
       <c r="E86" t="n">
-        <v>11.69</v>
+        <v>11.77</v>
       </c>
       <c r="F86" t="n">
-        <v>5473.4805</v>
+        <v>4248.0884</v>
       </c>
       <c r="G86" t="n">
-        <v>11.534</v>
+        <v>-3358472.519853744</v>
       </c>
       <c r="H86" t="n">
-        <v>11.64233333333333</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3746,42 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.69</v>
+        <v>11.73</v>
       </c>
       <c r="C87" t="n">
-        <v>12.06</v>
+        <v>11.6</v>
       </c>
       <c r="D87" t="n">
-        <v>12.06</v>
+        <v>11.73</v>
       </c>
       <c r="E87" t="n">
-        <v>11.69</v>
+        <v>11.6</v>
       </c>
       <c r="F87" t="n">
-        <v>15500</v>
+        <v>148969.7505</v>
       </c>
       <c r="G87" t="n">
-        <v>11.56933333333333</v>
+        <v>-3507442.270353744</v>
       </c>
       <c r="H87" t="n">
-        <v>11.65166666666666</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3790,42 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11.95</v>
+        <v>11.6</v>
       </c>
       <c r="C88" t="n">
-        <v>12.05</v>
+        <v>11.6</v>
       </c>
       <c r="D88" t="n">
-        <v>12.05</v>
+        <v>11.6</v>
       </c>
       <c r="E88" t="n">
-        <v>11.95</v>
+        <v>11.6</v>
       </c>
       <c r="F88" t="n">
-        <v>11364.49</v>
+        <v>17137.9605</v>
       </c>
       <c r="G88" t="n">
-        <v>11.606</v>
+        <v>-3507442.270353744</v>
       </c>
       <c r="H88" t="n">
-        <v>11.66083333333333</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3834,42 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12</v>
+        <v>11.64</v>
       </c>
       <c r="C89" t="n">
-        <v>12</v>
+        <v>11.64</v>
       </c>
       <c r="D89" t="n">
-        <v>12</v>
+        <v>11.64</v>
       </c>
       <c r="E89" t="n">
-        <v>12</v>
+        <v>11.64</v>
       </c>
       <c r="F89" t="n">
-        <v>5000</v>
+        <v>263.8316151202749</v>
       </c>
       <c r="G89" t="n">
-        <v>11.64066666666667</v>
+        <v>-3507178.438738624</v>
       </c>
       <c r="H89" t="n">
-        <v>11.66633333333333</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,42 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11.95</v>
+        <v>11.6</v>
       </c>
       <c r="C90" t="n">
-        <v>11.95</v>
+        <v>11.6</v>
       </c>
       <c r="D90" t="n">
-        <v>11.95</v>
+        <v>11.6</v>
       </c>
       <c r="E90" t="n">
-        <v>11.95</v>
+        <v>11.6</v>
       </c>
       <c r="F90" t="n">
-        <v>5485.263</v>
+        <v>86488.38860000001</v>
       </c>
       <c r="G90" t="n">
-        <v>11.67866666666666</v>
+        <v>-3593666.827338624</v>
       </c>
       <c r="H90" t="n">
-        <v>11.672</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3922,42 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>11.63</v>
+        <v>11.6</v>
       </c>
       <c r="C91" t="n">
-        <v>11.63</v>
+        <v>11.6</v>
       </c>
       <c r="D91" t="n">
-        <v>11.63</v>
+        <v>11.6</v>
       </c>
       <c r="E91" t="n">
-        <v>11.63</v>
+        <v>11.6</v>
       </c>
       <c r="F91" t="n">
-        <v>43</v>
+        <v>82455</v>
       </c>
       <c r="G91" t="n">
-        <v>11.69066666666667</v>
+        <v>-3593666.827338624</v>
       </c>
       <c r="H91" t="n">
-        <v>11.67233333333333</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3966,42 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.95</v>
+        <v>11.6</v>
       </c>
       <c r="C92" t="n">
-        <v>11.95</v>
+        <v>11.6</v>
       </c>
       <c r="D92" t="n">
-        <v>11.95</v>
+        <v>11.6</v>
       </c>
       <c r="E92" t="n">
-        <v>11.95</v>
+        <v>11.6</v>
       </c>
       <c r="F92" t="n">
-        <v>42</v>
+        <v>197699.8499</v>
       </c>
       <c r="G92" t="n">
-        <v>11.724</v>
+        <v>-3593666.827338624</v>
       </c>
       <c r="H92" t="n">
-        <v>11.678</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,42 +3618,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.65</v>
+        <v>11.53</v>
       </c>
       <c r="C93" t="n">
-        <v>11.83</v>
+        <v>11.6</v>
       </c>
       <c r="D93" t="n">
-        <v>11.83</v>
+        <v>11.6</v>
       </c>
       <c r="E93" t="n">
-        <v>11.65</v>
+        <v>11.53</v>
       </c>
       <c r="F93" t="n">
-        <v>8516.9318</v>
+        <v>13000.3426</v>
       </c>
       <c r="G93" t="n">
-        <v>11.74933333333333</v>
+        <v>-3593666.827338624</v>
       </c>
       <c r="H93" t="n">
-        <v>11.67933333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4054,42 +3653,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.66</v>
+        <v>11.61</v>
       </c>
       <c r="C94" t="n">
-        <v>11.66</v>
+        <v>11.61</v>
       </c>
       <c r="D94" t="n">
-        <v>11.66</v>
+        <v>11.61</v>
       </c>
       <c r="E94" t="n">
-        <v>11.66</v>
+        <v>11.61</v>
       </c>
       <c r="F94" t="n">
-        <v>6470.169</v>
+        <v>17194.2302</v>
       </c>
       <c r="G94" t="n">
-        <v>11.768</v>
+        <v>-3576472.597138624</v>
       </c>
       <c r="H94" t="n">
-        <v>11.67833333333333</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4098,42 +3688,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.66</v>
+        <v>11.67</v>
       </c>
       <c r="C95" t="n">
-        <v>11.83</v>
+        <v>11.67</v>
       </c>
       <c r="D95" t="n">
-        <v>11.83</v>
+        <v>11.67</v>
       </c>
       <c r="E95" t="n">
-        <v>11.66</v>
+        <v>11.67</v>
       </c>
       <c r="F95" t="n">
-        <v>45</v>
+        <v>279.0737</v>
       </c>
       <c r="G95" t="n">
-        <v>11.788</v>
+        <v>-3576193.523438624</v>
       </c>
       <c r="H95" t="n">
-        <v>11.68183333333333</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4142,42 +3723,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.64</v>
+        <v>11.73</v>
       </c>
       <c r="C96" t="n">
-        <v>11.63</v>
+        <v>11.73</v>
       </c>
       <c r="D96" t="n">
-        <v>11.64</v>
+        <v>11.73</v>
       </c>
       <c r="E96" t="n">
-        <v>11.63</v>
+        <v>11.73</v>
       </c>
       <c r="F96" t="n">
-        <v>55108.1576</v>
+        <v>582.5234441602728</v>
       </c>
       <c r="G96" t="n">
-        <v>11.78533333333334</v>
+        <v>-3575610.999994464</v>
       </c>
       <c r="H96" t="n">
-        <v>11.6795</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4186,42 +3758,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.63</v>
+        <v>11.66</v>
       </c>
       <c r="C97" t="n">
-        <v>11.63</v>
+        <v>11.66</v>
       </c>
       <c r="D97" t="n">
-        <v>11.63</v>
+        <v>11.66</v>
       </c>
       <c r="E97" t="n">
-        <v>11.63</v>
+        <v>11.66</v>
       </c>
       <c r="F97" t="n">
-        <v>1756.4455</v>
+        <v>50730</v>
       </c>
       <c r="G97" t="n">
-        <v>11.78266666666667</v>
+        <v>-3626340.999994464</v>
       </c>
       <c r="H97" t="n">
-        <v>11.67633333333333</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4230,42 +3793,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11.75</v>
+        <v>11.61</v>
       </c>
       <c r="C98" t="n">
-        <v>11.75</v>
+        <v>11.61</v>
       </c>
       <c r="D98" t="n">
-        <v>11.75</v>
+        <v>11.61</v>
       </c>
       <c r="E98" t="n">
-        <v>11.75</v>
+        <v>11.61</v>
       </c>
       <c r="F98" t="n">
-        <v>88</v>
+        <v>202138.8608</v>
       </c>
       <c r="G98" t="n">
-        <v>11.80066666666667</v>
+        <v>-3828479.860794464</v>
       </c>
       <c r="H98" t="n">
-        <v>11.67416666666666</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4274,42 +3828,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>11.74</v>
+        <v>11.61</v>
       </c>
       <c r="C99" t="n">
-        <v>11.85</v>
+        <v>11.61</v>
       </c>
       <c r="D99" t="n">
-        <v>11.85</v>
+        <v>11.61</v>
       </c>
       <c r="E99" t="n">
-        <v>11.74</v>
+        <v>11.61</v>
       </c>
       <c r="F99" t="n">
-        <v>88</v>
+        <v>4891.6686</v>
       </c>
       <c r="G99" t="n">
-        <v>11.81333333333334</v>
+        <v>-3828479.860794464</v>
       </c>
       <c r="H99" t="n">
-        <v>11.675</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4321,39 +3866,30 @@
         <v>11.61</v>
       </c>
       <c r="C100" t="n">
-        <v>11.61</v>
+        <v>11.53</v>
       </c>
       <c r="D100" t="n">
         <v>11.61</v>
       </c>
       <c r="E100" t="n">
-        <v>11.61</v>
+        <v>11.53</v>
       </c>
       <c r="F100" t="n">
-        <v>191787.7247</v>
+        <v>71892.92630000001</v>
       </c>
       <c r="G100" t="n">
-        <v>11.808</v>
+        <v>-3900372.787094464</v>
       </c>
       <c r="H100" t="n">
-        <v>11.67183333333333</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4362,42 +3898,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11.61</v>
+        <v>11.53</v>
       </c>
       <c r="C101" t="n">
-        <v>11.51</v>
+        <v>11.53</v>
       </c>
       <c r="D101" t="n">
-        <v>11.61</v>
+        <v>11.53</v>
       </c>
       <c r="E101" t="n">
-        <v>11.51</v>
+        <v>11.53</v>
       </c>
       <c r="F101" t="n">
-        <v>101528.7913</v>
+        <v>10693.3269</v>
       </c>
       <c r="G101" t="n">
-        <v>11.796</v>
+        <v>-3900372.787094464</v>
       </c>
       <c r="H101" t="n">
-        <v>11.66966666666666</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4406,42 +3933,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11.51</v>
+        <v>11.52</v>
       </c>
       <c r="C102" t="n">
-        <v>11.51</v>
+        <v>11.5</v>
       </c>
       <c r="D102" t="n">
-        <v>11.51</v>
+        <v>11.52</v>
       </c>
       <c r="E102" t="n">
-        <v>11.51</v>
+        <v>11.5</v>
       </c>
       <c r="F102" t="n">
-        <v>4307.1201</v>
+        <v>88626</v>
       </c>
       <c r="G102" t="n">
-        <v>11.75933333333334</v>
+        <v>-3988998.787094464</v>
       </c>
       <c r="H102" t="n">
-        <v>11.6675</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4450,42 +3968,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>11.51</v>
+        <v>11.48</v>
       </c>
       <c r="C103" t="n">
-        <v>11.51</v>
+        <v>11.48</v>
       </c>
       <c r="D103" t="n">
-        <v>11.51</v>
+        <v>11.48</v>
       </c>
       <c r="E103" t="n">
-        <v>11.51</v>
+        <v>11.48</v>
       </c>
       <c r="F103" t="n">
-        <v>29313.6387</v>
+        <v>2583.3934</v>
       </c>
       <c r="G103" t="n">
-        <v>11.72333333333333</v>
+        <v>-3991582.180494464</v>
       </c>
       <c r="H103" t="n">
-        <v>11.665</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4494,42 +4003,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>11.9</v>
+        <v>11.38</v>
       </c>
       <c r="C104" t="n">
-        <v>11.9</v>
+        <v>11.38</v>
       </c>
       <c r="D104" t="n">
-        <v>11.9</v>
+        <v>11.38</v>
       </c>
       <c r="E104" t="n">
-        <v>11.9</v>
+        <v>11.38</v>
       </c>
       <c r="F104" t="n">
-        <v>44</v>
+        <v>382.2504</v>
       </c>
       <c r="G104" t="n">
-        <v>11.71666666666667</v>
+        <v>-3991964.430894463</v>
       </c>
       <c r="H104" t="n">
-        <v>11.6665</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="K104" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4538,42 +4042,41 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>11.79</v>
+        <v>11.45</v>
       </c>
       <c r="C105" t="n">
-        <v>11.79</v>
+        <v>11.45</v>
       </c>
       <c r="D105" t="n">
-        <v>11.79</v>
+        <v>11.45</v>
       </c>
       <c r="E105" t="n">
-        <v>11.79</v>
+        <v>11.45</v>
       </c>
       <c r="F105" t="n">
-        <v>1670.992366412214</v>
+        <v>66286.81299999999</v>
       </c>
       <c r="G105" t="n">
-        <v>11.706</v>
+        <v>-3925677.617894463</v>
       </c>
       <c r="H105" t="n">
-        <v>11.66866666666666</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K105" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4582,42 +4085,41 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>11.9</v>
+        <v>11.45</v>
       </c>
       <c r="C106" t="n">
-        <v>11.9</v>
+        <v>11.45</v>
       </c>
       <c r="D106" t="n">
-        <v>11.9</v>
+        <v>11.45</v>
       </c>
       <c r="E106" t="n">
-        <v>11.9</v>
+        <v>11.45</v>
       </c>
       <c r="F106" t="n">
-        <v>43</v>
+        <v>174.9965</v>
       </c>
       <c r="G106" t="n">
-        <v>11.724</v>
+        <v>-3925677.617894463</v>
       </c>
       <c r="H106" t="n">
-        <v>11.67283333333333</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="K106" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4626,42 +4128,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>11.52</v>
+        <v>11.45</v>
       </c>
       <c r="C107" t="n">
-        <v>11.9</v>
+        <v>11.45</v>
       </c>
       <c r="D107" t="n">
-        <v>11.9</v>
+        <v>11.45</v>
       </c>
       <c r="E107" t="n">
-        <v>11.51</v>
+        <v>11.45</v>
       </c>
       <c r="F107" t="n">
-        <v>87446.97</v>
+        <v>6288.0484</v>
       </c>
       <c r="G107" t="n">
-        <v>11.72066666666667</v>
+        <v>-3925677.617894463</v>
       </c>
       <c r="H107" t="n">
-        <v>11.67433333333333</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="K107" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4670,42 +4167,41 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>11.55</v>
+        <v>11.39</v>
       </c>
       <c r="C108" t="n">
-        <v>11.55</v>
+        <v>11.38</v>
       </c>
       <c r="D108" t="n">
-        <v>11.55</v>
+        <v>11.39</v>
       </c>
       <c r="E108" t="n">
-        <v>11.55</v>
+        <v>11.38</v>
       </c>
       <c r="F108" t="n">
-        <v>1507.5656</v>
+        <v>10934.4575</v>
       </c>
       <c r="G108" t="n">
-        <v>11.702</v>
+        <v>-3936612.075394463</v>
       </c>
       <c r="H108" t="n">
-        <v>11.67266666666666</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="K108" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4714,42 +4210,41 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>11.78</v>
+        <v>11.43</v>
       </c>
       <c r="C109" t="n">
-        <v>11.78</v>
+        <v>11.53</v>
       </c>
       <c r="D109" t="n">
-        <v>11.78</v>
+        <v>11.53</v>
       </c>
       <c r="E109" t="n">
-        <v>11.78</v>
+        <v>11.43</v>
       </c>
       <c r="F109" t="n">
-        <v>3515.025466893039</v>
+        <v>174836.471</v>
       </c>
       <c r="G109" t="n">
-        <v>11.71</v>
+        <v>-3761775.604394463</v>
       </c>
       <c r="H109" t="n">
-        <v>11.67483333333333</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K109" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4758,42 +4253,41 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.78</v>
+        <v>11.57</v>
       </c>
       <c r="C110" t="n">
-        <v>11.78</v>
+        <v>11.67</v>
       </c>
       <c r="D110" t="n">
-        <v>11.78</v>
+        <v>11.67</v>
       </c>
       <c r="E110" t="n">
-        <v>11.78</v>
+        <v>11.57</v>
       </c>
       <c r="F110" t="n">
-        <v>2401.6342</v>
+        <v>45271.8734</v>
       </c>
       <c r="G110" t="n">
-        <v>11.70666666666667</v>
+        <v>-3716503.730994463</v>
       </c>
       <c r="H110" t="n">
-        <v>11.67433333333333</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K110" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4802,42 +4296,41 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>11.77</v>
+        <v>11.67</v>
       </c>
       <c r="C111" t="n">
-        <v>11.51</v>
+        <v>11.67</v>
       </c>
       <c r="D111" t="n">
-        <v>11.77</v>
+        <v>11.67</v>
       </c>
       <c r="E111" t="n">
-        <v>11.51</v>
+        <v>11.67</v>
       </c>
       <c r="F111" t="n">
-        <v>65259.46</v>
+        <v>253.8204</v>
       </c>
       <c r="G111" t="n">
-        <v>11.69866666666667</v>
+        <v>-3716503.730994463</v>
       </c>
       <c r="H111" t="n">
-        <v>11.672</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="K111" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,42 +4339,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>11.51</v>
+        <v>11.48</v>
       </c>
       <c r="C112" t="n">
-        <v>11.51</v>
+        <v>11.48</v>
       </c>
       <c r="D112" t="n">
-        <v>11.51</v>
+        <v>11.48</v>
       </c>
       <c r="E112" t="n">
-        <v>11.51</v>
+        <v>11.48</v>
       </c>
       <c r="F112" t="n">
-        <v>72755</v>
+        <v>100</v>
       </c>
       <c r="G112" t="n">
-        <v>11.69066666666667</v>
+        <v>-3716603.730994463</v>
       </c>
       <c r="H112" t="n">
-        <v>11.66983333333333</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4890,42 +4380,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>11.52</v>
+        <v>11.66</v>
       </c>
       <c r="C113" t="n">
-        <v>11.51</v>
+        <v>11.66</v>
       </c>
       <c r="D113" t="n">
-        <v>11.52</v>
+        <v>11.66</v>
       </c>
       <c r="E113" t="n">
-        <v>11.51</v>
+        <v>11.66</v>
       </c>
       <c r="F113" t="n">
-        <v>77872.2668</v>
+        <v>44</v>
       </c>
       <c r="G113" t="n">
-        <v>11.67466666666667</v>
+        <v>-3716559.730994463</v>
       </c>
       <c r="H113" t="n">
-        <v>11.66483333333333</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4934,42 +4421,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.41</v>
+        <v>11.66</v>
       </c>
       <c r="C114" t="n">
-        <v>11.41</v>
+        <v>11.69</v>
       </c>
       <c r="D114" t="n">
-        <v>11.41</v>
+        <v>11.69</v>
       </c>
       <c r="E114" t="n">
-        <v>11.41</v>
+        <v>11.66</v>
       </c>
       <c r="F114" t="n">
-        <v>2401.6342</v>
+        <v>230272.215</v>
       </c>
       <c r="G114" t="n">
-        <v>11.64533333333334</v>
+        <v>-3486287.515994464</v>
       </c>
       <c r="H114" t="n">
-        <v>11.65816666666667</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4978,42 +4462,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>11.68</v>
+        <v>11.69</v>
       </c>
       <c r="C115" t="n">
-        <v>11.68</v>
+        <v>11.69</v>
       </c>
       <c r="D115" t="n">
-        <v>11.68</v>
+        <v>11.69</v>
       </c>
       <c r="E115" t="n">
-        <v>11.68</v>
+        <v>11.69</v>
       </c>
       <c r="F115" t="n">
-        <v>44</v>
+        <v>5473.4805</v>
       </c>
       <c r="G115" t="n">
-        <v>11.65</v>
+        <v>-3486287.515994464</v>
       </c>
       <c r="H115" t="n">
-        <v>11.6595</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5022,44 +4503,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>11.44</v>
+        <v>11.69</v>
       </c>
       <c r="C116" t="n">
-        <v>11.68</v>
+        <v>12.06</v>
       </c>
       <c r="D116" t="n">
-        <v>11.68</v>
+        <v>12.06</v>
       </c>
       <c r="E116" t="n">
-        <v>11.44</v>
+        <v>11.69</v>
       </c>
       <c r="F116" t="n">
-        <v>421.7747</v>
+        <v>15500</v>
       </c>
       <c r="G116" t="n">
-        <v>11.66133333333334</v>
+        <v>-3470787.515994464</v>
       </c>
       <c r="H116" t="n">
-        <v>11.655</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="L116" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,42 +4544,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>11.68</v>
+        <v>11.95</v>
       </c>
       <c r="C117" t="n">
-        <v>11.88</v>
+        <v>12.05</v>
       </c>
       <c r="D117" t="n">
-        <v>11.88</v>
+        <v>12.05</v>
       </c>
       <c r="E117" t="n">
-        <v>11.68</v>
+        <v>11.95</v>
       </c>
       <c r="F117" t="n">
-        <v>16944.8124</v>
+        <v>11364.49</v>
       </c>
       <c r="G117" t="n">
-        <v>11.68600000000001</v>
+        <v>-3482152.005994464</v>
       </c>
       <c r="H117" t="n">
-        <v>11.65683333333333</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5112,42 +4585,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>11.67</v>
+        <v>12</v>
       </c>
       <c r="C118" t="n">
-        <v>11.77</v>
+        <v>12</v>
       </c>
       <c r="D118" t="n">
-        <v>11.77</v>
+        <v>12</v>
       </c>
       <c r="E118" t="n">
-        <v>11.67</v>
+        <v>12</v>
       </c>
       <c r="F118" t="n">
-        <v>16861.441</v>
+        <v>5000</v>
       </c>
       <c r="G118" t="n">
-        <v>11.70333333333334</v>
+        <v>-3487152.005994464</v>
       </c>
       <c r="H118" t="n">
-        <v>11.65966666666666</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5156,42 +4626,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>11.67</v>
+        <v>11.95</v>
       </c>
       <c r="C119" t="n">
-        <v>11.67</v>
+        <v>11.95</v>
       </c>
       <c r="D119" t="n">
-        <v>11.67</v>
+        <v>11.95</v>
       </c>
       <c r="E119" t="n">
-        <v>11.67</v>
+        <v>11.95</v>
       </c>
       <c r="F119" t="n">
-        <v>4028</v>
+        <v>5485.263</v>
       </c>
       <c r="G119" t="n">
-        <v>11.68800000000001</v>
+        <v>-3492637.268994464</v>
       </c>
       <c r="H119" t="n">
-        <v>11.66083333333333</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5200,42 +4667,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>11.67</v>
+        <v>11.63</v>
       </c>
       <c r="C120" t="n">
-        <v>11.54</v>
+        <v>11.63</v>
       </c>
       <c r="D120" t="n">
-        <v>11.67</v>
+        <v>11.63</v>
       </c>
       <c r="E120" t="n">
-        <v>11.54</v>
+        <v>11.63</v>
       </c>
       <c r="F120" t="n">
-        <v>30745.8067</v>
+        <v>43</v>
       </c>
       <c r="G120" t="n">
-        <v>11.67133333333334</v>
+        <v>-3492680.268994464</v>
       </c>
       <c r="H120" t="n">
-        <v>11.65916666666666</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5244,42 +4708,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>11.79</v>
+        <v>11.95</v>
       </c>
       <c r="C121" t="n">
-        <v>11.54</v>
+        <v>11.95</v>
       </c>
       <c r="D121" t="n">
-        <v>11.79</v>
+        <v>11.95</v>
       </c>
       <c r="E121" t="n">
-        <v>11.54</v>
+        <v>11.95</v>
       </c>
       <c r="F121" t="n">
-        <v>3060.4467</v>
+        <v>42</v>
       </c>
       <c r="G121" t="n">
-        <v>11.64733333333334</v>
+        <v>-3492638.268994464</v>
       </c>
       <c r="H121" t="n">
-        <v>11.65816666666666</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5288,42 +4749,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.79</v>
+        <v>11.65</v>
       </c>
       <c r="C122" t="n">
-        <v>11.79</v>
+        <v>11.83</v>
       </c>
       <c r="D122" t="n">
-        <v>11.79</v>
+        <v>11.83</v>
       </c>
       <c r="E122" t="n">
-        <v>11.79</v>
+        <v>11.65</v>
       </c>
       <c r="F122" t="n">
-        <v>43</v>
+        <v>8516.9318</v>
       </c>
       <c r="G122" t="n">
-        <v>11.64</v>
+        <v>-3501155.200794464</v>
       </c>
       <c r="H122" t="n">
-        <v>11.66133333333333</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5332,42 +4790,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.89</v>
+        <v>11.66</v>
       </c>
       <c r="C123" t="n">
-        <v>11.89</v>
+        <v>11.66</v>
       </c>
       <c r="D123" t="n">
-        <v>11.89</v>
+        <v>11.66</v>
       </c>
       <c r="E123" t="n">
-        <v>11.89</v>
+        <v>11.66</v>
       </c>
       <c r="F123" t="n">
-        <v>43</v>
+        <v>6470.169</v>
       </c>
       <c r="G123" t="n">
-        <v>11.66266666666667</v>
+        <v>-3507625.369794464</v>
       </c>
       <c r="H123" t="n">
-        <v>11.66616666666666</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5376,42 +4831,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>11.89</v>
+        <v>11.66</v>
       </c>
       <c r="C124" t="n">
-        <v>11.89</v>
+        <v>11.83</v>
       </c>
       <c r="D124" t="n">
-        <v>11.89</v>
+        <v>11.83</v>
       </c>
       <c r="E124" t="n">
-        <v>11.89</v>
+        <v>11.66</v>
       </c>
       <c r="F124" t="n">
-        <v>14471.737</v>
+        <v>45</v>
       </c>
       <c r="G124" t="n">
-        <v>11.67</v>
+        <v>-3507580.369794464</v>
       </c>
       <c r="H124" t="n">
-        <v>11.67099999999999</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5420,42 +4872,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>12.06</v>
+        <v>11.64</v>
       </c>
       <c r="C125" t="n">
-        <v>12.06</v>
+        <v>11.63</v>
       </c>
       <c r="D125" t="n">
-        <v>12.06</v>
+        <v>11.64</v>
       </c>
       <c r="E125" t="n">
-        <v>12.06</v>
+        <v>11.63</v>
       </c>
       <c r="F125" t="n">
-        <v>21707</v>
+        <v>55108.1576</v>
       </c>
       <c r="G125" t="n">
-        <v>11.68866666666667</v>
+        <v>-3562688.527394464</v>
       </c>
       <c r="H125" t="n">
-        <v>11.67849999999999</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5464,42 +4913,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>12.16</v>
+        <v>11.63</v>
       </c>
       <c r="C126" t="n">
-        <v>12.16</v>
+        <v>11.63</v>
       </c>
       <c r="D126" t="n">
-        <v>12.16</v>
+        <v>11.63</v>
       </c>
       <c r="E126" t="n">
-        <v>12.06</v>
+        <v>11.63</v>
       </c>
       <c r="F126" t="n">
-        <v>4028</v>
+        <v>1756.4455</v>
       </c>
       <c r="G126" t="n">
-        <v>11.732</v>
+        <v>-3562688.527394464</v>
       </c>
       <c r="H126" t="n">
-        <v>11.68666666666666</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5508,42 +4954,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>12.08</v>
+        <v>11.75</v>
       </c>
       <c r="C127" t="n">
-        <v>12.08</v>
+        <v>11.75</v>
       </c>
       <c r="D127" t="n">
-        <v>12.08</v>
+        <v>11.75</v>
       </c>
       <c r="E127" t="n">
-        <v>12.08</v>
+        <v>11.75</v>
       </c>
       <c r="F127" t="n">
-        <v>1857.4631</v>
+        <v>88</v>
       </c>
       <c r="G127" t="n">
-        <v>11.77</v>
+        <v>-3562600.527394464</v>
       </c>
       <c r="H127" t="n">
-        <v>11.69249999999999</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5552,42 +4995,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>12.08</v>
+        <v>11.74</v>
       </c>
       <c r="C128" t="n">
-        <v>12.08</v>
+        <v>11.85</v>
       </c>
       <c r="D128" t="n">
-        <v>12.08</v>
+        <v>11.85</v>
       </c>
       <c r="E128" t="n">
-        <v>12.08</v>
+        <v>11.74</v>
       </c>
       <c r="F128" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G128" t="n">
-        <v>11.80800000000001</v>
+        <v>-3562512.527394464</v>
       </c>
       <c r="H128" t="n">
-        <v>11.69949999999999</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5596,42 +5036,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>12.08</v>
+        <v>11.61</v>
       </c>
       <c r="C129" t="n">
-        <v>11.98</v>
+        <v>11.61</v>
       </c>
       <c r="D129" t="n">
-        <v>12.08</v>
+        <v>11.61</v>
       </c>
       <c r="E129" t="n">
-        <v>11.88</v>
+        <v>11.61</v>
       </c>
       <c r="F129" t="n">
-        <v>4978</v>
+        <v>191787.7247</v>
       </c>
       <c r="G129" t="n">
-        <v>11.84600000000001</v>
+        <v>-3754300.252094464</v>
       </c>
       <c r="H129" t="n">
-        <v>11.70566666666666</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5640,42 +5077,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>11.86</v>
+        <v>11.61</v>
       </c>
       <c r="C130" t="n">
-        <v>11.85</v>
+        <v>11.51</v>
       </c>
       <c r="D130" t="n">
-        <v>11.86</v>
+        <v>11.61</v>
       </c>
       <c r="E130" t="n">
-        <v>11.74</v>
+        <v>11.51</v>
       </c>
       <c r="F130" t="n">
-        <v>35975.3773</v>
+        <v>101528.7913</v>
       </c>
       <c r="G130" t="n">
-        <v>11.85733333333334</v>
+        <v>-3855829.043394464</v>
       </c>
       <c r="H130" t="n">
-        <v>11.70966666666666</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5684,42 +5118,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>11.74</v>
+        <v>11.51</v>
       </c>
       <c r="C131" t="n">
-        <v>11.74</v>
+        <v>11.51</v>
       </c>
       <c r="D131" t="n">
-        <v>11.74</v>
+        <v>11.51</v>
       </c>
       <c r="E131" t="n">
-        <v>11.6</v>
+        <v>11.51</v>
       </c>
       <c r="F131" t="n">
-        <v>13711.6227</v>
+        <v>4307.1201</v>
       </c>
       <c r="G131" t="n">
-        <v>11.86133333333334</v>
+        <v>-3855829.043394464</v>
       </c>
       <c r="H131" t="n">
-        <v>11.71316666666666</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5728,42 +5159,39 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>11.75</v>
+        <v>11.51</v>
       </c>
       <c r="C132" t="n">
-        <v>11.75</v>
+        <v>11.51</v>
       </c>
       <c r="D132" t="n">
-        <v>11.75</v>
+        <v>11.51</v>
       </c>
       <c r="E132" t="n">
-        <v>11.75</v>
+        <v>11.51</v>
       </c>
       <c r="F132" t="n">
-        <v>44</v>
+        <v>29313.6387</v>
       </c>
       <c r="G132" t="n">
-        <v>11.85266666666667</v>
+        <v>-3855829.043394464</v>
       </c>
       <c r="H132" t="n">
-        <v>11.71683333333333</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5772,42 +5200,39 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>11.75</v>
+        <v>11.9</v>
       </c>
       <c r="C133" t="n">
-        <v>11.75</v>
+        <v>11.9</v>
       </c>
       <c r="D133" t="n">
-        <v>11.75</v>
+        <v>11.9</v>
       </c>
       <c r="E133" t="n">
-        <v>11.75</v>
+        <v>11.9</v>
       </c>
       <c r="F133" t="n">
-        <v>4419.1215</v>
+        <v>44</v>
       </c>
       <c r="G133" t="n">
-        <v>11.85133333333334</v>
+        <v>-3855785.043394464</v>
       </c>
       <c r="H133" t="n">
-        <v>11.72099999999999</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5816,42 +5241,39 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>11.55</v>
+        <v>11.79</v>
       </c>
       <c r="C134" t="n">
-        <v>11.55</v>
+        <v>11.79</v>
       </c>
       <c r="D134" t="n">
-        <v>11.55</v>
+        <v>11.79</v>
       </c>
       <c r="E134" t="n">
-        <v>11.55</v>
+        <v>11.79</v>
       </c>
       <c r="F134" t="n">
-        <v>163.7945</v>
+        <v>1670.992366412214</v>
       </c>
       <c r="G134" t="n">
-        <v>11.84333333333334</v>
+        <v>-3857456.035760876</v>
       </c>
       <c r="H134" t="n">
-        <v>11.72216666666666</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5860,42 +5282,39 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>11.75</v>
+        <v>11.9</v>
       </c>
       <c r="C135" t="n">
-        <v>11.75</v>
+        <v>11.9</v>
       </c>
       <c r="D135" t="n">
-        <v>11.75</v>
+        <v>11.9</v>
       </c>
       <c r="E135" t="n">
-        <v>11.75</v>
+        <v>11.9</v>
       </c>
       <c r="F135" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G135" t="n">
-        <v>11.85733333333334</v>
+        <v>-3857413.035760876</v>
       </c>
       <c r="H135" t="n">
-        <v>11.72833333333333</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5904,42 +5323,39 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>11.55</v>
+        <v>11.52</v>
       </c>
       <c r="C136" t="n">
-        <v>11.54</v>
+        <v>11.9</v>
       </c>
       <c r="D136" t="n">
-        <v>11.55</v>
+        <v>11.9</v>
       </c>
       <c r="E136" t="n">
-        <v>11.54</v>
+        <v>11.51</v>
       </c>
       <c r="F136" t="n">
-        <v>23251.94</v>
+        <v>87446.97</v>
       </c>
       <c r="G136" t="n">
-        <v>11.85733333333334</v>
+        <v>-3857413.035760876</v>
       </c>
       <c r="H136" t="n">
-        <v>11.72983333333332</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5948,42 +5364,39 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>11.73</v>
+        <v>11.55</v>
       </c>
       <c r="C137" t="n">
-        <v>11.73</v>
+        <v>11.55</v>
       </c>
       <c r="D137" t="n">
-        <v>11.73</v>
+        <v>11.55</v>
       </c>
       <c r="E137" t="n">
-        <v>11.73</v>
+        <v>11.55</v>
       </c>
       <c r="F137" t="n">
-        <v>44</v>
+        <v>1507.5656</v>
       </c>
       <c r="G137" t="n">
-        <v>11.85333333333334</v>
+        <v>-3858920.601360876</v>
       </c>
       <c r="H137" t="n">
-        <v>11.73449999999999</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5992,42 +5405,39 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>11.54</v>
+        <v>11.78</v>
       </c>
       <c r="C138" t="n">
-        <v>11.31</v>
+        <v>11.78</v>
       </c>
       <c r="D138" t="n">
-        <v>11.55</v>
+        <v>11.78</v>
       </c>
       <c r="E138" t="n">
-        <v>11.31</v>
+        <v>11.78</v>
       </c>
       <c r="F138" t="n">
-        <v>89419.06</v>
+        <v>3515.025466893039</v>
       </c>
       <c r="G138" t="n">
-        <v>11.81466666666667</v>
+        <v>-3855405.575893983</v>
       </c>
       <c r="H138" t="n">
-        <v>11.73216666666666</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6036,42 +5446,39 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>11.63</v>
+        <v>11.78</v>
       </c>
       <c r="C139" t="n">
-        <v>11.63</v>
+        <v>11.78</v>
       </c>
       <c r="D139" t="n">
-        <v>11.63</v>
+        <v>11.78</v>
       </c>
       <c r="E139" t="n">
-        <v>11.63</v>
+        <v>11.78</v>
       </c>
       <c r="F139" t="n">
-        <v>255</v>
+        <v>2401.6342</v>
       </c>
       <c r="G139" t="n">
-        <v>11.79733333333334</v>
+        <v>-3855405.575893983</v>
       </c>
       <c r="H139" t="n">
-        <v>11.73633333333332</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6080,42 +5487,39 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>11.64</v>
+        <v>11.77</v>
       </c>
       <c r="C140" t="n">
-        <v>11.64</v>
+        <v>11.51</v>
       </c>
       <c r="D140" t="n">
-        <v>11.64</v>
+        <v>11.77</v>
       </c>
       <c r="E140" t="n">
-        <v>11.64</v>
+        <v>11.51</v>
       </c>
       <c r="F140" t="n">
-        <v>44</v>
+        <v>65259.46</v>
       </c>
       <c r="G140" t="n">
-        <v>11.76933333333334</v>
+        <v>-3920665.035893983</v>
       </c>
       <c r="H140" t="n">
-        <v>11.73816666666666</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6124,42 +5528,39 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>11.64</v>
+        <v>11.51</v>
       </c>
       <c r="C141" t="n">
-        <v>11.64</v>
+        <v>11.51</v>
       </c>
       <c r="D141" t="n">
-        <v>11.64</v>
+        <v>11.51</v>
       </c>
       <c r="E141" t="n">
-        <v>11.64</v>
+        <v>11.51</v>
       </c>
       <c r="F141" t="n">
-        <v>17383.714</v>
+        <v>72755</v>
       </c>
       <c r="G141" t="n">
-        <v>11.73466666666667</v>
+        <v>-3920665.035893983</v>
       </c>
       <c r="H141" t="n">
-        <v>11.73766666666666</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6168,42 +5569,39 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>11.71</v>
+        <v>11.52</v>
       </c>
       <c r="C142" t="n">
-        <v>11.71</v>
+        <v>11.51</v>
       </c>
       <c r="D142" t="n">
-        <v>11.71</v>
+        <v>11.52</v>
       </c>
       <c r="E142" t="n">
-        <v>11.71</v>
+        <v>11.51</v>
       </c>
       <c r="F142" t="n">
-        <v>43</v>
+        <v>77872.2668</v>
       </c>
       <c r="G142" t="n">
-        <v>11.71</v>
+        <v>-3920665.035893983</v>
       </c>
       <c r="H142" t="n">
-        <v>11.73833333333332</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N142" t="n">
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6212,42 +5610,39 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>11.71</v>
+        <v>11.41</v>
       </c>
       <c r="C143" t="n">
-        <v>11.71</v>
+        <v>11.41</v>
       </c>
       <c r="D143" t="n">
-        <v>11.71</v>
+        <v>11.41</v>
       </c>
       <c r="E143" t="n">
-        <v>11.71</v>
+        <v>11.41</v>
       </c>
       <c r="F143" t="n">
-        <v>2135.7566</v>
+        <v>2401.6342</v>
       </c>
       <c r="G143" t="n">
-        <v>11.68533333333334</v>
+        <v>-3923066.670093983</v>
       </c>
       <c r="H143" t="n">
-        <v>11.74216666666666</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N143" t="n">
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6256,42 +5651,39 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>11.71</v>
+        <v>11.68</v>
       </c>
       <c r="C144" t="n">
-        <v>11.71</v>
+        <v>11.68</v>
       </c>
       <c r="D144" t="n">
-        <v>11.71</v>
+        <v>11.68</v>
       </c>
       <c r="E144" t="n">
-        <v>11.71</v>
+        <v>11.68</v>
       </c>
       <c r="F144" t="n">
-        <v>5962.8375</v>
+        <v>44</v>
       </c>
       <c r="G144" t="n">
-        <v>11.66733333333334</v>
+        <v>-3923022.670093983</v>
       </c>
       <c r="H144" t="n">
-        <v>11.74299999999999</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N144" t="n">
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6300,42 +5692,39 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>11.79</v>
+        <v>11.44</v>
       </c>
       <c r="C145" t="n">
-        <v>11.79</v>
+        <v>11.68</v>
       </c>
       <c r="D145" t="n">
-        <v>11.79</v>
+        <v>11.68</v>
       </c>
       <c r="E145" t="n">
-        <v>11.79</v>
+        <v>11.44</v>
       </c>
       <c r="F145" t="n">
-        <v>44</v>
+        <v>421.7747</v>
       </c>
       <c r="G145" t="n">
-        <v>11.66333333333334</v>
+        <v>-3923022.670093983</v>
       </c>
       <c r="H145" t="n">
-        <v>11.74466666666666</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N145" t="n">
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6344,42 +5733,39 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>11.79</v>
+        <v>11.68</v>
       </c>
       <c r="C146" t="n">
-        <v>11.79</v>
+        <v>11.88</v>
       </c>
       <c r="D146" t="n">
-        <v>11.79</v>
+        <v>11.88</v>
       </c>
       <c r="E146" t="n">
-        <v>11.79</v>
+        <v>11.68</v>
       </c>
       <c r="F146" t="n">
-        <v>10000</v>
+        <v>16944.8124</v>
       </c>
       <c r="G146" t="n">
-        <v>11.66666666666667</v>
+        <v>-3906077.857693983</v>
       </c>
       <c r="H146" t="n">
-        <v>11.74633333333332</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N146" t="n">
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6388,42 +5774,39 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>11.79</v>
+        <v>11.67</v>
       </c>
       <c r="C147" t="n">
-        <v>11.79</v>
+        <v>11.77</v>
       </c>
       <c r="D147" t="n">
-        <v>11.79</v>
+        <v>11.77</v>
       </c>
       <c r="E147" t="n">
-        <v>11.79</v>
+        <v>11.67</v>
       </c>
       <c r="F147" t="n">
-        <v>2702.9762</v>
+        <v>16861.441</v>
       </c>
       <c r="G147" t="n">
-        <v>11.66933333333334</v>
+        <v>-3922939.298693983</v>
       </c>
       <c r="H147" t="n">
-        <v>11.74183333333332</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N147" t="n">
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6432,42 +5815,39 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>11.7</v>
+        <v>11.67</v>
       </c>
       <c r="C148" t="n">
-        <v>11.7</v>
+        <v>11.67</v>
       </c>
       <c r="D148" t="n">
-        <v>11.7</v>
+        <v>11.67</v>
       </c>
       <c r="E148" t="n">
-        <v>11.7</v>
+        <v>11.67</v>
       </c>
       <c r="F148" t="n">
-        <v>34051.7149</v>
+        <v>4028</v>
       </c>
       <c r="G148" t="n">
-        <v>11.666</v>
+        <v>-3926967.298693983</v>
       </c>
       <c r="H148" t="n">
-        <v>11.73599999999999</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N148" t="n">
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6476,42 +5856,39 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>11.61</v>
+        <v>11.67</v>
       </c>
       <c r="C149" t="n">
-        <v>11.44</v>
+        <v>11.54</v>
       </c>
       <c r="D149" t="n">
-        <v>11.61</v>
+        <v>11.67</v>
       </c>
       <c r="E149" t="n">
-        <v>11.44</v>
+        <v>11.54</v>
       </c>
       <c r="F149" t="n">
-        <v>7879</v>
+        <v>30745.8067</v>
       </c>
       <c r="G149" t="n">
-        <v>11.65866666666667</v>
+        <v>-3957713.105393983</v>
       </c>
       <c r="H149" t="n">
-        <v>11.72666666666666</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N149" t="n">
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6520,42 +5897,39 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>11.44</v>
+        <v>11.79</v>
       </c>
       <c r="C150" t="n">
-        <v>11.44</v>
+        <v>11.54</v>
       </c>
       <c r="D150" t="n">
-        <v>11.44</v>
+        <v>11.79</v>
       </c>
       <c r="E150" t="n">
-        <v>11.44</v>
+        <v>11.54</v>
       </c>
       <c r="F150" t="n">
-        <v>38059.3679</v>
+        <v>3060.4467</v>
       </c>
       <c r="G150" t="n">
-        <v>11.638</v>
+        <v>-3957713.105393983</v>
       </c>
       <c r="H150" t="n">
-        <v>11.71816666666666</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N150" t="n">
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6564,42 +5938,39 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>11.44</v>
+        <v>11.79</v>
       </c>
       <c r="C151" t="n">
-        <v>11.44</v>
+        <v>11.79</v>
       </c>
       <c r="D151" t="n">
-        <v>11.44</v>
+        <v>11.79</v>
       </c>
       <c r="E151" t="n">
-        <v>11.44</v>
+        <v>11.79</v>
       </c>
       <c r="F151" t="n">
-        <v>280.1614</v>
+        <v>43</v>
       </c>
       <c r="G151" t="n">
-        <v>11.63133333333334</v>
+        <v>-3957670.105393983</v>
       </c>
       <c r="H151" t="n">
-        <v>11.71499999999999</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N151" t="n">
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,42 +5979,39 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>11.43</v>
+        <v>11.89</v>
       </c>
       <c r="C152" t="n">
-        <v>11.43</v>
+        <v>11.89</v>
       </c>
       <c r="D152" t="n">
-        <v>11.43</v>
+        <v>11.89</v>
       </c>
       <c r="E152" t="n">
-        <v>11.43</v>
+        <v>11.89</v>
       </c>
       <c r="F152" t="n">
-        <v>23080.254</v>
+        <v>43</v>
       </c>
       <c r="G152" t="n">
-        <v>11.61133333333334</v>
+        <v>-3957627.105393983</v>
       </c>
       <c r="H152" t="n">
-        <v>11.70633333333333</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N152" t="n">
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6652,44 +6020,39 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>11.4</v>
+        <v>11.89</v>
       </c>
       <c r="C153" t="n">
-        <v>11.31</v>
+        <v>11.89</v>
       </c>
       <c r="D153" t="n">
-        <v>11.4</v>
+        <v>11.89</v>
       </c>
       <c r="E153" t="n">
-        <v>11.31</v>
+        <v>11.89</v>
       </c>
       <c r="F153" t="n">
-        <v>64939.626</v>
+        <v>14471.737</v>
       </c>
       <c r="G153" t="n">
-        <v>11.61133333333334</v>
+        <v>-3957627.105393983</v>
       </c>
       <c r="H153" t="n">
-        <v>11.69766666666666</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
-      </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="L153" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N153" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6698,44 +6061,39 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>11.44</v>
+        <v>12.06</v>
       </c>
       <c r="C154" t="n">
-        <v>11.44</v>
+        <v>12.06</v>
       </c>
       <c r="D154" t="n">
-        <v>11.44</v>
+        <v>12.06</v>
       </c>
       <c r="E154" t="n">
-        <v>11.44</v>
+        <v>12.06</v>
       </c>
       <c r="F154" t="n">
-        <v>44</v>
+        <v>21707</v>
       </c>
       <c r="G154" t="n">
-        <v>11.59866666666667</v>
+        <v>-3935920.105393983</v>
       </c>
       <c r="H154" t="n">
-        <v>11.69399999999999</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="L154" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N154" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6744,44 +6102,39 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>11.44</v>
+        <v>12.16</v>
       </c>
       <c r="C155" t="n">
-        <v>11.44</v>
+        <v>12.16</v>
       </c>
       <c r="D155" t="n">
-        <v>11.44</v>
+        <v>12.16</v>
       </c>
       <c r="E155" t="n">
-        <v>11.44</v>
+        <v>12.06</v>
       </c>
       <c r="F155" t="n">
-        <v>23627.4707</v>
+        <v>4028</v>
       </c>
       <c r="G155" t="n">
-        <v>11.58533333333333</v>
+        <v>-3931892.105393983</v>
       </c>
       <c r="H155" t="n">
-        <v>11.68749999999999</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="L155" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N155" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6790,44 +6143,39 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>11.6</v>
+        <v>12.08</v>
       </c>
       <c r="C156" t="n">
-        <v>11.6</v>
+        <v>12.08</v>
       </c>
       <c r="D156" t="n">
-        <v>11.6</v>
+        <v>12.08</v>
       </c>
       <c r="E156" t="n">
-        <v>11.6</v>
+        <v>12.08</v>
       </c>
       <c r="F156" t="n">
-        <v>44</v>
+        <v>1857.4631</v>
       </c>
       <c r="G156" t="n">
-        <v>11.58266666666667</v>
+        <v>-3933749.568493983</v>
       </c>
       <c r="H156" t="n">
-        <v>11.68699999999999</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="L156" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N156" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6836,44 +6184,39 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>11.49</v>
+        <v>12.08</v>
       </c>
       <c r="C157" t="n">
-        <v>11.58</v>
+        <v>12.08</v>
       </c>
       <c r="D157" t="n">
-        <v>11.58</v>
+        <v>12.08</v>
       </c>
       <c r="E157" t="n">
-        <v>11.49</v>
+        <v>12.08</v>
       </c>
       <c r="F157" t="n">
-        <v>4974</v>
+        <v>84</v>
       </c>
       <c r="G157" t="n">
-        <v>11.574</v>
+        <v>-3933749.568493983</v>
       </c>
       <c r="H157" t="n">
-        <v>11.68616666666666</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="L157" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N157" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6882,44 +6225,39 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>11.59</v>
+        <v>12.08</v>
       </c>
       <c r="C158" t="n">
-        <v>11.59</v>
+        <v>11.98</v>
       </c>
       <c r="D158" t="n">
-        <v>11.59</v>
+        <v>12.08</v>
       </c>
       <c r="E158" t="n">
-        <v>11.59</v>
+        <v>11.88</v>
       </c>
       <c r="F158" t="n">
-        <v>44</v>
+        <v>4978</v>
       </c>
       <c r="G158" t="n">
-        <v>11.566</v>
+        <v>-3938727.568493983</v>
       </c>
       <c r="H158" t="n">
-        <v>11.68349999999999</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
-      </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="L158" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N158" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6928,42 +6266,39 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>11.59</v>
+        <v>11.86</v>
       </c>
       <c r="C159" t="n">
-        <v>11.59</v>
+        <v>11.85</v>
       </c>
       <c r="D159" t="n">
-        <v>11.59</v>
+        <v>11.86</v>
       </c>
       <c r="E159" t="n">
-        <v>11.59</v>
+        <v>11.74</v>
       </c>
       <c r="F159" t="n">
-        <v>603.9689387402933</v>
+        <v>35975.3773</v>
       </c>
       <c r="G159" t="n">
-        <v>11.558</v>
+        <v>-3974702.945793983</v>
       </c>
       <c r="H159" t="n">
-        <v>11.67916666666666</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N159" t="n">
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6972,44 +6307,1242 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="C160" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="D160" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="E160" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F160" t="n">
+        <v>13711.6227</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-3988414.568493983</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="C161" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="D161" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="E161" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="F161" t="n">
+        <v>44</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-3988370.568493983</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="C162" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="D162" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="E162" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="F162" t="n">
+        <v>4419.1215</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-3988370.568493983</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C163" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D163" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E163" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F163" t="n">
+        <v>163.7945</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-3988534.362993983</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="C164" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="D164" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="E164" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="F164" t="n">
+        <v>44</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-3988490.362993983</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C165" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D165" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E165" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F165" t="n">
+        <v>23251.94</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-4011742.302993983</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="C166" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="D166" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="E166" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="F166" t="n">
+        <v>44</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-4011698.302993983</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="C167" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="D167" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E167" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="F167" t="n">
+        <v>89419.06</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-4101117.362993983</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="C168" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="D168" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="E168" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="F168" t="n">
+        <v>255</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-4100862.362993983</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="C169" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="D169" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="E169" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="F169" t="n">
+        <v>44</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-4100818.362993983</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="C170" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="D170" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="E170" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="F170" t="n">
+        <v>17383.714</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-4100818.362993983</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="C171" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D171" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E171" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F171" t="n">
+        <v>43</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-4100775.362993983</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="C172" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D172" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E172" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2135.7566</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-4100775.362993983</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="C173" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D173" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E173" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F173" t="n">
+        <v>5962.8375</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-4100775.362993983</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C174" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="D174" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E174" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="F174" t="n">
+        <v>44</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-4100731.362993983</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C175" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="D175" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E175" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-4100731.362993983</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C176" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="D176" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E176" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2702.9762</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-4100731.362993983</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C177" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D177" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E177" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F177" t="n">
+        <v>34051.7149</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-4134783.077893983</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="C178" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="D178" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="E178" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="F178" t="n">
+        <v>7879</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-4142662.077893983</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K178" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="C179" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="D179" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="E179" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="F179" t="n">
+        <v>38059.3679</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-4142662.077893983</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="K179" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="C180" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="D180" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="E180" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="F180" t="n">
+        <v>280.1614</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-4142662.077893983</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="K180" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="C181" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="D181" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="E181" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="F181" t="n">
+        <v>23080.254</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-4165742.331893983</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="K181" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C182" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="D182" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E182" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="F182" t="n">
+        <v>64939.626</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-4230681.957893983</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="C183" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="D183" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="E183" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="F183" t="n">
+        <v>44</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-4230637.957893983</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="K183" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="C184" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="D184" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="E184" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="F184" t="n">
+        <v>23627.4707</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-4230637.957893983</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="K184" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C185" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D185" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E185" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F185" t="n">
+        <v>44</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-4230593.957893983</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="K185" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="C186" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="D186" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="E186" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="F186" t="n">
+        <v>4974</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-4235567.957893983</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
         <v>11.59</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C187" t="n">
         <v>11.59</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D187" t="n">
         <v>11.59</v>
       </c>
-      <c r="E160" t="n">
+      <c r="E187" t="n">
         <v>11.59</v>
       </c>
-      <c r="F160" t="n">
+      <c r="F187" t="n">
+        <v>44</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-4235523.957893983</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="C188" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="D188" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="E188" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="F188" t="n">
+        <v>603.9689387402933</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-4235523.957893983</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="C189" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="D189" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="E189" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="F189" t="n">
         <v>85.2329</v>
       </c>
-      <c r="G160" t="n">
-        <v>11.54466666666667</v>
-      </c>
-      <c r="H160" t="n">
-        <v>11.67883333333333</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
-      <c r="K160" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="L160" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N160" t="n">
+      <c r="G189" t="n">
+        <v>-4235523.957893983</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-19 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N147"/>
+  <dimension ref="A1:N218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.45</v>
+        <v>11.62</v>
       </c>
       <c r="C2" t="n">
-        <v>11.45</v>
+        <v>11.62</v>
       </c>
       <c r="D2" t="n">
-        <v>11.45</v>
+        <v>11.62</v>
       </c>
       <c r="E2" t="n">
-        <v>11.45</v>
+        <v>11.62</v>
       </c>
       <c r="F2" t="n">
-        <v>29452.5868</v>
+        <v>16652.678</v>
       </c>
       <c r="G2" t="n">
-        <v>-2646352.569553744</v>
+        <v>-1746358.7248</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.34</v>
+        <v>11.66</v>
       </c>
       <c r="C3" t="n">
-        <v>11.25</v>
+        <v>11.52</v>
       </c>
       <c r="D3" t="n">
-        <v>11.34</v>
+        <v>11.66</v>
       </c>
       <c r="E3" t="n">
-        <v>11.25</v>
+        <v>11.52</v>
       </c>
       <c r="F3" t="n">
-        <v>348982.6373</v>
+        <v>91170.9185</v>
       </c>
       <c r="G3" t="n">
-        <v>-2995335.206853744</v>
+        <v>-1837529.6433</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.25</v>
+        <v>11.63</v>
       </c>
       <c r="C4" t="n">
-        <v>11.25</v>
+        <v>11.63</v>
       </c>
       <c r="D4" t="n">
-        <v>11.25</v>
+        <v>11.63</v>
       </c>
       <c r="E4" t="n">
-        <v>11.25</v>
+        <v>11.63</v>
       </c>
       <c r="F4" t="n">
-        <v>1507.5656</v>
+        <v>43</v>
       </c>
       <c r="G4" t="n">
-        <v>-2995335.206853744</v>
+        <v>-1837486.6433</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.5</v>
+        <v>11.67</v>
       </c>
       <c r="C5" t="n">
-        <v>11.5</v>
+        <v>11.67</v>
       </c>
       <c r="D5" t="n">
-        <v>11.5</v>
+        <v>11.67</v>
       </c>
       <c r="E5" t="n">
-        <v>11.5</v>
+        <v>11.67</v>
       </c>
       <c r="F5" t="n">
-        <v>44832.8131</v>
+        <v>43</v>
       </c>
       <c r="G5" t="n">
-        <v>-2950502.393753744</v>
+        <v>-1837443.6433</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.5</v>
+        <v>11.53</v>
       </c>
       <c r="C6" t="n">
-        <v>11.5</v>
+        <v>11.53</v>
       </c>
       <c r="D6" t="n">
-        <v>11.5</v>
+        <v>11.53</v>
       </c>
       <c r="E6" t="n">
-        <v>11.5</v>
+        <v>11.53</v>
       </c>
       <c r="F6" t="n">
-        <v>63930.5969</v>
+        <v>14896.7217</v>
       </c>
       <c r="G6" t="n">
-        <v>-2950502.393753744</v>
+        <v>-1852340.365</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.54</v>
+        <v>11.67</v>
       </c>
       <c r="C7" t="n">
-        <v>11.54</v>
+        <v>11.67</v>
       </c>
       <c r="D7" t="n">
-        <v>11.54</v>
+        <v>11.67</v>
       </c>
       <c r="E7" t="n">
-        <v>11.54</v>
+        <v>11.67</v>
       </c>
       <c r="F7" t="n">
-        <v>15053</v>
+        <v>43</v>
       </c>
       <c r="G7" t="n">
-        <v>-2935449.393753744</v>
+        <v>-1852297.365</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.54</v>
+        <v>11.67</v>
       </c>
       <c r="C8" t="n">
-        <v>11.54</v>
+        <v>11.67</v>
       </c>
       <c r="D8" t="n">
-        <v>11.54</v>
+        <v>11.67</v>
       </c>
       <c r="E8" t="n">
-        <v>11.54</v>
+        <v>11.67</v>
       </c>
       <c r="F8" t="n">
-        <v>7526</v>
+        <v>43</v>
       </c>
       <c r="G8" t="n">
-        <v>-2935449.393753744</v>
+        <v>-1852297.365</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.48</v>
+        <v>11.53</v>
       </c>
       <c r="C9" t="n">
-        <v>11.48</v>
+        <v>11.53</v>
       </c>
       <c r="D9" t="n">
-        <v>11.48</v>
+        <v>11.53</v>
       </c>
       <c r="E9" t="n">
-        <v>11.48</v>
+        <v>11.53</v>
       </c>
       <c r="F9" t="n">
-        <v>3763</v>
+        <v>67770</v>
       </c>
       <c r="G9" t="n">
-        <v>-2939212.393753744</v>
+        <v>-1920067.365</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.49</v>
+        <v>11.57</v>
       </c>
       <c r="C10" t="n">
-        <v>11.49</v>
+        <v>11.57</v>
       </c>
       <c r="D10" t="n">
-        <v>11.49</v>
+        <v>11.57</v>
       </c>
       <c r="E10" t="n">
-        <v>11.49</v>
+        <v>11.57</v>
       </c>
       <c r="F10" t="n">
-        <v>3764</v>
+        <v>43</v>
       </c>
       <c r="G10" t="n">
-        <v>-2935448.393753744</v>
+        <v>-1920024.365</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.58</v>
+        <v>11.55</v>
       </c>
       <c r="C11" t="n">
-        <v>11.58</v>
+        <v>11.55</v>
       </c>
       <c r="D11" t="n">
-        <v>11.58</v>
+        <v>11.57</v>
       </c>
       <c r="E11" t="n">
-        <v>11.58</v>
+        <v>11.55</v>
       </c>
       <c r="F11" t="n">
-        <v>7865.5752</v>
+        <v>20486</v>
       </c>
       <c r="G11" t="n">
-        <v>-2927582.818553744</v>
+        <v>-1940510.365</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.58</v>
+        <v>11.67</v>
       </c>
       <c r="C12" t="n">
-        <v>11.5</v>
+        <v>11.68</v>
       </c>
       <c r="D12" t="n">
-        <v>11.58</v>
+        <v>11.68</v>
       </c>
       <c r="E12" t="n">
-        <v>11.5</v>
+        <v>11.67</v>
       </c>
       <c r="F12" t="n">
-        <v>83886.8098</v>
+        <v>86</v>
       </c>
       <c r="G12" t="n">
-        <v>-3011469.628353744</v>
+        <v>-1940424.365</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.51</v>
+        <v>11.67</v>
       </c>
       <c r="C13" t="n">
-        <v>11.51</v>
+        <v>11.67</v>
       </c>
       <c r="D13" t="n">
-        <v>11.51</v>
+        <v>11.67</v>
       </c>
       <c r="E13" t="n">
-        <v>11.51</v>
+        <v>11.67</v>
       </c>
       <c r="F13" t="n">
-        <v>8012.4848</v>
+        <v>5661.853</v>
       </c>
       <c r="G13" t="n">
-        <v>-3003457.143553744</v>
+        <v>-1946086.218</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.5</v>
+        <v>11.68</v>
       </c>
       <c r="C14" t="n">
-        <v>11.5</v>
+        <v>11.71</v>
       </c>
       <c r="D14" t="n">
-        <v>11.5</v>
+        <v>11.71</v>
       </c>
       <c r="E14" t="n">
-        <v>11.5</v>
+        <v>11.68</v>
       </c>
       <c r="F14" t="n">
-        <v>49091.678</v>
+        <v>10910.825</v>
       </c>
       <c r="G14" t="n">
-        <v>-3052548.821553743</v>
+        <v>-1935175.393</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.5</v>
+        <v>11.72</v>
       </c>
       <c r="C15" t="n">
-        <v>11.5</v>
+        <v>11.72</v>
       </c>
       <c r="D15" t="n">
-        <v>11.5</v>
+        <v>11.72</v>
       </c>
       <c r="E15" t="n">
-        <v>11.5</v>
+        <v>11.72</v>
       </c>
       <c r="F15" t="n">
-        <v>26782.6471</v>
+        <v>31013.5649</v>
       </c>
       <c r="G15" t="n">
-        <v>-3052548.821553743</v>
+        <v>-1904161.8281</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.66</v>
+        <v>11.68</v>
       </c>
       <c r="C16" t="n">
-        <v>11.67</v>
+        <v>11.68</v>
       </c>
       <c r="D16" t="n">
-        <v>11.67</v>
+        <v>11.68</v>
       </c>
       <c r="E16" t="n">
-        <v>11.66</v>
+        <v>11.68</v>
       </c>
       <c r="F16" t="n">
-        <v>37859.8057</v>
+        <v>38958.6922</v>
       </c>
       <c r="G16" t="n">
-        <v>-3014689.015853744</v>
+        <v>-1943120.5203</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.64</v>
+        <v>11.78</v>
       </c>
       <c r="C17" t="n">
-        <v>11.61</v>
+        <v>11.78</v>
       </c>
       <c r="D17" t="n">
-        <v>11.64</v>
+        <v>11.78</v>
       </c>
       <c r="E17" t="n">
-        <v>11.61</v>
+        <v>11.78</v>
       </c>
       <c r="F17" t="n">
-        <v>28587.865</v>
+        <v>43</v>
       </c>
       <c r="G17" t="n">
-        <v>-3043276.880853744</v>
+        <v>-1943077.5203</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.61</v>
+        <v>11.68</v>
       </c>
       <c r="C18" t="n">
-        <v>11.61</v>
+        <v>11.68</v>
       </c>
       <c r="D18" t="n">
-        <v>11.61</v>
+        <v>11.68</v>
       </c>
       <c r="E18" t="n">
-        <v>11.61</v>
+        <v>11.68</v>
       </c>
       <c r="F18" t="n">
-        <v>4358.8697</v>
+        <v>1006.8593</v>
       </c>
       <c r="G18" t="n">
-        <v>-3043276.880853744</v>
+        <v>-1944084.3796</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.61</v>
+        <v>11.68</v>
       </c>
       <c r="C19" t="n">
-        <v>11.61</v>
+        <v>11.68</v>
       </c>
       <c r="D19" t="n">
-        <v>11.61</v>
+        <v>11.68</v>
       </c>
       <c r="E19" t="n">
-        <v>11.61</v>
+        <v>11.68</v>
       </c>
       <c r="F19" t="n">
-        <v>5642.2768</v>
+        <v>3976</v>
       </c>
       <c r="G19" t="n">
-        <v>-3043276.880853744</v>
+        <v>-1944084.3796</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.75</v>
+        <v>11.65</v>
       </c>
       <c r="C20" t="n">
-        <v>11.75</v>
+        <v>11.55</v>
       </c>
       <c r="D20" t="n">
-        <v>11.75</v>
+        <v>11.65</v>
       </c>
       <c r="E20" t="n">
-        <v>11.75</v>
+        <v>11.55</v>
       </c>
       <c r="F20" t="n">
-        <v>3488.6168</v>
+        <v>40106.9762</v>
       </c>
       <c r="G20" t="n">
-        <v>-3039788.264053744</v>
+        <v>-1984191.3558</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.75</v>
+        <v>11.55</v>
       </c>
       <c r="C21" t="n">
-        <v>11.72</v>
+        <v>11.55</v>
       </c>
       <c r="D21" t="n">
-        <v>11.75</v>
+        <v>11.55</v>
       </c>
       <c r="E21" t="n">
-        <v>11.72</v>
+        <v>11.55</v>
       </c>
       <c r="F21" t="n">
-        <v>6278.7551</v>
+        <v>46011.4834</v>
       </c>
       <c r="G21" t="n">
-        <v>-3046067.019153744</v>
+        <v>-1984191.3558</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.62</v>
+        <v>11.55</v>
       </c>
       <c r="C22" t="n">
-        <v>11.62</v>
+        <v>11.55</v>
       </c>
       <c r="D22" t="n">
-        <v>11.62</v>
+        <v>11.55</v>
       </c>
       <c r="E22" t="n">
-        <v>11.62</v>
+        <v>11.55</v>
       </c>
       <c r="F22" t="n">
-        <v>8869.616599999999</v>
+        <v>55409.5404</v>
       </c>
       <c r="G22" t="n">
-        <v>-3054936.635753744</v>
+        <v>-1984191.3558</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.77</v>
+        <v>11.68</v>
       </c>
       <c r="C23" t="n">
-        <v>11.77</v>
+        <v>11.68</v>
       </c>
       <c r="D23" t="n">
-        <v>11.77</v>
+        <v>11.68</v>
       </c>
       <c r="E23" t="n">
-        <v>11.77</v>
+        <v>11.68</v>
       </c>
       <c r="F23" t="n">
-        <v>1000</v>
+        <v>7952</v>
       </c>
       <c r="G23" t="n">
-        <v>-3053936.635753744</v>
+        <v>-1976239.3558</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.82</v>
+        <v>11.68</v>
       </c>
       <c r="C24" t="n">
-        <v>11.82</v>
+        <v>11.33</v>
       </c>
       <c r="D24" t="n">
-        <v>11.82</v>
+        <v>11.68</v>
       </c>
       <c r="E24" t="n">
-        <v>11.82</v>
+        <v>11.33</v>
       </c>
       <c r="F24" t="n">
-        <v>43</v>
+        <v>62019.277</v>
       </c>
       <c r="G24" t="n">
-        <v>-3053893.635753744</v>
+        <v>-2038258.6328</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.81</v>
+        <v>11.67</v>
       </c>
       <c r="C25" t="n">
-        <v>11.88</v>
+        <v>11.67</v>
       </c>
       <c r="D25" t="n">
-        <v>11.88</v>
+        <v>11.67</v>
       </c>
       <c r="E25" t="n">
-        <v>11.81</v>
+        <v>11.67</v>
       </c>
       <c r="F25" t="n">
-        <v>87</v>
+        <v>3296.715</v>
       </c>
       <c r="G25" t="n">
-        <v>-3053806.635753744</v>
+        <v>-2034961.917799999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.8</v>
+        <v>11.67</v>
       </c>
       <c r="C26" t="n">
-        <v>11.8</v>
+        <v>11.67</v>
       </c>
       <c r="D26" t="n">
-        <v>11.8</v>
+        <v>11.67</v>
       </c>
       <c r="E26" t="n">
-        <v>11.8</v>
+        <v>11.67</v>
       </c>
       <c r="F26" t="n">
-        <v>10299.9659</v>
+        <v>31802.075</v>
       </c>
       <c r="G26" t="n">
-        <v>-3064106.601653744</v>
+        <v>-2034961.917799999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.8</v>
+        <v>11.67</v>
       </c>
       <c r="C27" t="n">
-        <v>11.8</v>
+        <v>11.67</v>
       </c>
       <c r="D27" t="n">
-        <v>11.8</v>
+        <v>11.67</v>
       </c>
       <c r="E27" t="n">
-        <v>11.8</v>
+        <v>11.67</v>
       </c>
       <c r="F27" t="n">
-        <v>11876.8285</v>
+        <v>1001.0275</v>
       </c>
       <c r="G27" t="n">
-        <v>-3064106.601653744</v>
+        <v>-2034961.917799999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.64</v>
+        <v>11.69</v>
       </c>
       <c r="C28" t="n">
-        <v>11.64</v>
+        <v>11.69</v>
       </c>
       <c r="D28" t="n">
-        <v>11.64</v>
+        <v>11.69</v>
       </c>
       <c r="E28" t="n">
-        <v>11.64</v>
+        <v>11.69</v>
       </c>
       <c r="F28" t="n">
-        <v>4565.37</v>
+        <v>2000</v>
       </c>
       <c r="G28" t="n">
-        <v>-3068671.971653744</v>
+        <v>-2032961.917799999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.64</v>
+        <v>11.69</v>
       </c>
       <c r="C29" t="n">
-        <v>11.64</v>
+        <v>12.13</v>
       </c>
       <c r="D29" t="n">
-        <v>11.64</v>
+        <v>12.13</v>
       </c>
       <c r="E29" t="n">
-        <v>11.64</v>
+        <v>11.69</v>
       </c>
       <c r="F29" t="n">
-        <v>12064.7466</v>
+        <v>83959.20432184666</v>
       </c>
       <c r="G29" t="n">
-        <v>-3068671.971653744</v>
+        <v>-1949002.713478153</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.67</v>
+        <v>11.95</v>
       </c>
       <c r="C30" t="n">
-        <v>11.66</v>
+        <v>11.95</v>
       </c>
       <c r="D30" t="n">
-        <v>11.67</v>
+        <v>11.95</v>
       </c>
       <c r="E30" t="n">
-        <v>11.66</v>
+        <v>11.95</v>
       </c>
       <c r="F30" t="n">
-        <v>65467.9187</v>
+        <v>2000</v>
       </c>
       <c r="G30" t="n">
-        <v>-3003204.052953744</v>
+        <v>-1951002.713478153</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.81</v>
+        <v>12.03</v>
       </c>
       <c r="C31" t="n">
-        <v>11.81</v>
+        <v>12.03</v>
       </c>
       <c r="D31" t="n">
-        <v>11.81</v>
+        <v>12.03</v>
       </c>
       <c r="E31" t="n">
-        <v>11.81</v>
+        <v>12.03</v>
       </c>
       <c r="F31" t="n">
-        <v>21.7392</v>
+        <v>42</v>
       </c>
       <c r="G31" t="n">
-        <v>-3003182.313753744</v>
+        <v>-1950960.713478153</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.7</v>
+        <v>12.13</v>
       </c>
       <c r="C32" t="n">
-        <v>11.66</v>
+        <v>12.13</v>
       </c>
       <c r="D32" t="n">
-        <v>11.7</v>
+        <v>12.13</v>
       </c>
       <c r="E32" t="n">
-        <v>11.66</v>
+        <v>12.13</v>
       </c>
       <c r="F32" t="n">
-        <v>50365.6715</v>
+        <v>43</v>
       </c>
       <c r="G32" t="n">
-        <v>-3053547.985253744</v>
+        <v>-1950917.713478153</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.65</v>
+        <v>11.96</v>
       </c>
       <c r="C33" t="n">
-        <v>11.65</v>
+        <v>11.85</v>
       </c>
       <c r="D33" t="n">
-        <v>11.65</v>
+        <v>11.96</v>
       </c>
       <c r="E33" t="n">
-        <v>11.65</v>
+        <v>11.85</v>
       </c>
       <c r="F33" t="n">
-        <v>3976</v>
+        <v>35285</v>
       </c>
       <c r="G33" t="n">
-        <v>-3057523.985253744</v>
+        <v>-1986202.713478153</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.81</v>
+        <v>11.85</v>
       </c>
       <c r="C34" t="n">
-        <v>11.81</v>
+        <v>11.85</v>
       </c>
       <c r="D34" t="n">
-        <v>11.81</v>
+        <v>11.85</v>
       </c>
       <c r="E34" t="n">
-        <v>11.81</v>
+        <v>11.85</v>
       </c>
       <c r="F34" t="n">
-        <v>21.5518</v>
+        <v>187</v>
       </c>
       <c r="G34" t="n">
-        <v>-3057502.433453744</v>
+        <v>-1986202.713478153</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.65</v>
+        <v>11.85</v>
       </c>
       <c r="C35" t="n">
-        <v>11.65</v>
+        <v>12.39</v>
       </c>
       <c r="D35" t="n">
-        <v>11.65</v>
+        <v>12.39</v>
       </c>
       <c r="E35" t="n">
-        <v>11.65</v>
+        <v>11.85</v>
       </c>
       <c r="F35" t="n">
-        <v>7696.748</v>
+        <v>12028.84157815334</v>
       </c>
       <c r="G35" t="n">
-        <v>-3065199.181453744</v>
+        <v>-1974173.871899999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,28 +1662,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.65</v>
+        <v>12.29</v>
       </c>
       <c r="C36" t="n">
-        <v>11.65</v>
+        <v>12.29</v>
       </c>
       <c r="D36" t="n">
-        <v>11.65</v>
+        <v>12.29</v>
       </c>
       <c r="E36" t="n">
-        <v>11.65</v>
+        <v>12.29</v>
       </c>
       <c r="F36" t="n">
-        <v>38863.017</v>
+        <v>3210.258421846661</v>
       </c>
       <c r="G36" t="n">
-        <v>-3065199.181453744</v>
+        <v>-1977384.130321846</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.81</v>
+        <v>11.95</v>
       </c>
       <c r="C37" t="n">
-        <v>11.81</v>
+        <v>11.95</v>
       </c>
       <c r="D37" t="n">
-        <v>11.81</v>
+        <v>11.95</v>
       </c>
       <c r="E37" t="n">
-        <v>11.81</v>
+        <v>11.95</v>
       </c>
       <c r="F37" t="n">
-        <v>21.4593</v>
+        <v>14123.551</v>
       </c>
       <c r="G37" t="n">
-        <v>-3065177.722153744</v>
+        <v>-1991507.681321846</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,28 +1734,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.65</v>
+        <v>12.28</v>
       </c>
       <c r="C38" t="n">
-        <v>11.65</v>
+        <v>12.28</v>
       </c>
       <c r="D38" t="n">
-        <v>11.65</v>
+        <v>12.28</v>
       </c>
       <c r="E38" t="n">
-        <v>11.65</v>
+        <v>12.28</v>
       </c>
       <c r="F38" t="n">
-        <v>191.8925</v>
+        <v>43</v>
       </c>
       <c r="G38" t="n">
-        <v>-3065369.614653744</v>
+        <v>-1991464.681321846</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.65</v>
+        <v>11.85</v>
       </c>
       <c r="C39" t="n">
-        <v>11.64</v>
+        <v>11.85</v>
       </c>
       <c r="D39" t="n">
-        <v>11.65</v>
+        <v>11.85</v>
       </c>
       <c r="E39" t="n">
-        <v>11.64</v>
+        <v>11.85</v>
       </c>
       <c r="F39" t="n">
-        <v>39416</v>
+        <v>2666.1906</v>
       </c>
       <c r="G39" t="n">
-        <v>-3104785.614653744</v>
+        <v>-1994130.871921846</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.81</v>
+        <v>12.06</v>
       </c>
       <c r="C40" t="n">
-        <v>11.81</v>
+        <v>12.06</v>
       </c>
       <c r="D40" t="n">
-        <v>11.81</v>
+        <v>12.06</v>
       </c>
       <c r="E40" t="n">
-        <v>11.81</v>
+        <v>12.06</v>
       </c>
       <c r="F40" t="n">
-        <v>973.2497</v>
+        <v>43</v>
       </c>
       <c r="G40" t="n">
-        <v>-3103812.364953744</v>
+        <v>-1994087.871921846</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,28 +1842,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.81</v>
+        <v>12.29</v>
       </c>
       <c r="C41" t="n">
-        <v>11.81</v>
+        <v>12.29</v>
       </c>
       <c r="D41" t="n">
-        <v>11.81</v>
+        <v>12.29</v>
       </c>
       <c r="E41" t="n">
-        <v>11.81</v>
+        <v>12.29</v>
       </c>
       <c r="F41" t="n">
-        <v>4314.9206</v>
+        <v>43</v>
       </c>
       <c r="G41" t="n">
-        <v>-3103812.364953744</v>
+        <v>-1994044.871921846</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1878,28 +1878,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.64</v>
+        <v>12.06</v>
       </c>
       <c r="C42" t="n">
-        <v>11.6</v>
+        <v>12.07</v>
       </c>
       <c r="D42" t="n">
-        <v>11.64</v>
+        <v>12.07</v>
       </c>
       <c r="E42" t="n">
-        <v>11.6</v>
+        <v>12.06</v>
       </c>
       <c r="F42" t="n">
-        <v>250498.0665</v>
+        <v>83355.9506</v>
       </c>
       <c r="G42" t="n">
-        <v>-3354310.431453744</v>
+        <v>-2077400.822521846</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1914,28 +1914,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.72</v>
+        <v>12.29</v>
       </c>
       <c r="C43" t="n">
-        <v>11.95</v>
+        <v>12.29</v>
       </c>
       <c r="D43" t="n">
-        <v>11.95</v>
+        <v>12.29</v>
       </c>
       <c r="E43" t="n">
-        <v>11.72</v>
+        <v>12.29</v>
       </c>
       <c r="F43" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="G43" t="n">
-        <v>-3354224.431453744</v>
+        <v>-2077357.822521846</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1950,28 +1950,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.77</v>
+        <v>12.07</v>
       </c>
       <c r="C44" t="n">
-        <v>11.77</v>
+        <v>11.84</v>
       </c>
       <c r="D44" t="n">
-        <v>11.77</v>
+        <v>12.07</v>
       </c>
       <c r="E44" t="n">
-        <v>11.77</v>
+        <v>11.54</v>
       </c>
       <c r="F44" t="n">
-        <v>4248.0884</v>
+        <v>95209.92083189727</v>
       </c>
       <c r="G44" t="n">
-        <v>-3358472.519853744</v>
+        <v>-2172567.743353744</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.73</v>
+        <v>12.18</v>
       </c>
       <c r="C45" t="n">
-        <v>11.6</v>
+        <v>12.18</v>
       </c>
       <c r="D45" t="n">
-        <v>11.73</v>
+        <v>12.18</v>
       </c>
       <c r="E45" t="n">
-        <v>11.6</v>
+        <v>12.18</v>
       </c>
       <c r="F45" t="n">
-        <v>148969.7505</v>
+        <v>41</v>
       </c>
       <c r="G45" t="n">
-        <v>-3507442.270353744</v>
+        <v>-2172526.743353744</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,28 +2022,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.6</v>
+        <v>11.81</v>
       </c>
       <c r="C46" t="n">
-        <v>11.6</v>
+        <v>12.01</v>
       </c>
       <c r="D46" t="n">
-        <v>11.6</v>
+        <v>12.06</v>
       </c>
       <c r="E46" t="n">
-        <v>11.6</v>
+        <v>11.81</v>
       </c>
       <c r="F46" t="n">
-        <v>17137.9605</v>
+        <v>167.8053</v>
       </c>
       <c r="G46" t="n">
-        <v>-3507442.270353744</v>
+        <v>-2172694.548653744</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.64</v>
+        <v>12.13</v>
       </c>
       <c r="C47" t="n">
-        <v>11.64</v>
+        <v>12.04</v>
       </c>
       <c r="D47" t="n">
-        <v>11.64</v>
+        <v>12.13</v>
       </c>
       <c r="E47" t="n">
-        <v>11.64</v>
+        <v>11.96</v>
       </c>
       <c r="F47" t="n">
-        <v>263.8316151202749</v>
+        <v>168</v>
       </c>
       <c r="G47" t="n">
-        <v>-3507178.438738624</v>
+        <v>-2172526.548653744</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.6</v>
+        <v>12.15</v>
       </c>
       <c r="C48" t="n">
-        <v>11.6</v>
+        <v>11.64</v>
       </c>
       <c r="D48" t="n">
-        <v>11.6</v>
+        <v>12.15</v>
       </c>
       <c r="E48" t="n">
-        <v>11.6</v>
+        <v>11.64</v>
       </c>
       <c r="F48" t="n">
-        <v>86488.38860000001</v>
+        <v>54502.7239</v>
       </c>
       <c r="G48" t="n">
-        <v>-3593666.827338624</v>
+        <v>-2227029.272553744</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.6</v>
+        <v>12.24</v>
       </c>
       <c r="C49" t="n">
-        <v>11.6</v>
+        <v>12.14</v>
       </c>
       <c r="D49" t="n">
-        <v>11.6</v>
+        <v>12.24</v>
       </c>
       <c r="E49" t="n">
-        <v>11.6</v>
+        <v>11.54</v>
       </c>
       <c r="F49" t="n">
-        <v>82455</v>
+        <v>22094.9717</v>
       </c>
       <c r="G49" t="n">
-        <v>-3593666.827338624</v>
+        <v>-2204934.300853744</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.6</v>
+        <v>12.01</v>
       </c>
       <c r="C50" t="n">
-        <v>11.6</v>
+        <v>12.27</v>
       </c>
       <c r="D50" t="n">
-        <v>11.6</v>
+        <v>12.27</v>
       </c>
       <c r="E50" t="n">
-        <v>11.6</v>
+        <v>12.01</v>
       </c>
       <c r="F50" t="n">
-        <v>197699.8499</v>
+        <v>168</v>
       </c>
       <c r="G50" t="n">
-        <v>-3593666.827338624</v>
+        <v>-2204766.300853744</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.53</v>
+        <v>11.8</v>
       </c>
       <c r="C51" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="D51" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="E51" t="n">
-        <v>11.53</v>
+        <v>11.8</v>
       </c>
       <c r="F51" t="n">
-        <v>13000.3426</v>
+        <v>4302</v>
       </c>
       <c r="G51" t="n">
-        <v>-3593666.827338624</v>
+        <v>-2209068.300853744</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.61</v>
+        <v>12.13</v>
       </c>
       <c r="C52" t="n">
-        <v>11.61</v>
+        <v>12.16</v>
       </c>
       <c r="D52" t="n">
-        <v>11.61</v>
+        <v>12.16</v>
       </c>
       <c r="E52" t="n">
-        <v>11.61</v>
+        <v>12</v>
       </c>
       <c r="F52" t="n">
-        <v>17194.2302</v>
+        <v>169</v>
       </c>
       <c r="G52" t="n">
-        <v>-3576472.597138624</v>
+        <v>-2208899.300853744</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.67</v>
+        <v>12.23</v>
       </c>
       <c r="C53" t="n">
-        <v>11.67</v>
+        <v>12.15</v>
       </c>
       <c r="D53" t="n">
-        <v>11.67</v>
+        <v>12.23</v>
       </c>
       <c r="E53" t="n">
-        <v>11.67</v>
+        <v>12.15</v>
       </c>
       <c r="F53" t="n">
-        <v>279.0737</v>
+        <v>84</v>
       </c>
       <c r="G53" t="n">
-        <v>-3576193.523438624</v>
+        <v>-2208983.300853744</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.73</v>
+        <v>12.08</v>
       </c>
       <c r="C54" t="n">
-        <v>11.73</v>
+        <v>12.14</v>
       </c>
       <c r="D54" t="n">
-        <v>11.73</v>
+        <v>12.14</v>
       </c>
       <c r="E54" t="n">
-        <v>11.73</v>
+        <v>12.07</v>
       </c>
       <c r="F54" t="n">
-        <v>582.5234441602728</v>
+        <v>126</v>
       </c>
       <c r="G54" t="n">
-        <v>-3575610.999994464</v>
+        <v>-2209109.300853744</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.66</v>
+        <v>12.09</v>
       </c>
       <c r="C55" t="n">
-        <v>11.66</v>
+        <v>12.15</v>
       </c>
       <c r="D55" t="n">
-        <v>11.66</v>
+        <v>12.15</v>
       </c>
       <c r="E55" t="n">
-        <v>11.66</v>
+        <v>12.07</v>
       </c>
       <c r="F55" t="n">
-        <v>50730</v>
+        <v>168</v>
       </c>
       <c r="G55" t="n">
-        <v>-3626340.999994464</v>
+        <v>-2208941.300853744</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.61</v>
+        <v>12.05</v>
       </c>
       <c r="C56" t="n">
-        <v>11.61</v>
+        <v>12.03</v>
       </c>
       <c r="D56" t="n">
-        <v>11.61</v>
+        <v>12.05</v>
       </c>
       <c r="E56" t="n">
-        <v>11.61</v>
+        <v>12.03</v>
       </c>
       <c r="F56" t="n">
-        <v>202138.8608</v>
+        <v>84</v>
       </c>
       <c r="G56" t="n">
-        <v>-3828479.860794464</v>
+        <v>-2209025.300853744</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.61</v>
+        <v>12.19</v>
       </c>
       <c r="C57" t="n">
-        <v>11.61</v>
+        <v>12.12</v>
       </c>
       <c r="D57" t="n">
-        <v>11.61</v>
+        <v>12.19</v>
       </c>
       <c r="E57" t="n">
-        <v>11.61</v>
+        <v>12.12</v>
       </c>
       <c r="F57" t="n">
-        <v>4891.6686</v>
+        <v>84</v>
       </c>
       <c r="G57" t="n">
-        <v>-3828479.860794464</v>
+        <v>-2208941.300853744</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.61</v>
+        <v>12.26</v>
       </c>
       <c r="C58" t="n">
-        <v>11.53</v>
+        <v>12.26</v>
       </c>
       <c r="D58" t="n">
-        <v>11.61</v>
+        <v>12.26</v>
       </c>
       <c r="E58" t="n">
-        <v>11.53</v>
+        <v>12.26</v>
       </c>
       <c r="F58" t="n">
-        <v>71892.92630000001</v>
+        <v>42</v>
       </c>
       <c r="G58" t="n">
-        <v>-3900372.787094464</v>
+        <v>-2208899.300853744</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.53</v>
+        <v>11.54</v>
       </c>
       <c r="C59" t="n">
         <v>11.53</v>
       </c>
       <c r="D59" t="n">
-        <v>11.53</v>
+        <v>11.54</v>
       </c>
       <c r="E59" t="n">
         <v>11.53</v>
       </c>
       <c r="F59" t="n">
-        <v>10693.3269</v>
+        <v>8712.8174</v>
       </c>
       <c r="G59" t="n">
-        <v>-3900372.787094464</v>
+        <v>-2217612.118253744</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.52</v>
+        <v>12.11</v>
       </c>
       <c r="C60" t="n">
-        <v>11.5</v>
+        <v>12.1</v>
       </c>
       <c r="D60" t="n">
-        <v>11.52</v>
+        <v>12.11</v>
       </c>
       <c r="E60" t="n">
-        <v>11.5</v>
+        <v>11.89</v>
       </c>
       <c r="F60" t="n">
-        <v>88626</v>
+        <v>130</v>
       </c>
       <c r="G60" t="n">
-        <v>-3988998.787094464</v>
+        <v>-2217482.118253744</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.48</v>
+        <v>11.54</v>
       </c>
       <c r="C61" t="n">
-        <v>11.48</v>
+        <v>11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>11.48</v>
+        <v>11.89</v>
       </c>
       <c r="E61" t="n">
-        <v>11.48</v>
+        <v>11.53</v>
       </c>
       <c r="F61" t="n">
-        <v>2583.3934</v>
+        <v>42764.0228</v>
       </c>
       <c r="G61" t="n">
-        <v>-3991582.180494464</v>
+        <v>-2260246.141053744</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.38</v>
+        <v>11.51</v>
       </c>
       <c r="C62" t="n">
-        <v>11.38</v>
+        <v>11.51</v>
       </c>
       <c r="D62" t="n">
-        <v>11.38</v>
+        <v>11.51</v>
       </c>
       <c r="E62" t="n">
-        <v>11.38</v>
+        <v>11.51</v>
       </c>
       <c r="F62" t="n">
-        <v>382.2504</v>
+        <v>12802.9052</v>
       </c>
       <c r="G62" t="n">
-        <v>-3991964.430894463</v>
+        <v>-2273049.046253744</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.45</v>
+        <v>11.51</v>
       </c>
       <c r="C63" t="n">
-        <v>11.45</v>
+        <v>11.51</v>
       </c>
       <c r="D63" t="n">
-        <v>11.45</v>
+        <v>11.51</v>
       </c>
       <c r="E63" t="n">
-        <v>11.45</v>
+        <v>11.51</v>
       </c>
       <c r="F63" t="n">
-        <v>66286.81299999999</v>
+        <v>23705.2272</v>
       </c>
       <c r="G63" t="n">
-        <v>-3925677.617894463</v>
+        <v>-2273049.046253744</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.45</v>
+        <v>11.93</v>
       </c>
       <c r="C64" t="n">
-        <v>11.45</v>
+        <v>11.93</v>
       </c>
       <c r="D64" t="n">
-        <v>11.45</v>
+        <v>11.93</v>
       </c>
       <c r="E64" t="n">
-        <v>11.45</v>
+        <v>11.93</v>
       </c>
       <c r="F64" t="n">
-        <v>174.9965</v>
+        <v>18914.8864</v>
       </c>
       <c r="G64" t="n">
-        <v>-3925677.617894463</v>
+        <v>-2254134.159853743</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.45</v>
+        <v>11.94</v>
       </c>
       <c r="C65" t="n">
-        <v>11.45</v>
+        <v>11.23</v>
       </c>
       <c r="D65" t="n">
-        <v>11.45</v>
+        <v>11.94</v>
       </c>
       <c r="E65" t="n">
-        <v>11.45</v>
+        <v>11.23</v>
       </c>
       <c r="F65" t="n">
-        <v>6288.0484</v>
+        <v>344678.2548</v>
       </c>
       <c r="G65" t="n">
-        <v>-3925677.617894463</v>
+        <v>-2598812.414653744</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.39</v>
+        <v>11.5</v>
       </c>
       <c r="C66" t="n">
-        <v>11.38</v>
+        <v>11.5</v>
       </c>
       <c r="D66" t="n">
-        <v>11.39</v>
+        <v>11.5</v>
       </c>
       <c r="E66" t="n">
-        <v>11.38</v>
+        <v>11.5</v>
       </c>
       <c r="F66" t="n">
-        <v>10934.4575</v>
+        <v>1300</v>
       </c>
       <c r="G66" t="n">
-        <v>-3936612.075394463</v>
+        <v>-2597512.414653744</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.43</v>
+        <v>11.51</v>
       </c>
       <c r="C67" t="n">
-        <v>11.53</v>
+        <v>11.51</v>
       </c>
       <c r="D67" t="n">
-        <v>11.53</v>
+        <v>11.51</v>
       </c>
       <c r="E67" t="n">
-        <v>11.43</v>
+        <v>11.51</v>
       </c>
       <c r="F67" t="n">
-        <v>174836.471</v>
+        <v>6459.6004</v>
       </c>
       <c r="G67" t="n">
-        <v>-3761775.604394463</v>
+        <v>-2591052.814253744</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.57</v>
+        <v>11.5</v>
       </c>
       <c r="C68" t="n">
-        <v>11.67</v>
+        <v>11.5</v>
       </c>
       <c r="D68" t="n">
-        <v>11.67</v>
+        <v>11.5</v>
       </c>
       <c r="E68" t="n">
-        <v>11.57</v>
+        <v>11.5</v>
       </c>
       <c r="F68" t="n">
-        <v>45271.8734</v>
+        <v>3646.6429</v>
       </c>
       <c r="G68" t="n">
-        <v>-3716503.730994463</v>
+        <v>-2594699.457153744</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.67</v>
+        <v>11.33</v>
       </c>
       <c r="C69" t="n">
-        <v>11.67</v>
+        <v>11.24</v>
       </c>
       <c r="D69" t="n">
-        <v>11.67</v>
+        <v>11.33</v>
       </c>
       <c r="E69" t="n">
-        <v>11.67</v>
+        <v>11.24</v>
       </c>
       <c r="F69" t="n">
-        <v>253.8204</v>
+        <v>79426.52559999999</v>
       </c>
       <c r="G69" t="n">
-        <v>-3716503.730994463</v>
+        <v>-2674125.982753743</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.48</v>
+        <v>11.25</v>
       </c>
       <c r="C70" t="n">
-        <v>11.48</v>
+        <v>11.24</v>
       </c>
       <c r="D70" t="n">
-        <v>11.48</v>
+        <v>11.25</v>
       </c>
       <c r="E70" t="n">
-        <v>11.48</v>
+        <v>11.24</v>
       </c>
       <c r="F70" t="n">
-        <v>100</v>
+        <v>32549.2214</v>
       </c>
       <c r="G70" t="n">
-        <v>-3716603.730994463</v>
+        <v>-2674125.982753743</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.66</v>
+        <v>11.35</v>
       </c>
       <c r="C71" t="n">
-        <v>11.66</v>
+        <v>11.35</v>
       </c>
       <c r="D71" t="n">
-        <v>11.66</v>
+        <v>11.35</v>
       </c>
       <c r="E71" t="n">
-        <v>11.66</v>
+        <v>11.35</v>
       </c>
       <c r="F71" t="n">
-        <v>44</v>
+        <v>27226</v>
       </c>
       <c r="G71" t="n">
-        <v>-3716559.730994463</v>
+        <v>-2646899.982753743</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.66</v>
+        <v>11.49</v>
       </c>
       <c r="C72" t="n">
-        <v>11.69</v>
+        <v>11.49</v>
       </c>
       <c r="D72" t="n">
-        <v>11.69</v>
+        <v>11.49</v>
       </c>
       <c r="E72" t="n">
-        <v>11.66</v>
+        <v>11.49</v>
       </c>
       <c r="F72" t="n">
-        <v>230272.215</v>
+        <v>30000</v>
       </c>
       <c r="G72" t="n">
-        <v>-3486287.515994464</v>
+        <v>-2616899.982753743</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.69</v>
+        <v>11.45</v>
       </c>
       <c r="C73" t="n">
-        <v>11.69</v>
+        <v>11.45</v>
       </c>
       <c r="D73" t="n">
-        <v>11.69</v>
+        <v>11.45</v>
       </c>
       <c r="E73" t="n">
-        <v>11.69</v>
+        <v>11.45</v>
       </c>
       <c r="F73" t="n">
-        <v>5473.4805</v>
+        <v>29452.5868</v>
       </c>
       <c r="G73" t="n">
-        <v>-3486287.515994464</v>
+        <v>-2646352.569553744</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.69</v>
+        <v>11.34</v>
       </c>
       <c r="C74" t="n">
-        <v>12.06</v>
+        <v>11.25</v>
       </c>
       <c r="D74" t="n">
-        <v>12.06</v>
+        <v>11.34</v>
       </c>
       <c r="E74" t="n">
-        <v>11.69</v>
+        <v>11.25</v>
       </c>
       <c r="F74" t="n">
-        <v>15500</v>
+        <v>348982.6373</v>
       </c>
       <c r="G74" t="n">
-        <v>-3470787.515994464</v>
+        <v>-2995335.206853744</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.95</v>
+        <v>11.25</v>
       </c>
       <c r="C75" t="n">
-        <v>12.05</v>
+        <v>11.25</v>
       </c>
       <c r="D75" t="n">
-        <v>12.05</v>
+        <v>11.25</v>
       </c>
       <c r="E75" t="n">
-        <v>11.95</v>
+        <v>11.25</v>
       </c>
       <c r="F75" t="n">
-        <v>11364.49</v>
+        <v>1507.5656</v>
       </c>
       <c r="G75" t="n">
-        <v>-3482152.005994464</v>
+        <v>-2995335.206853744</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="C76" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="D76" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="E76" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="F76" t="n">
-        <v>5000</v>
+        <v>44832.8131</v>
       </c>
       <c r="G76" t="n">
-        <v>-3487152.005994464</v>
+        <v>-2950502.393753744</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,28 +3138,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.95</v>
+        <v>11.5</v>
       </c>
       <c r="C77" t="n">
-        <v>11.95</v>
+        <v>11.5</v>
       </c>
       <c r="D77" t="n">
-        <v>11.95</v>
+        <v>11.5</v>
       </c>
       <c r="E77" t="n">
-        <v>11.95</v>
+        <v>11.5</v>
       </c>
       <c r="F77" t="n">
-        <v>5485.263</v>
+        <v>63930.5969</v>
       </c>
       <c r="G77" t="n">
-        <v>-3492637.268994464</v>
+        <v>-2950502.393753744</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3174,28 +3174,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.63</v>
+        <v>11.54</v>
       </c>
       <c r="C78" t="n">
-        <v>11.63</v>
+        <v>11.54</v>
       </c>
       <c r="D78" t="n">
-        <v>11.63</v>
+        <v>11.54</v>
       </c>
       <c r="E78" t="n">
-        <v>11.63</v>
+        <v>11.54</v>
       </c>
       <c r="F78" t="n">
-        <v>43</v>
+        <v>15053</v>
       </c>
       <c r="G78" t="n">
-        <v>-3492680.268994464</v>
+        <v>-2935449.393753744</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3210,28 +3210,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.95</v>
+        <v>11.54</v>
       </c>
       <c r="C79" t="n">
-        <v>11.95</v>
+        <v>11.54</v>
       </c>
       <c r="D79" t="n">
-        <v>11.95</v>
+        <v>11.54</v>
       </c>
       <c r="E79" t="n">
-        <v>11.95</v>
+        <v>11.54</v>
       </c>
       <c r="F79" t="n">
-        <v>42</v>
+        <v>7526</v>
       </c>
       <c r="G79" t="n">
-        <v>-3492638.268994464</v>
+        <v>-2935449.393753744</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3246,28 +3246,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.65</v>
+        <v>11.48</v>
       </c>
       <c r="C80" t="n">
-        <v>11.83</v>
+        <v>11.48</v>
       </c>
       <c r="D80" t="n">
-        <v>11.83</v>
+        <v>11.48</v>
       </c>
       <c r="E80" t="n">
-        <v>11.65</v>
+        <v>11.48</v>
       </c>
       <c r="F80" t="n">
-        <v>8516.9318</v>
+        <v>3763</v>
       </c>
       <c r="G80" t="n">
-        <v>-3501155.200794464</v>
+        <v>-2939212.393753744</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.66</v>
+        <v>11.49</v>
       </c>
       <c r="C81" t="n">
-        <v>11.66</v>
+        <v>11.49</v>
       </c>
       <c r="D81" t="n">
-        <v>11.66</v>
+        <v>11.49</v>
       </c>
       <c r="E81" t="n">
-        <v>11.66</v>
+        <v>11.49</v>
       </c>
       <c r="F81" t="n">
-        <v>6470.169</v>
+        <v>3764</v>
       </c>
       <c r="G81" t="n">
-        <v>-3507625.369794464</v>
+        <v>-2935448.393753744</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.66</v>
+        <v>11.58</v>
       </c>
       <c r="C82" t="n">
-        <v>11.83</v>
+        <v>11.58</v>
       </c>
       <c r="D82" t="n">
-        <v>11.83</v>
+        <v>11.58</v>
       </c>
       <c r="E82" t="n">
-        <v>11.66</v>
+        <v>11.58</v>
       </c>
       <c r="F82" t="n">
-        <v>45</v>
+        <v>7865.5752</v>
       </c>
       <c r="G82" t="n">
-        <v>-3507580.369794464</v>
+        <v>-2927582.818553744</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.64</v>
+        <v>11.58</v>
       </c>
       <c r="C83" t="n">
-        <v>11.63</v>
+        <v>11.5</v>
       </c>
       <c r="D83" t="n">
-        <v>11.64</v>
+        <v>11.58</v>
       </c>
       <c r="E83" t="n">
-        <v>11.63</v>
+        <v>11.5</v>
       </c>
       <c r="F83" t="n">
-        <v>55108.1576</v>
+        <v>83886.8098</v>
       </c>
       <c r="G83" t="n">
-        <v>-3562688.527394464</v>
+        <v>-3011469.628353744</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.63</v>
+        <v>11.51</v>
       </c>
       <c r="C84" t="n">
-        <v>11.63</v>
+        <v>11.51</v>
       </c>
       <c r="D84" t="n">
-        <v>11.63</v>
+        <v>11.51</v>
       </c>
       <c r="E84" t="n">
-        <v>11.63</v>
+        <v>11.51</v>
       </c>
       <c r="F84" t="n">
-        <v>1756.4455</v>
+        <v>8012.4848</v>
       </c>
       <c r="G84" t="n">
-        <v>-3562688.527394464</v>
+        <v>-3003457.143553744</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="C85" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="D85" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="E85" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="F85" t="n">
-        <v>88</v>
+        <v>49091.678</v>
       </c>
       <c r="G85" t="n">
-        <v>-3562600.527394464</v>
+        <v>-3052548.821553743</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.74</v>
+        <v>11.5</v>
       </c>
       <c r="C86" t="n">
-        <v>11.85</v>
+        <v>11.5</v>
       </c>
       <c r="D86" t="n">
-        <v>11.85</v>
+        <v>11.5</v>
       </c>
       <c r="E86" t="n">
-        <v>11.74</v>
+        <v>11.5</v>
       </c>
       <c r="F86" t="n">
-        <v>88</v>
+        <v>26782.6471</v>
       </c>
       <c r="G86" t="n">
-        <v>-3562512.527394464</v>
+        <v>-3052548.821553743</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.61</v>
+        <v>11.66</v>
       </c>
       <c r="C87" t="n">
-        <v>11.61</v>
+        <v>11.67</v>
       </c>
       <c r="D87" t="n">
-        <v>11.61</v>
+        <v>11.67</v>
       </c>
       <c r="E87" t="n">
-        <v>11.61</v>
+        <v>11.66</v>
       </c>
       <c r="F87" t="n">
-        <v>191787.7247</v>
+        <v>37859.8057</v>
       </c>
       <c r="G87" t="n">
-        <v>-3754300.252094464</v>
+        <v>-3014689.015853744</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="C88" t="n">
         <v>11.61</v>
       </c>
-      <c r="C88" t="n">
-        <v>11.51</v>
-      </c>
       <c r="D88" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="E88" t="n">
         <v>11.61</v>
       </c>
-      <c r="E88" t="n">
-        <v>11.51</v>
-      </c>
       <c r="F88" t="n">
-        <v>101528.7913</v>
+        <v>28587.865</v>
       </c>
       <c r="G88" t="n">
-        <v>-3855829.043394464</v>
+        <v>-3043276.880853744</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11.51</v>
+        <v>11.61</v>
       </c>
       <c r="C89" t="n">
-        <v>11.51</v>
+        <v>11.61</v>
       </c>
       <c r="D89" t="n">
-        <v>11.51</v>
+        <v>11.61</v>
       </c>
       <c r="E89" t="n">
-        <v>11.51</v>
+        <v>11.61</v>
       </c>
       <c r="F89" t="n">
-        <v>4307.1201</v>
+        <v>4358.8697</v>
       </c>
       <c r="G89" t="n">
-        <v>-3855829.043394464</v>
+        <v>-3043276.880853744</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11.51</v>
+        <v>11.61</v>
       </c>
       <c r="C90" t="n">
-        <v>11.51</v>
+        <v>11.61</v>
       </c>
       <c r="D90" t="n">
-        <v>11.51</v>
+        <v>11.61</v>
       </c>
       <c r="E90" t="n">
-        <v>11.51</v>
+        <v>11.61</v>
       </c>
       <c r="F90" t="n">
-        <v>29313.6387</v>
+        <v>5642.2768</v>
       </c>
       <c r="G90" t="n">
-        <v>-3855829.043394464</v>
+        <v>-3043276.880853744</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>11.9</v>
+        <v>11.75</v>
       </c>
       <c r="C91" t="n">
-        <v>11.9</v>
+        <v>11.75</v>
       </c>
       <c r="D91" t="n">
-        <v>11.9</v>
+        <v>11.75</v>
       </c>
       <c r="E91" t="n">
-        <v>11.9</v>
+        <v>11.75</v>
       </c>
       <c r="F91" t="n">
-        <v>44</v>
+        <v>3488.6168</v>
       </c>
       <c r="G91" t="n">
-        <v>-3855785.043394464</v>
+        <v>-3039788.264053744</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.79</v>
+        <v>11.75</v>
       </c>
       <c r="C92" t="n">
-        <v>11.79</v>
+        <v>11.72</v>
       </c>
       <c r="D92" t="n">
-        <v>11.79</v>
+        <v>11.75</v>
       </c>
       <c r="E92" t="n">
-        <v>11.79</v>
+        <v>11.72</v>
       </c>
       <c r="F92" t="n">
-        <v>1670.992366412214</v>
+        <v>6278.7551</v>
       </c>
       <c r="G92" t="n">
-        <v>-3857456.035760876</v>
+        <v>-3046067.019153744</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.9</v>
+        <v>11.62</v>
       </c>
       <c r="C93" t="n">
-        <v>11.9</v>
+        <v>11.62</v>
       </c>
       <c r="D93" t="n">
-        <v>11.9</v>
+        <v>11.62</v>
       </c>
       <c r="E93" t="n">
-        <v>11.9</v>
+        <v>11.62</v>
       </c>
       <c r="F93" t="n">
-        <v>43</v>
+        <v>8869.616599999999</v>
       </c>
       <c r="G93" t="n">
-        <v>-3857413.035760876</v>
+        <v>-3054936.635753744</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.52</v>
+        <v>11.77</v>
       </c>
       <c r="C94" t="n">
-        <v>11.9</v>
+        <v>11.77</v>
       </c>
       <c r="D94" t="n">
-        <v>11.9</v>
+        <v>11.77</v>
       </c>
       <c r="E94" t="n">
-        <v>11.51</v>
+        <v>11.77</v>
       </c>
       <c r="F94" t="n">
-        <v>87446.97</v>
+        <v>1000</v>
       </c>
       <c r="G94" t="n">
-        <v>-3857413.035760876</v>
+        <v>-3053936.635753744</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.55</v>
+        <v>11.82</v>
       </c>
       <c r="C95" t="n">
-        <v>11.55</v>
+        <v>11.82</v>
       </c>
       <c r="D95" t="n">
-        <v>11.55</v>
+        <v>11.82</v>
       </c>
       <c r="E95" t="n">
-        <v>11.55</v>
+        <v>11.82</v>
       </c>
       <c r="F95" t="n">
-        <v>1507.5656</v>
+        <v>43</v>
       </c>
       <c r="G95" t="n">
-        <v>-3858920.601360876</v>
+        <v>-3053893.635753744</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.78</v>
+        <v>11.81</v>
       </c>
       <c r="C96" t="n">
-        <v>11.78</v>
+        <v>11.88</v>
       </c>
       <c r="D96" t="n">
-        <v>11.78</v>
+        <v>11.88</v>
       </c>
       <c r="E96" t="n">
-        <v>11.78</v>
+        <v>11.81</v>
       </c>
       <c r="F96" t="n">
-        <v>3515.025466893039</v>
+        <v>87</v>
       </c>
       <c r="G96" t="n">
-        <v>-3855405.575893983</v>
+        <v>-3053806.635753744</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.78</v>
+        <v>11.8</v>
       </c>
       <c r="C97" t="n">
-        <v>11.78</v>
+        <v>11.8</v>
       </c>
       <c r="D97" t="n">
-        <v>11.78</v>
+        <v>11.8</v>
       </c>
       <c r="E97" t="n">
-        <v>11.78</v>
+        <v>11.8</v>
       </c>
       <c r="F97" t="n">
-        <v>2401.6342</v>
+        <v>10299.9659</v>
       </c>
       <c r="G97" t="n">
-        <v>-3855405.575893983</v>
+        <v>-3064106.601653744</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11.77</v>
+        <v>11.8</v>
       </c>
       <c r="C98" t="n">
-        <v>11.51</v>
+        <v>11.8</v>
       </c>
       <c r="D98" t="n">
-        <v>11.77</v>
+        <v>11.8</v>
       </c>
       <c r="E98" t="n">
-        <v>11.51</v>
+        <v>11.8</v>
       </c>
       <c r="F98" t="n">
-        <v>65259.46</v>
+        <v>11876.8285</v>
       </c>
       <c r="G98" t="n">
-        <v>-3920665.035893983</v>
+        <v>-3064106.601653744</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>11.51</v>
+        <v>11.64</v>
       </c>
       <c r="C99" t="n">
-        <v>11.51</v>
+        <v>11.64</v>
       </c>
       <c r="D99" t="n">
-        <v>11.51</v>
+        <v>11.64</v>
       </c>
       <c r="E99" t="n">
-        <v>11.51</v>
+        <v>11.64</v>
       </c>
       <c r="F99" t="n">
-        <v>72755</v>
+        <v>4565.37</v>
       </c>
       <c r="G99" t="n">
-        <v>-3920665.035893983</v>
+        <v>-3068671.971653744</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>11.52</v>
+        <v>11.64</v>
       </c>
       <c r="C100" t="n">
-        <v>11.51</v>
+        <v>11.64</v>
       </c>
       <c r="D100" t="n">
-        <v>11.52</v>
+        <v>11.64</v>
       </c>
       <c r="E100" t="n">
-        <v>11.51</v>
+        <v>11.64</v>
       </c>
       <c r="F100" t="n">
-        <v>77872.2668</v>
+        <v>12064.7466</v>
       </c>
       <c r="G100" t="n">
-        <v>-3920665.035893983</v>
+        <v>-3068671.971653744</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11.41</v>
+        <v>11.67</v>
       </c>
       <c r="C101" t="n">
-        <v>11.41</v>
+        <v>11.66</v>
       </c>
       <c r="D101" t="n">
-        <v>11.41</v>
+        <v>11.67</v>
       </c>
       <c r="E101" t="n">
-        <v>11.41</v>
+        <v>11.66</v>
       </c>
       <c r="F101" t="n">
-        <v>2401.6342</v>
+        <v>65467.9187</v>
       </c>
       <c r="G101" t="n">
-        <v>-3923066.670093983</v>
+        <v>-3003204.052953744</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,35 +4038,31 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11.68</v>
+        <v>11.81</v>
       </c>
       <c r="C102" t="n">
-        <v>11.68</v>
+        <v>11.81</v>
       </c>
       <c r="D102" t="n">
-        <v>11.68</v>
+        <v>11.81</v>
       </c>
       <c r="E102" t="n">
-        <v>11.68</v>
+        <v>11.81</v>
       </c>
       <c r="F102" t="n">
-        <v>44</v>
+        <v>21.7392</v>
       </c>
       <c r="G102" t="n">
-        <v>-3923022.670093983</v>
+        <v>-3003182.313753744</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="K102" t="n">
-        <v>11.41</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
@@ -4078,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>11.44</v>
+        <v>11.7</v>
       </c>
       <c r="C103" t="n">
-        <v>11.68</v>
+        <v>11.66</v>
       </c>
       <c r="D103" t="n">
-        <v>11.68</v>
+        <v>11.7</v>
       </c>
       <c r="E103" t="n">
-        <v>11.44</v>
+        <v>11.66</v>
       </c>
       <c r="F103" t="n">
-        <v>421.7747</v>
+        <v>50365.6715</v>
       </c>
       <c r="G103" t="n">
-        <v>-3923022.670093983</v>
+        <v>-3053547.985253744</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4102,14 +4098,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4120,40 +4110,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>11.68</v>
+        <v>11.65</v>
       </c>
       <c r="C104" t="n">
-        <v>11.88</v>
+        <v>11.65</v>
       </c>
       <c r="D104" t="n">
-        <v>11.88</v>
+        <v>11.65</v>
       </c>
       <c r="E104" t="n">
-        <v>11.68</v>
+        <v>11.65</v>
       </c>
       <c r="F104" t="n">
-        <v>16944.8124</v>
+        <v>3976</v>
       </c>
       <c r="G104" t="n">
-        <v>-3906077.857693983</v>
+        <v>-3057523.985253744</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="K104" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4164,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>11.67</v>
+        <v>11.81</v>
       </c>
       <c r="C105" t="n">
-        <v>11.77</v>
+        <v>11.81</v>
       </c>
       <c r="D105" t="n">
-        <v>11.77</v>
+        <v>11.81</v>
       </c>
       <c r="E105" t="n">
-        <v>11.67</v>
+        <v>11.81</v>
       </c>
       <c r="F105" t="n">
-        <v>16861.441</v>
+        <v>21.5518</v>
       </c>
       <c r="G105" t="n">
-        <v>-3922939.298693983</v>
+        <v>-3057502.433453744</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4200,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>11.67</v>
+        <v>11.65</v>
       </c>
       <c r="C106" t="n">
-        <v>11.67</v>
+        <v>11.65</v>
       </c>
       <c r="D106" t="n">
-        <v>11.67</v>
+        <v>11.65</v>
       </c>
       <c r="E106" t="n">
-        <v>11.67</v>
+        <v>11.65</v>
       </c>
       <c r="F106" t="n">
-        <v>4028</v>
+        <v>7696.748</v>
       </c>
       <c r="G106" t="n">
-        <v>-3926967.298693983</v>
+        <v>-3065199.181453744</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4236,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>11.67</v>
+        <v>11.65</v>
       </c>
       <c r="C107" t="n">
-        <v>11.54</v>
+        <v>11.65</v>
       </c>
       <c r="D107" t="n">
-        <v>11.67</v>
+        <v>11.65</v>
       </c>
       <c r="E107" t="n">
-        <v>11.54</v>
+        <v>11.65</v>
       </c>
       <c r="F107" t="n">
-        <v>30745.8067</v>
+        <v>38863.017</v>
       </c>
       <c r="G107" t="n">
-        <v>-3957713.105393983</v>
+        <v>-3065199.181453744</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4272,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>11.79</v>
+        <v>11.81</v>
       </c>
       <c r="C108" t="n">
-        <v>11.54</v>
+        <v>11.81</v>
       </c>
       <c r="D108" t="n">
-        <v>11.79</v>
+        <v>11.81</v>
       </c>
       <c r="E108" t="n">
-        <v>11.54</v>
+        <v>11.81</v>
       </c>
       <c r="F108" t="n">
-        <v>3060.4467</v>
+        <v>21.4593</v>
       </c>
       <c r="G108" t="n">
-        <v>-3957713.105393983</v>
+        <v>-3065177.722153744</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4308,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>11.79</v>
+        <v>11.65</v>
       </c>
       <c r="C109" t="n">
-        <v>11.79</v>
+        <v>11.65</v>
       </c>
       <c r="D109" t="n">
-        <v>11.79</v>
+        <v>11.65</v>
       </c>
       <c r="E109" t="n">
-        <v>11.79</v>
+        <v>11.65</v>
       </c>
       <c r="F109" t="n">
-        <v>43</v>
+        <v>191.8925</v>
       </c>
       <c r="G109" t="n">
-        <v>-3957670.105393983</v>
+        <v>-3065369.614653744</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4344,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.89</v>
+        <v>11.65</v>
       </c>
       <c r="C110" t="n">
-        <v>11.89</v>
+        <v>11.64</v>
       </c>
       <c r="D110" t="n">
-        <v>11.89</v>
+        <v>11.65</v>
       </c>
       <c r="E110" t="n">
-        <v>11.89</v>
+        <v>11.64</v>
       </c>
       <c r="F110" t="n">
-        <v>43</v>
+        <v>39416</v>
       </c>
       <c r="G110" t="n">
-        <v>-3957627.105393983</v>
+        <v>-3104785.614653744</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4380,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>11.89</v>
+        <v>11.81</v>
       </c>
       <c r="C111" t="n">
-        <v>11.89</v>
+        <v>11.81</v>
       </c>
       <c r="D111" t="n">
-        <v>11.89</v>
+        <v>11.81</v>
       </c>
       <c r="E111" t="n">
-        <v>11.89</v>
+        <v>11.81</v>
       </c>
       <c r="F111" t="n">
-        <v>14471.737</v>
+        <v>973.2497</v>
       </c>
       <c r="G111" t="n">
-        <v>-3957627.105393983</v>
+        <v>-3103812.364953744</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4416,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>12.06</v>
+        <v>11.81</v>
       </c>
       <c r="C112" t="n">
-        <v>12.06</v>
+        <v>11.81</v>
       </c>
       <c r="D112" t="n">
-        <v>12.06</v>
+        <v>11.81</v>
       </c>
       <c r="E112" t="n">
-        <v>12.06</v>
+        <v>11.81</v>
       </c>
       <c r="F112" t="n">
-        <v>21707</v>
+        <v>4314.9206</v>
       </c>
       <c r="G112" t="n">
-        <v>-3935920.105393983</v>
+        <v>-3103812.364953744</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4452,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.16</v>
+        <v>11.64</v>
       </c>
       <c r="C113" t="n">
-        <v>12.16</v>
+        <v>11.6</v>
       </c>
       <c r="D113" t="n">
-        <v>12.16</v>
+        <v>11.64</v>
       </c>
       <c r="E113" t="n">
-        <v>12.06</v>
+        <v>11.6</v>
       </c>
       <c r="F113" t="n">
-        <v>4028</v>
+        <v>250498.0665</v>
       </c>
       <c r="G113" t="n">
-        <v>-3931892.105393983</v>
+        <v>-3354310.431453744</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4488,28 +4470,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12.08</v>
+        <v>11.72</v>
       </c>
       <c r="C114" t="n">
-        <v>12.08</v>
+        <v>11.95</v>
       </c>
       <c r="D114" t="n">
-        <v>12.08</v>
+        <v>11.95</v>
       </c>
       <c r="E114" t="n">
-        <v>12.08</v>
+        <v>11.72</v>
       </c>
       <c r="F114" t="n">
-        <v>1857.4631</v>
+        <v>86</v>
       </c>
       <c r="G114" t="n">
-        <v>-3933749.568493983</v>
+        <v>-3354224.431453744</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4524,28 +4506,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12.08</v>
+        <v>11.77</v>
       </c>
       <c r="C115" t="n">
-        <v>12.08</v>
+        <v>11.77</v>
       </c>
       <c r="D115" t="n">
-        <v>12.08</v>
+        <v>11.77</v>
       </c>
       <c r="E115" t="n">
-        <v>12.08</v>
+        <v>11.77</v>
       </c>
       <c r="F115" t="n">
-        <v>84</v>
+        <v>4248.0884</v>
       </c>
       <c r="G115" t="n">
-        <v>-3933749.568493983</v>
+        <v>-3358472.519853744</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4560,28 +4542,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12.08</v>
+        <v>11.73</v>
       </c>
       <c r="C116" t="n">
-        <v>11.98</v>
+        <v>11.6</v>
       </c>
       <c r="D116" t="n">
-        <v>12.08</v>
+        <v>11.73</v>
       </c>
       <c r="E116" t="n">
-        <v>11.88</v>
+        <v>11.6</v>
       </c>
       <c r="F116" t="n">
-        <v>4978</v>
+        <v>148969.7505</v>
       </c>
       <c r="G116" t="n">
-        <v>-3938727.568493983</v>
+        <v>-3507442.270353744</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4596,28 +4578,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>11.86</v>
+        <v>11.6</v>
       </c>
       <c r="C117" t="n">
-        <v>11.85</v>
+        <v>11.6</v>
       </c>
       <c r="D117" t="n">
-        <v>11.86</v>
+        <v>11.6</v>
       </c>
       <c r="E117" t="n">
-        <v>11.74</v>
+        <v>11.6</v>
       </c>
       <c r="F117" t="n">
-        <v>35975.3773</v>
+        <v>17137.9605</v>
       </c>
       <c r="G117" t="n">
-        <v>-3974702.945793983</v>
+        <v>-3507442.270353744</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4632,28 +4614,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>11.74</v>
+        <v>11.64</v>
       </c>
       <c r="C118" t="n">
-        <v>11.74</v>
+        <v>11.64</v>
       </c>
       <c r="D118" t="n">
-        <v>11.74</v>
+        <v>11.64</v>
       </c>
       <c r="E118" t="n">
-        <v>11.6</v>
+        <v>11.64</v>
       </c>
       <c r="F118" t="n">
-        <v>13711.6227</v>
+        <v>263.8316151202749</v>
       </c>
       <c r="G118" t="n">
-        <v>-3988414.568493983</v>
+        <v>-3507178.438738624</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4668,28 +4650,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>11.75</v>
+        <v>11.6</v>
       </c>
       <c r="C119" t="n">
-        <v>11.75</v>
+        <v>11.6</v>
       </c>
       <c r="D119" t="n">
-        <v>11.75</v>
+        <v>11.6</v>
       </c>
       <c r="E119" t="n">
-        <v>11.75</v>
+        <v>11.6</v>
       </c>
       <c r="F119" t="n">
-        <v>44</v>
+        <v>86488.38860000001</v>
       </c>
       <c r="G119" t="n">
-        <v>-3988370.568493983</v>
+        <v>-3593666.827338624</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4704,22 +4686,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>11.75</v>
+        <v>11.6</v>
       </c>
       <c r="C120" t="n">
-        <v>11.75</v>
+        <v>11.6</v>
       </c>
       <c r="D120" t="n">
-        <v>11.75</v>
+        <v>11.6</v>
       </c>
       <c r="E120" t="n">
-        <v>11.75</v>
+        <v>11.6</v>
       </c>
       <c r="F120" t="n">
-        <v>4419.1215</v>
+        <v>82455</v>
       </c>
       <c r="G120" t="n">
-        <v>-3988370.568493983</v>
+        <v>-3593666.827338624</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4740,22 +4722,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>11.55</v>
+        <v>11.6</v>
       </c>
       <c r="C121" t="n">
-        <v>11.55</v>
+        <v>11.6</v>
       </c>
       <c r="D121" t="n">
-        <v>11.55</v>
+        <v>11.6</v>
       </c>
       <c r="E121" t="n">
-        <v>11.55</v>
+        <v>11.6</v>
       </c>
       <c r="F121" t="n">
-        <v>163.7945</v>
+        <v>197699.8499</v>
       </c>
       <c r="G121" t="n">
-        <v>-3988534.362993983</v>
+        <v>-3593666.827338624</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4776,22 +4758,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.75</v>
+        <v>11.53</v>
       </c>
       <c r="C122" t="n">
-        <v>11.75</v>
+        <v>11.6</v>
       </c>
       <c r="D122" t="n">
-        <v>11.75</v>
+        <v>11.6</v>
       </c>
       <c r="E122" t="n">
-        <v>11.75</v>
+        <v>11.53</v>
       </c>
       <c r="F122" t="n">
-        <v>44</v>
+        <v>13000.3426</v>
       </c>
       <c r="G122" t="n">
-        <v>-3988490.362993983</v>
+        <v>-3593666.827338624</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4812,22 +4794,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.55</v>
+        <v>11.61</v>
       </c>
       <c r="C123" t="n">
-        <v>11.54</v>
+        <v>11.61</v>
       </c>
       <c r="D123" t="n">
-        <v>11.55</v>
+        <v>11.61</v>
       </c>
       <c r="E123" t="n">
-        <v>11.54</v>
+        <v>11.61</v>
       </c>
       <c r="F123" t="n">
-        <v>23251.94</v>
+        <v>17194.2302</v>
       </c>
       <c r="G123" t="n">
-        <v>-4011742.302993983</v>
+        <v>-3576472.597138624</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4848,22 +4830,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>11.73</v>
+        <v>11.67</v>
       </c>
       <c r="C124" t="n">
-        <v>11.73</v>
+        <v>11.67</v>
       </c>
       <c r="D124" t="n">
-        <v>11.73</v>
+        <v>11.67</v>
       </c>
       <c r="E124" t="n">
-        <v>11.73</v>
+        <v>11.67</v>
       </c>
       <c r="F124" t="n">
-        <v>44</v>
+        <v>279.0737</v>
       </c>
       <c r="G124" t="n">
-        <v>-4011698.302993983</v>
+        <v>-3576193.523438624</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4884,22 +4866,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>11.54</v>
+        <v>11.73</v>
       </c>
       <c r="C125" t="n">
-        <v>11.31</v>
+        <v>11.73</v>
       </c>
       <c r="D125" t="n">
-        <v>11.55</v>
+        <v>11.73</v>
       </c>
       <c r="E125" t="n">
-        <v>11.31</v>
+        <v>11.73</v>
       </c>
       <c r="F125" t="n">
-        <v>89419.06</v>
+        <v>582.5234441602728</v>
       </c>
       <c r="G125" t="n">
-        <v>-4101117.362993983</v>
+        <v>-3575610.999994464</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4920,22 +4902,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>11.63</v>
+        <v>11.66</v>
       </c>
       <c r="C126" t="n">
-        <v>11.63</v>
+        <v>11.66</v>
       </c>
       <c r="D126" t="n">
-        <v>11.63</v>
+        <v>11.66</v>
       </c>
       <c r="E126" t="n">
-        <v>11.63</v>
+        <v>11.66</v>
       </c>
       <c r="F126" t="n">
-        <v>255</v>
+        <v>50730</v>
       </c>
       <c r="G126" t="n">
-        <v>-4100862.362993983</v>
+        <v>-3626340.999994464</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4956,22 +4938,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11.64</v>
+        <v>11.61</v>
       </c>
       <c r="C127" t="n">
-        <v>11.64</v>
+        <v>11.61</v>
       </c>
       <c r="D127" t="n">
-        <v>11.64</v>
+        <v>11.61</v>
       </c>
       <c r="E127" t="n">
-        <v>11.64</v>
+        <v>11.61</v>
       </c>
       <c r="F127" t="n">
-        <v>44</v>
+        <v>202138.8608</v>
       </c>
       <c r="G127" t="n">
-        <v>-4100818.362993983</v>
+        <v>-3828479.860794464</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4992,22 +4974,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11.64</v>
+        <v>11.61</v>
       </c>
       <c r="C128" t="n">
-        <v>11.64</v>
+        <v>11.61</v>
       </c>
       <c r="D128" t="n">
-        <v>11.64</v>
+        <v>11.61</v>
       </c>
       <c r="E128" t="n">
-        <v>11.64</v>
+        <v>11.61</v>
       </c>
       <c r="F128" t="n">
-        <v>17383.714</v>
+        <v>4891.6686</v>
       </c>
       <c r="G128" t="n">
-        <v>-4100818.362993983</v>
+        <v>-3828479.860794464</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5028,22 +5010,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>11.71</v>
+        <v>11.61</v>
       </c>
       <c r="C129" t="n">
-        <v>11.71</v>
+        <v>11.53</v>
       </c>
       <c r="D129" t="n">
-        <v>11.71</v>
+        <v>11.61</v>
       </c>
       <c r="E129" t="n">
-        <v>11.71</v>
+        <v>11.53</v>
       </c>
       <c r="F129" t="n">
-        <v>43</v>
+        <v>71892.92630000001</v>
       </c>
       <c r="G129" t="n">
-        <v>-4100775.362993983</v>
+        <v>-3900372.787094464</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5064,22 +5046,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>11.71</v>
+        <v>11.53</v>
       </c>
       <c r="C130" t="n">
-        <v>11.71</v>
+        <v>11.53</v>
       </c>
       <c r="D130" t="n">
-        <v>11.71</v>
+        <v>11.53</v>
       </c>
       <c r="E130" t="n">
-        <v>11.71</v>
+        <v>11.53</v>
       </c>
       <c r="F130" t="n">
-        <v>2135.7566</v>
+        <v>10693.3269</v>
       </c>
       <c r="G130" t="n">
-        <v>-4100775.362993983</v>
+        <v>-3900372.787094464</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5100,22 +5082,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>11.71</v>
+        <v>11.52</v>
       </c>
       <c r="C131" t="n">
-        <v>11.71</v>
+        <v>11.5</v>
       </c>
       <c r="D131" t="n">
-        <v>11.71</v>
+        <v>11.52</v>
       </c>
       <c r="E131" t="n">
-        <v>11.71</v>
+        <v>11.5</v>
       </c>
       <c r="F131" t="n">
-        <v>5962.8375</v>
+        <v>88626</v>
       </c>
       <c r="G131" t="n">
-        <v>-4100775.362993983</v>
+        <v>-3988998.787094464</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5136,22 +5118,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>11.79</v>
+        <v>11.48</v>
       </c>
       <c r="C132" t="n">
-        <v>11.79</v>
+        <v>11.48</v>
       </c>
       <c r="D132" t="n">
-        <v>11.79</v>
+        <v>11.48</v>
       </c>
       <c r="E132" t="n">
-        <v>11.79</v>
+        <v>11.48</v>
       </c>
       <c r="F132" t="n">
-        <v>44</v>
+        <v>2583.3934</v>
       </c>
       <c r="G132" t="n">
-        <v>-4100731.362993983</v>
+        <v>-3991582.180494464</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5172,31 +5154,35 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>11.79</v>
+        <v>11.38</v>
       </c>
       <c r="C133" t="n">
-        <v>11.79</v>
+        <v>11.38</v>
       </c>
       <c r="D133" t="n">
-        <v>11.79</v>
+        <v>11.38</v>
       </c>
       <c r="E133" t="n">
-        <v>11.79</v>
+        <v>11.38</v>
       </c>
       <c r="F133" t="n">
-        <v>10000</v>
+        <v>382.2504</v>
       </c>
       <c r="G133" t="n">
-        <v>-4100731.362993983</v>
+        <v>-3991964.430894463</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="K133" t="n">
+        <v>11.48</v>
+      </c>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
@@ -5208,32 +5194,40 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>11.79</v>
+        <v>11.45</v>
       </c>
       <c r="C134" t="n">
-        <v>11.79</v>
+        <v>11.45</v>
       </c>
       <c r="D134" t="n">
-        <v>11.79</v>
+        <v>11.45</v>
       </c>
       <c r="E134" t="n">
-        <v>11.79</v>
+        <v>11.45</v>
       </c>
       <c r="F134" t="n">
-        <v>2702.9762</v>
+        <v>66286.81299999999</v>
       </c>
       <c r="G134" t="n">
-        <v>-4100731.362993983</v>
+        <v>-3925677.617894463</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K134" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5244,32 +5238,40 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>11.7</v>
+        <v>11.45</v>
       </c>
       <c r="C135" t="n">
-        <v>11.7</v>
+        <v>11.45</v>
       </c>
       <c r="D135" t="n">
-        <v>11.7</v>
+        <v>11.45</v>
       </c>
       <c r="E135" t="n">
-        <v>11.7</v>
+        <v>11.45</v>
       </c>
       <c r="F135" t="n">
-        <v>34051.7149</v>
+        <v>174.9965</v>
       </c>
       <c r="G135" t="n">
-        <v>-4134783.077893983</v>
+        <v>-3925677.617894463</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="K135" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5280,31 +5282,35 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>11.61</v>
+        <v>11.45</v>
       </c>
       <c r="C136" t="n">
-        <v>11.44</v>
+        <v>11.45</v>
       </c>
       <c r="D136" t="n">
-        <v>11.61</v>
+        <v>11.45</v>
       </c>
       <c r="E136" t="n">
-        <v>11.44</v>
+        <v>11.45</v>
       </c>
       <c r="F136" t="n">
-        <v>7879</v>
+        <v>6288.0484</v>
       </c>
       <c r="G136" t="n">
-        <v>-4142662.077893983</v>
+        <v>-3925677.617894463</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="K136" t="n">
+        <v>11.45</v>
+      </c>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
@@ -5316,32 +5322,40 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>11.44</v>
+        <v>11.39</v>
       </c>
       <c r="C137" t="n">
-        <v>11.44</v>
+        <v>11.38</v>
       </c>
       <c r="D137" t="n">
-        <v>11.44</v>
+        <v>11.39</v>
       </c>
       <c r="E137" t="n">
-        <v>11.44</v>
+        <v>11.38</v>
       </c>
       <c r="F137" t="n">
-        <v>38059.3679</v>
+        <v>10934.4575</v>
       </c>
       <c r="G137" t="n">
-        <v>-4142662.077893983</v>
+        <v>-3936612.075394463</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="K137" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5352,32 +5366,40 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>11.44</v>
+        <v>11.43</v>
       </c>
       <c r="C138" t="n">
-        <v>11.44</v>
+        <v>11.53</v>
       </c>
       <c r="D138" t="n">
-        <v>11.44</v>
+        <v>11.53</v>
       </c>
       <c r="E138" t="n">
-        <v>11.44</v>
+        <v>11.43</v>
       </c>
       <c r="F138" t="n">
-        <v>280.1614</v>
+        <v>174836.471</v>
       </c>
       <c r="G138" t="n">
-        <v>-4142662.077893983</v>
+        <v>-3761775.604394463</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K138" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5388,32 +5410,40 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>11.43</v>
+        <v>11.57</v>
       </c>
       <c r="C139" t="n">
-        <v>11.43</v>
+        <v>11.67</v>
       </c>
       <c r="D139" t="n">
-        <v>11.43</v>
+        <v>11.67</v>
       </c>
       <c r="E139" t="n">
-        <v>11.43</v>
+        <v>11.57</v>
       </c>
       <c r="F139" t="n">
-        <v>23080.254</v>
+        <v>45271.8734</v>
       </c>
       <c r="G139" t="n">
-        <v>-4165742.331893983</v>
+        <v>-3716503.730994463</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="K139" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5424,22 +5454,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>11.4</v>
+        <v>11.67</v>
       </c>
       <c r="C140" t="n">
-        <v>11.31</v>
+        <v>11.67</v>
       </c>
       <c r="D140" t="n">
-        <v>11.4</v>
+        <v>11.67</v>
       </c>
       <c r="E140" t="n">
-        <v>11.31</v>
+        <v>11.67</v>
       </c>
       <c r="F140" t="n">
-        <v>64939.626</v>
+        <v>253.8204</v>
       </c>
       <c r="G140" t="n">
-        <v>-4230681.957893983</v>
+        <v>-3716503.730994463</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5448,8 +5478,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5460,36 +5496,38 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>11.44</v>
+        <v>11.48</v>
       </c>
       <c r="C141" t="n">
-        <v>11.44</v>
+        <v>11.48</v>
       </c>
       <c r="D141" t="n">
-        <v>11.44</v>
+        <v>11.48</v>
       </c>
       <c r="E141" t="n">
-        <v>11.44</v>
+        <v>11.48</v>
       </c>
       <c r="F141" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="G141" t="n">
-        <v>-4230637.957893983</v>
+        <v>-3716603.730994463</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>11.31</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="L141" t="inlineStr"/>
+        <v>11.45</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5500,38 +5538,36 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>11.44</v>
+        <v>11.66</v>
       </c>
       <c r="C142" t="n">
-        <v>11.44</v>
+        <v>11.66</v>
       </c>
       <c r="D142" t="n">
-        <v>11.44</v>
+        <v>11.66</v>
       </c>
       <c r="E142" t="n">
-        <v>11.44</v>
+        <v>11.66</v>
       </c>
       <c r="F142" t="n">
-        <v>23627.4707</v>
+        <v>44</v>
       </c>
       <c r="G142" t="n">
-        <v>-4230637.957893983</v>
+        <v>-3716559.730994463</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>11.44</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>11.31</v>
+        <v>11.45</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M142" t="n">
@@ -5544,38 +5580,36 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>11.6</v>
+        <v>11.66</v>
       </c>
       <c r="C143" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="D143" t="n">
-        <v>11.6</v>
+        <v>11.69</v>
       </c>
       <c r="E143" t="n">
-        <v>11.6</v>
+        <v>11.66</v>
       </c>
       <c r="F143" t="n">
-        <v>44</v>
+        <v>230272.215</v>
       </c>
       <c r="G143" t="n">
-        <v>-4230593.957893983</v>
+        <v>-3486287.515994464</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>11.44</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>11.31</v>
+        <v>11.45</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M143" t="n">
@@ -5588,38 +5622,36 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>11.49</v>
+        <v>11.69</v>
       </c>
       <c r="C144" t="n">
-        <v>11.58</v>
+        <v>11.69</v>
       </c>
       <c r="D144" t="n">
-        <v>11.58</v>
+        <v>11.69</v>
       </c>
       <c r="E144" t="n">
-        <v>11.49</v>
+        <v>11.69</v>
       </c>
       <c r="F144" t="n">
-        <v>4974</v>
+        <v>5473.4805</v>
       </c>
       <c r="G144" t="n">
-        <v>-4235567.957893983</v>
+        <v>-3486287.515994464</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>11.6</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>11.31</v>
+        <v>11.45</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M144" t="n">
@@ -5632,22 +5664,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>11.59</v>
+        <v>11.69</v>
       </c>
       <c r="C145" t="n">
-        <v>11.59</v>
+        <v>12.06</v>
       </c>
       <c r="D145" t="n">
-        <v>11.59</v>
+        <v>12.06</v>
       </c>
       <c r="E145" t="n">
-        <v>11.59</v>
+        <v>11.69</v>
       </c>
       <c r="F145" t="n">
-        <v>44</v>
+        <v>15500</v>
       </c>
       <c r="G145" t="n">
-        <v>-4235523.957893983</v>
+        <v>-3470787.515994464</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5657,7 +5689,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>11.31</v>
+        <v>11.45</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5674,22 +5706,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>11.59</v>
+        <v>11.95</v>
       </c>
       <c r="C146" t="n">
-        <v>11.59</v>
+        <v>12.05</v>
       </c>
       <c r="D146" t="n">
-        <v>11.59</v>
+        <v>12.05</v>
       </c>
       <c r="E146" t="n">
-        <v>11.59</v>
+        <v>11.95</v>
       </c>
       <c r="F146" t="n">
-        <v>603.9689387402933</v>
+        <v>11364.49</v>
       </c>
       <c r="G146" t="n">
-        <v>-4235523.957893983</v>
+        <v>-3482152.005994464</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5699,7 +5731,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>11.31</v>
+        <v>11.45</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5716,22 +5748,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>11.59</v>
+        <v>12</v>
       </c>
       <c r="C147" t="n">
-        <v>11.59</v>
+        <v>12</v>
       </c>
       <c r="D147" t="n">
-        <v>11.59</v>
+        <v>12</v>
       </c>
       <c r="E147" t="n">
-        <v>11.59</v>
+        <v>12</v>
       </c>
       <c r="F147" t="n">
-        <v>85.2329</v>
+        <v>5000</v>
       </c>
       <c r="G147" t="n">
-        <v>-4235523.957893983</v>
+        <v>-3487152.005994464</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5741,17 +5773,3011 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C148" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D148" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E148" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F148" t="n">
+        <v>5485.263</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-3492637.268994464</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="C149" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="D149" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="E149" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="F149" t="n">
+        <v>43</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-3492680.268994464</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C150" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D150" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E150" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F150" t="n">
+        <v>42</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-3492638.268994464</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="C151" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="D151" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="E151" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="F151" t="n">
+        <v>8516.9318</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-3501155.200794464</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="C152" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D152" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="E152" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F152" t="n">
+        <v>6470.169</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-3507625.369794464</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="C153" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="D153" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="E153" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F153" t="n">
+        <v>45</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-3507580.369794464</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="C154" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="D154" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="E154" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="F154" t="n">
+        <v>55108.1576</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-3562688.527394464</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="C155" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="D155" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="E155" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1756.4455</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-3562688.527394464</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="C156" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="D156" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="E156" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="F156" t="n">
+        <v>88</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-3562600.527394464</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="C157" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D157" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E157" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="F157" t="n">
+        <v>88</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-3562512.527394464</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="C158" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="D158" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="E158" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="F158" t="n">
+        <v>191787.7247</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-3754300.252094464</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="C159" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="D159" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="E159" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="F159" t="n">
+        <v>101528.7913</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-3855829.043394464</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="C160" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="D160" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="E160" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="F160" t="n">
+        <v>4307.1201</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-3855829.043394464</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="C161" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="D161" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="E161" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="F161" t="n">
+        <v>29313.6387</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-3855829.043394464</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C162" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D162" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E162" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F162" t="n">
+        <v>44</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-3855785.043394464</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C163" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="D163" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E163" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1670.992366412214</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-3857456.035760876</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C164" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D164" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E164" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F164" t="n">
+        <v>43</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-3857413.035760876</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="C165" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D165" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E165" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="F165" t="n">
+        <v>87446.97</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-3857413.035760876</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C166" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D166" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E166" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1507.5656</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-3858920.601360876</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="C167" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="D167" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="E167" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3515.025466893039</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-3855405.575893983</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="C168" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="D168" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="E168" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2401.6342</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-3855405.575893983</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="C169" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="D169" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="E169" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="F169" t="n">
+        <v>65259.46</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-3920665.035893983</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="C170" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="D170" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="E170" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="F170" t="n">
+        <v>72755</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-3920665.035893983</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="C171" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="D171" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="E171" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="F171" t="n">
+        <v>77872.2668</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-3920665.035893983</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="C172" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="D172" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="E172" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2401.6342</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-3923066.670093983</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="C173" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D173" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="E173" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F173" t="n">
+        <v>44</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-3923022.670093983</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="C174" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D174" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="E174" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="F174" t="n">
+        <v>421.7747</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-3923022.670093983</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="C175" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="D175" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="E175" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F175" t="n">
+        <v>16944.8124</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-3906077.857693983</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C176" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="D176" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="E176" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F176" t="n">
+        <v>16861.441</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-3922939.298693983</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C177" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D177" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E177" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4028</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-3926967.298693983</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C178" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D178" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E178" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F178" t="n">
+        <v>30745.8067</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-3957713.105393983</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C179" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D179" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E179" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F179" t="n">
+        <v>3060.4467</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-3957713.105393983</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C180" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="D180" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E180" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="F180" t="n">
+        <v>43</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-3957670.105393983</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C181" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D181" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E181" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="F181" t="n">
+        <v>43</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-3957627.105393983</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C182" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D182" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E182" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="F182" t="n">
+        <v>14471.737</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-3957627.105393983</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="C183" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="D183" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="E183" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="F183" t="n">
+        <v>21707</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-3935920.105393983</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="C184" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="D184" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="E184" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="F184" t="n">
+        <v>4028</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-3931892.105393983</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="C185" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="D185" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="E185" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1857.4631</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-3933749.568493983</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="C186" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="D186" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="E186" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="F186" t="n">
+        <v>84</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-3933749.568493983</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="C187" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="D187" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="E187" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="F187" t="n">
+        <v>4978</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-3938727.568493983</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C188" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D188" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="E188" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="F188" t="n">
+        <v>35975.3773</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-3974702.945793983</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="C189" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="D189" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="E189" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F189" t="n">
+        <v>13711.6227</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-3988414.568493983</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="C190" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="D190" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="E190" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="F190" t="n">
+        <v>44</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-3988370.568493983</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="C191" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="D191" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="E191" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="F191" t="n">
+        <v>4419.1215</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-3988370.568493983</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C192" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="D192" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E192" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F192" t="n">
+        <v>163.7945</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-3988534.362993983</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="C193" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="D193" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="E193" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="F193" t="n">
+        <v>44</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-3988490.362993983</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C194" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="D194" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E194" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="F194" t="n">
+        <v>23251.94</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-4011742.302993983</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="C195" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="D195" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="E195" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="F195" t="n">
+        <v>44</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-4011698.302993983</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="C196" t="n">
         <v>11.31</v>
       </c>
-      <c r="L147" t="inlineStr">
+      <c r="D196" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E196" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="F196" t="n">
+        <v>89419.06</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-4101117.362993983</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="C197" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="D197" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="E197" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="F197" t="n">
+        <v>255</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-4100862.362993983</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="C198" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="D198" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="E198" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="F198" t="n">
+        <v>44</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-4100818.362993983</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="C199" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="D199" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="E199" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="F199" t="n">
+        <v>17383.714</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-4100818.362993983</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="C200" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D200" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E200" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F200" t="n">
+        <v>43</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-4100775.362993983</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="C201" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D201" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E201" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2135.7566</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-4100775.362993983</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="C202" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D202" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="E202" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F202" t="n">
+        <v>5962.8375</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-4100775.362993983</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C203" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="D203" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E203" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="F203" t="n">
+        <v>44</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-4100731.362993983</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C204" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="D204" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E204" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="F204" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-4100731.362993983</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C205" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="D205" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E205" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2702.9762</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-4100731.362993983</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C206" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D206" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E206" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F206" t="n">
+        <v>34051.7149</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-4134783.077893983</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="C207" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="D207" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="E207" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="F207" t="n">
+        <v>7879</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-4142662.077893983</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="C208" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="D208" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="E208" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="F208" t="n">
+        <v>38059.3679</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-4142662.077893983</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="C209" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="D209" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="E209" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="F209" t="n">
+        <v>280.1614</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-4142662.077893983</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="C210" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="D210" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="E210" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="F210" t="n">
+        <v>23080.254</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-4165742.331893983</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="K210" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C211" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="D211" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E211" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="F211" t="n">
+        <v>64939.626</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-4230681.957893983</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="K211" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="C212" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="D212" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="E212" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="F212" t="n">
+        <v>44</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-4230637.957893983</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="K212" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="C213" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="D213" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="E213" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="F213" t="n">
+        <v>23627.4707</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-4230637.957893983</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="K213" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C214" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D214" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E214" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F214" t="n">
+        <v>44</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-4230593.957893983</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="K214" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="C215" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="D215" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="E215" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="F215" t="n">
+        <v>4974</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-4235567.957893983</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K215" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="C216" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="D216" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="E216" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="F216" t="n">
+        <v>44</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-4235523.957893983</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="C217" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="D217" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="E217" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="F217" t="n">
+        <v>603.9689387402933</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-4235523.957893983</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="C218" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="D218" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="E218" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="F218" t="n">
+        <v>85.2329</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-4235523.957893983</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-19 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-19 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N218"/>
+  <dimension ref="A1:M218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-2032961.917799999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-1950917.713478153</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-1986202.713478153</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-1986202.713478153</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-1974173.871899999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-1977384.130321846</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>-1994087.871921846</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>-1994044.871921846</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>-2077400.822521846</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>-2077357.822521846</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>-2172567.743353744</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>-2172526.743353744</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>-2172694.548653744</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>-2172526.548653744</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>-2227029.272553744</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>-2204766.300853744</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>-2209068.300853744</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>-2208899.300853744</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>-2208983.300853744</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>-2209109.300853744</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>-2208941.300853744</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>-2209025.300853744</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4704,18 +4345,19 @@
         <v>-3593666.827338624</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="J120" t="n">
+        <v>11.6</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4740,18 +4382,23 @@
         <v>-3593666.827338624</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="J121" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4776,18 +4423,23 @@
         <v>-3593666.827338624</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="J122" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4812,18 +4464,23 @@
         <v>-3576472.597138624</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="J123" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4848,18 +4505,23 @@
         <v>-3576193.523438624</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>11.61</v>
+      </c>
+      <c r="J124" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4884,18 +4546,23 @@
         <v>-3575610.999994464</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>11.67</v>
+      </c>
+      <c r="J125" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4589,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4628,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4667,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5028,18 +4704,23 @@
         <v>-3900372.787094464</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+        <v>11.61</v>
+      </c>
+      <c r="J129" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5064,18 +4745,23 @@
         <v>-3900372.787094464</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+        <v>11.53</v>
+      </c>
+      <c r="J130" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5100,18 +4786,23 @@
         <v>-3988998.787094464</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>11.53</v>
+      </c>
+      <c r="J131" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5136,18 +4827,23 @@
         <v>-3991582.180494464</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>11.5</v>
+      </c>
+      <c r="J132" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5172,22 +4868,23 @@
         <v>-3991964.430894463</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>11.48</v>
       </c>
       <c r="J133" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K133" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5212,26 +4909,23 @@
         <v>-3925677.617894463</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>11.38</v>
       </c>
       <c r="J134" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K134" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5256,26 +4950,23 @@
         <v>-3925677.617894463</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>11.45</v>
       </c>
       <c r="J135" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="K135" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5300,22 +4991,23 @@
         <v>-3925677.617894463</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>11.45</v>
       </c>
       <c r="J136" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="K136" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5340,26 +5032,23 @@
         <v>-3936612.075394463</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>11.45</v>
       </c>
       <c r="J137" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="K137" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5384,26 +5073,23 @@
         <v>-3761775.604394463</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>11.38</v>
       </c>
       <c r="J138" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K138" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5428,26 +5114,23 @@
         <v>-3716503.730994463</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>11.53</v>
       </c>
       <c r="J139" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="K139" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5474,22 +5157,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5516,22 +5196,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5558,22 +5235,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5600,22 +5274,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5642,22 +5313,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5684,22 +5352,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5726,22 +5391,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5768,22 +5430,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5810,22 +5469,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5852,22 +5508,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5894,22 +5547,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5936,22 +5586,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5978,22 +5625,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6020,22 +5664,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6062,22 +5703,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6104,22 +5742,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6146,22 +5781,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6188,22 +5820,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6230,22 +5859,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6272,22 +5898,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6314,22 +5937,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6356,22 +5976,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6398,22 +6015,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6440,22 +6054,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6482,22 +6093,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6524,22 +6132,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6566,22 +6171,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6608,22 +6210,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6650,22 +6249,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6692,22 +6288,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6734,22 +6327,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6776,22 +6366,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6818,22 +6405,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6860,22 +6444,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6902,22 +6483,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6944,22 +6522,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6986,22 +6561,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7028,22 +6600,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7070,22 +6639,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7112,22 +6678,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7154,22 +6717,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7196,22 +6756,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7238,22 +6795,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7280,22 +6834,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7322,22 +6873,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7364,22 +6912,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7406,22 +6951,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7448,22 +6990,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7490,22 +7029,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7532,22 +7068,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7574,22 +7107,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7616,22 +7146,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7658,22 +7185,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7700,22 +7224,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7742,22 +7263,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7784,22 +7302,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7826,22 +7341,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7868,22 +7380,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7910,22 +7419,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7952,22 +7458,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7994,22 +7497,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8036,22 +7536,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8078,22 +7575,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8120,22 +7614,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8162,22 +7653,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8204,22 +7692,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8246,22 +7731,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8288,22 +7770,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8330,22 +7809,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8372,22 +7848,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8412,26 +7885,21 @@
         <v>-4165742.331893983</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="K210" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8456,26 +7924,21 @@
         <v>-4230681.957893983</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="K211" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8500,26 +7963,21 @@
         <v>-4230637.957893983</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="K212" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8544,26 +8002,21 @@
         <v>-4230637.957893983</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="K213" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8588,26 +8041,21 @@
         <v>-4230593.957893983</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="K214" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8632,26 +8080,21 @@
         <v>-4235567.957893983</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
         <v>11.6</v>
       </c>
-      <c r="K215" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8678,22 +8121,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8720,22 +8160,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8762,24 +8199,21 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-19 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1309,7 +1309,7 @@
         <v>-2032961.917799999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1950917.713478153</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1986202.713478153</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1986202.713478153</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1974173.871899999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1977384.130321846</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1991507.681321846</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1991464.681321846</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1994130.871921846</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1994087.871921846</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1994044.871921846</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-2077400.822521846</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-2077357.822521846</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2172567.743353744</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-2172526.743353744</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-2172694.548653744</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-2172526.548653744</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-2227029.272553744</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-2204934.300853744</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-2204766.300853744</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-2209068.300853744</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2208899.300853744</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-2208983.300853744</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-2209109.300853744</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-2208941.300853744</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-2209025.300853744</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-2208941.300853744</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-2208899.300853744</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-2217612.118253744</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-2217482.118253744</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-2260246.141053744</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-2273049.046253744</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-2273049.046253744</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-2254134.159853743</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-2591052.814253744</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -4345,14 +4345,10 @@
         <v>-3593666.827338624</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J120" t="n">
-        <v>11.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
@@ -4382,19 +4378,11 @@
         <v>-3593666.827338624</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J121" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4423,19 +4411,11 @@
         <v>-3593666.827338624</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J122" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4464,19 +4444,11 @@
         <v>-3576472.597138624</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J123" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4505,19 +4477,11 @@
         <v>-3576193.523438624</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="J124" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4546,19 +4510,11 @@
         <v>-3575610.999994464</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="J125" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4590,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4629,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4668,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4704,19 +4642,11 @@
         <v>-3900372.787094464</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="J129" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4745,19 +4675,11 @@
         <v>-3900372.787094464</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="J130" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4786,19 +4708,11 @@
         <v>-3988998.787094464</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="J131" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4827,19 +4741,11 @@
         <v>-3991582.180494464</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J132" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4868,19 +4774,11 @@
         <v>-3991964.430894463</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="J133" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4909,19 +4807,15 @@
         <v>-3925677.617894463</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>11.38</v>
       </c>
       <c r="J134" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.38</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4950,17 +4844,17 @@
         <v>-3925677.617894463</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>11.45</v>
       </c>
       <c r="J135" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -4991,17 +4885,15 @@
         <v>-3925677.617894463</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>11.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -5032,17 +4924,17 @@
         <v>-3936612.075394463</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>11.45</v>
       </c>
       <c r="J137" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L137" t="n">
@@ -5073,13 +4965,13 @@
         <v>-3761775.604394463</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>11.38</v>
       </c>
       <c r="J138" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5114,13 +5006,13 @@
         <v>-3716503.730994463</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>11.53</v>
       </c>
       <c r="J139" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5159,7 +5051,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5198,7 +5090,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5237,7 +5129,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5276,7 +5168,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5315,7 +5207,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5354,7 +5246,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5393,7 +5285,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5432,7 +5324,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5471,7 +5363,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5510,7 +5402,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5549,7 +5441,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5588,7 +5480,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5627,7 +5519,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5666,7 +5558,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5705,7 +5597,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5744,7 +5636,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5783,7 +5675,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5822,7 +5714,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5861,7 +5753,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5900,7 +5792,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5935,11 +5827,13 @@
         <v>-3855829.043394464</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>11.51</v>
+      </c>
       <c r="J160" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5978,7 +5872,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6013,11 +5907,13 @@
         <v>-3855785.043394464</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>11.51</v>
+      </c>
       <c r="J162" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6056,7 +5952,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6095,7 +5991,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6134,7 +6030,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6173,7 +6069,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6208,11 +6104,13 @@
         <v>-3855405.575893983</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>11.55</v>
+      </c>
       <c r="J167" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6251,7 +6149,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6290,7 +6188,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6329,7 +6227,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6364,11 +6262,13 @@
         <v>-3920665.035893983</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>11.51</v>
+      </c>
       <c r="J171" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6403,11 +6303,13 @@
         <v>-3923066.670093983</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>11.51</v>
+      </c>
       <c r="J172" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6442,11 +6344,13 @@
         <v>-3923022.670093983</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>11.41</v>
+      </c>
       <c r="J173" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6485,7 +6389,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6524,7 +6428,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6563,7 +6467,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6602,7 +6506,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6641,7 +6545,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6680,7 +6584,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6719,7 +6623,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6758,7 +6662,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6797,7 +6701,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6836,7 +6740,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6875,7 +6779,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6914,7 +6818,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6953,7 +6857,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6992,7 +6896,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7031,7 +6935,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7070,7 +6974,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7109,7 +7013,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7148,7 +7052,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7187,7 +7091,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7226,7 +7130,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7265,7 +7169,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7304,7 +7208,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7343,7 +7247,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7382,7 +7286,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7421,7 +7325,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7460,7 +7364,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7499,7 +7403,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7538,7 +7442,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7577,7 +7481,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7616,7 +7520,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7655,7 +7559,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7694,7 +7598,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7733,7 +7637,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7772,7 +7676,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7807,11 +7711,13 @@
         <v>-4142662.077893983</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>11.44</v>
+      </c>
       <c r="J208" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7846,11 +7752,13 @@
         <v>-4142662.077893983</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>11.44</v>
+      </c>
       <c r="J209" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7885,11 +7793,13 @@
         <v>-4165742.331893983</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>11.44</v>
+      </c>
       <c r="J210" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7924,11 +7834,13 @@
         <v>-4230681.957893983</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>11.43</v>
+      </c>
       <c r="J211" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7963,11 +7875,13 @@
         <v>-4230637.957893983</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>11.31</v>
+      </c>
       <c r="J212" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8002,11 +7916,13 @@
         <v>-4230637.957893983</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>11.44</v>
+      </c>
       <c r="J213" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8041,11 +7957,13 @@
         <v>-4230593.957893983</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>11.44</v>
+      </c>
       <c r="J214" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8084,7 +8002,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8123,7 +8041,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8162,7 +8080,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8201,7 +8119,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>11.6</v>
+        <v>11.38</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8214,6 +8132,6 @@
       <c r="M218" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-19 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -946,7 +946,7 @@
         <v>-1943077.5203</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1944084.3796</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1949002.713478153</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1951002.713478153</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1950917.713478153</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1977384.130321846</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1991507.681321846</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1991464.681321846</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1994130.871921846</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-2172694.548653744</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-2172526.548653744</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-2227029.272553744</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-2204934.300853744</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-2204766.300853744</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-2209068.300853744</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2208899.300853744</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-2208983.300853744</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-2209109.300853744</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-2208941.300853744</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-2209025.300853744</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-2208941.300853744</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-2208899.300853744</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-2217612.118253744</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-2217482.118253744</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-2260246.141053744</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-2273049.046253744</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-2273049.046253744</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-2598812.414653744</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-2591052.814253744</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-2616899.982753743</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -4807,14 +4807,10 @@
         <v>-3925677.617894463</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="J134" t="n">
-        <v>11.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
@@ -4844,19 +4840,11 @@
         <v>-3925677.617894463</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="J135" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4885,17 +4873,15 @@
         <v>-3925677.617894463</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>11.45</v>
+      </c>
       <c r="J136" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>11.45</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4930,7 +4916,7 @@
         <v>11.45</v>
       </c>
       <c r="J137" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -4971,7 +4957,7 @@
         <v>11.38</v>
       </c>
       <c r="J138" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5006,13 +4992,11 @@
         <v>-3716503.730994463</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>11.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5051,7 +5035,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5090,7 +5074,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5129,7 +5113,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5168,7 +5152,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5207,7 +5191,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5246,7 +5230,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5285,7 +5269,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5324,7 +5308,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5363,7 +5347,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5402,7 +5386,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5441,7 +5425,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5480,7 +5464,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5519,7 +5503,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5558,7 +5542,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5597,7 +5581,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5636,7 +5620,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5675,7 +5659,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5714,7 +5698,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5753,7 +5737,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5792,7 +5776,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5827,13 +5811,11 @@
         <v>-3855829.043394464</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>11.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5872,7 +5854,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5907,13 +5889,11 @@
         <v>-3855785.043394464</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>11.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5952,7 +5932,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -5991,7 +5971,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6030,7 +6010,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6069,7 +6049,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6104,13 +6084,11 @@
         <v>-3855405.575893983</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>11.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6149,7 +6127,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6188,7 +6166,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6227,7 +6205,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6262,13 +6240,11 @@
         <v>-3920665.035893983</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>11.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6303,13 +6279,11 @@
         <v>-3923066.670093983</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>11.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6344,13 +6318,11 @@
         <v>-3923022.670093983</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>11.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6389,7 +6361,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6428,7 +6400,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6467,7 +6439,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6506,7 +6478,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6545,7 +6517,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6584,7 +6556,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6623,7 +6595,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6662,7 +6634,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6701,7 +6673,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6740,7 +6712,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6779,7 +6751,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6818,7 +6790,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6857,7 +6829,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6896,7 +6868,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6935,7 +6907,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6974,7 +6946,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7013,7 +6985,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7048,19 +7020,19 @@
         <v>-3988370.568493983</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>11.38</v>
+        <v>11.45</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L191" t="n">
-        <v>1</v>
+        <v>1.021200873362446</v>
       </c>
       <c r="M191" t="inlineStr"/>
     </row>
@@ -7090,14 +7062,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7129,14 +7095,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7168,14 +7128,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7207,14 +7161,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7246,14 +7194,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7285,14 +7227,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7324,14 +7260,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7363,14 +7293,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7402,14 +7326,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7441,14 +7359,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7480,14 +7392,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7519,14 +7425,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7558,14 +7458,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7597,14 +7491,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7636,14 +7524,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7675,14 +7557,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7711,19 +7587,11 @@
         <v>-4142662.077893983</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="J208" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7752,19 +7620,11 @@
         <v>-4142662.077893983</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="J209" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7793,19 +7653,11 @@
         <v>-4165742.331893983</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="J210" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7839,12 +7691,10 @@
       <c r="I211" t="n">
         <v>11.43</v>
       </c>
-      <c r="J211" t="n">
-        <v>11.38</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L211" t="n">
@@ -7875,14 +7725,10 @@
         <v>-4230637.957893983</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="J212" t="n">
-        <v>11.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7916,14 +7762,10 @@
         <v>-4230637.957893983</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="J213" t="n">
-        <v>11.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7957,14 +7799,10 @@
         <v>-4230593.957893983</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="J214" t="n">
-        <v>11.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8001,9 +7839,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>11.38</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8040,9 +7876,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>11.38</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8079,9 +7913,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>11.38</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8118,9 +7950,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>11.38</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8132,6 +7962,6 @@
       <c r="M218" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-19 BackTest ETZ.xlsx
@@ -946,7 +946,7 @@
         <v>-1943077.5203</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1944084.3796</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1949002.713478153</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1951002.713478153</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1950917.713478153</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1991507.681321846</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1991464.681321846</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1994130.871921846</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-2077400.822521846</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-2077357.822521846</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2172567.743353744</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-2209068.300853744</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-2208899.300853744</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-2217612.118253744</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-2254134.159853743</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-2598812.414653744</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-2616899.982753743</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -4807,10 +4807,14 @@
         <v>-3925677.617894463</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="J134" t="n">
+        <v>11.38</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
@@ -4840,11 +4844,19 @@
         <v>-3925677.617894463</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="J135" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,15 +4885,17 @@
         <v>-3925677.617894463</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>11.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
+        <v>11.38</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4916,7 +4930,7 @@
         <v>11.45</v>
       </c>
       <c r="J137" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -4957,7 +4971,7 @@
         <v>11.38</v>
       </c>
       <c r="J138" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -4996,7 +5010,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5035,7 +5049,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5074,7 +5088,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5113,7 +5127,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5152,7 +5166,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5191,7 +5205,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5230,7 +5244,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5269,7 +5283,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5308,7 +5322,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5347,7 +5361,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5386,7 +5400,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5425,7 +5439,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5464,7 +5478,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5503,7 +5517,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5542,7 +5556,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5581,7 +5595,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5620,7 +5634,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5659,7 +5673,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5698,7 +5712,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5737,7 +5751,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5776,7 +5790,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5815,7 +5829,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5854,7 +5868,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5893,7 +5907,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5932,7 +5946,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -5971,7 +5985,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6010,7 +6024,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6049,7 +6063,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6088,7 +6102,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6127,7 +6141,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6166,7 +6180,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6205,7 +6219,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6244,7 +6258,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6283,7 +6297,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6322,7 +6336,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6361,7 +6375,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6400,7 +6414,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6439,7 +6453,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6478,7 +6492,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6517,7 +6531,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6556,7 +6570,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6595,7 +6609,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6634,7 +6648,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6673,7 +6687,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6712,7 +6726,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6751,7 +6765,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6790,7 +6804,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6829,7 +6843,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6868,7 +6882,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6907,7 +6921,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6946,7 +6960,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6985,7 +6999,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7020,19 +7034,19 @@
         <v>-3988370.568493983</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>11.45</v>
+        <v>11.38</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L191" t="n">
-        <v>1.021200873362446</v>
+        <v>1</v>
       </c>
       <c r="M191" t="inlineStr"/>
     </row>
@@ -7062,8 +7076,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7095,8 +7115,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7128,8 +7154,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7161,8 +7193,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7194,8 +7232,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7224,11 +7268,19 @@
         <v>-4100862.362993983</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="J197" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7260,8 +7312,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7293,8 +7351,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7326,8 +7390,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7359,8 +7429,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7392,8 +7468,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7425,8 +7507,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7458,8 +7546,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7491,8 +7585,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7524,8 +7624,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7557,8 +7663,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7587,11 +7699,19 @@
         <v>-4142662.077893983</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="J208" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7620,11 +7740,19 @@
         <v>-4142662.077893983</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="J209" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7653,11 +7781,19 @@
         <v>-4165742.331893983</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="J210" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7691,10 +7827,12 @@
       <c r="I211" t="n">
         <v>11.43</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>11.38</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L211" t="n">
@@ -7725,10 +7863,14 @@
         <v>-4230637.957893983</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="J212" t="n">
+        <v>11.38</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7762,10 +7904,14 @@
         <v>-4230637.957893983</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="J213" t="n">
+        <v>11.38</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7799,10 +7945,14 @@
         <v>-4230593.957893983</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="J214" t="n">
+        <v>11.38</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7836,10 +7986,14 @@
         <v>-4235567.957893983</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J215" t="n">
+        <v>11.38</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7873,10 +8027,14 @@
         <v>-4235523.957893983</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="J216" t="n">
+        <v>11.38</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7910,10 +8068,14 @@
         <v>-4235523.957893983</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="J217" t="n">
+        <v>11.38</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7947,10 +8109,14 @@
         <v>-4235523.957893983</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="J218" t="n">
+        <v>11.38</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-19 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-19 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M218"/>
+  <dimension ref="A1:L218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>16652.678</v>
       </c>
       <c r="G2" t="n">
-        <v>-1746358.7248</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>91170.9185</v>
       </c>
       <c r="G3" t="n">
-        <v>-1837529.6433</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>43</v>
       </c>
       <c r="G4" t="n">
-        <v>-1837486.6433</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>43</v>
       </c>
       <c r="G5" t="n">
-        <v>-1837443.6433</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>14896.7217</v>
       </c>
       <c r="G6" t="n">
-        <v>-1852340.365</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>43</v>
       </c>
       <c r="G7" t="n">
-        <v>-1852297.365</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>43</v>
       </c>
       <c r="G8" t="n">
-        <v>-1852297.365</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>67770</v>
       </c>
       <c r="G9" t="n">
-        <v>-1920067.365</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>43</v>
       </c>
       <c r="G10" t="n">
-        <v>-1920024.365</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>20486</v>
       </c>
       <c r="G11" t="n">
-        <v>-1940510.365</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>86</v>
       </c>
       <c r="G12" t="n">
-        <v>-1940424.365</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>5661.853</v>
       </c>
       <c r="G13" t="n">
-        <v>-1946086.218</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>10910.825</v>
       </c>
       <c r="G14" t="n">
-        <v>-1935175.393</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>31013.5649</v>
       </c>
       <c r="G15" t="n">
-        <v>-1904161.8281</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>38958.6922</v>
       </c>
       <c r="G16" t="n">
-        <v>-1943120.5203</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>43</v>
       </c>
       <c r="G17" t="n">
-        <v>-1943077.5203</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1006.8593</v>
       </c>
       <c r="G18" t="n">
-        <v>-1944084.3796</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>3976</v>
       </c>
       <c r="G19" t="n">
-        <v>-1944084.3796</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>40106.9762</v>
       </c>
       <c r="G20" t="n">
-        <v>-1984191.3558</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>46011.4834</v>
       </c>
       <c r="G21" t="n">
-        <v>-1984191.3558</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,19 @@
         <v>55409.5404</v>
       </c>
       <c r="G22" t="n">
-        <v>-1984191.3558</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>11.55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>11.55</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1077,23 @@
         <v>7952</v>
       </c>
       <c r="G23" t="n">
-        <v>-1976239.3558</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>11.55</v>
+      </c>
+      <c r="I23" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1115,23 @@
         <v>62019.277</v>
       </c>
       <c r="G24" t="n">
-        <v>-2038258.6328</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>11.68</v>
+      </c>
+      <c r="I24" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1153,23 @@
         <v>3296.715</v>
       </c>
       <c r="G25" t="n">
-        <v>-2034961.917799999</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>11.33</v>
+      </c>
+      <c r="I25" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1191,23 @@
         <v>31802.075</v>
       </c>
       <c r="G26" t="n">
-        <v>-2034961.917799999</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>11.67</v>
+      </c>
+      <c r="I26" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1229,21 @@
         <v>1001.0275</v>
       </c>
       <c r="G27" t="n">
-        <v>-2034961.917799999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1265,21 @@
         <v>2000</v>
       </c>
       <c r="G28" t="n">
-        <v>-2032961.917799999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1301,23 @@
         <v>83959.20432184666</v>
       </c>
       <c r="G29" t="n">
-        <v>-1949002.713478153</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>11.69</v>
+      </c>
+      <c r="I29" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1339,21 @@
         <v>2000</v>
       </c>
       <c r="G30" t="n">
-        <v>-1951002.713478153</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1375,21 @@
         <v>42</v>
       </c>
       <c r="G31" t="n">
-        <v>-1950960.713478153</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1411,21 @@
         <v>43</v>
       </c>
       <c r="G32" t="n">
-        <v>-1950917.713478153</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1447,21 @@
         <v>35285</v>
       </c>
       <c r="G33" t="n">
-        <v>-1986202.713478153</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1483,21 @@
         <v>187</v>
       </c>
       <c r="G34" t="n">
-        <v>-1986202.713478153</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1519,21 @@
         <v>12028.84157815334</v>
       </c>
       <c r="G35" t="n">
-        <v>-1974173.871899999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1555,23 @@
         <v>3210.258421846661</v>
       </c>
       <c r="G36" t="n">
-        <v>-1977384.130321846</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1.059069264069264</v>
+      </c>
       <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>1.022569444444444</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1593,15 @@
         <v>14123.551</v>
       </c>
       <c r="G37" t="n">
-        <v>-1991507.681321846</v>
-      </c>
-      <c r="H37" t="n">
         <v>2</v>
       </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1623,15 @@
         <v>43</v>
       </c>
       <c r="G38" t="n">
-        <v>-1991464.681321846</v>
-      </c>
-      <c r="H38" t="n">
         <v>2</v>
       </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1653,15 @@
         <v>2666.1906</v>
       </c>
       <c r="G39" t="n">
-        <v>-1994130.871921846</v>
-      </c>
-      <c r="H39" t="n">
         <v>2</v>
       </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1683,15 @@
         <v>43</v>
       </c>
       <c r="G40" t="n">
-        <v>-1994087.871921846</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1713,15 @@
         <v>43</v>
       </c>
       <c r="G41" t="n">
-        <v>-1994044.871921846</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1743,15 @@
         <v>83355.9506</v>
       </c>
       <c r="G42" t="n">
-        <v>-2077400.822521846</v>
-      </c>
-      <c r="H42" t="n">
         <v>2</v>
       </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1773,15 @@
         <v>43</v>
       </c>
       <c r="G43" t="n">
-        <v>-2077357.822521846</v>
-      </c>
-      <c r="H43" t="n">
         <v>2</v>
       </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1803,15 @@
         <v>95209.92083189727</v>
       </c>
       <c r="G44" t="n">
-        <v>-2172567.743353744</v>
-      </c>
-      <c r="H44" t="n">
         <v>2</v>
       </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1833,15 @@
         <v>41</v>
       </c>
       <c r="G45" t="n">
-        <v>-2172526.743353744</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1863,15 @@
         <v>167.8053</v>
       </c>
       <c r="G46" t="n">
-        <v>-2172694.548653744</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1893,15 @@
         <v>168</v>
       </c>
       <c r="G47" t="n">
-        <v>-2172526.548653744</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1923,15 @@
         <v>54502.7239</v>
       </c>
       <c r="G48" t="n">
-        <v>-2227029.272553744</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1953,15 @@
         <v>22094.9717</v>
       </c>
       <c r="G49" t="n">
-        <v>-2204934.300853744</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1983,15 @@
         <v>168</v>
       </c>
       <c r="G50" t="n">
-        <v>-2204766.300853744</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2013,15 @@
         <v>4302</v>
       </c>
       <c r="G51" t="n">
-        <v>-2209068.300853744</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2043,15 @@
         <v>169</v>
       </c>
       <c r="G52" t="n">
-        <v>-2208899.300853744</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2073,15 @@
         <v>84</v>
       </c>
       <c r="G53" t="n">
-        <v>-2208983.300853744</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2103,15 @@
         <v>126</v>
       </c>
       <c r="G54" t="n">
-        <v>-2209109.300853744</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2133,15 @@
         <v>168</v>
       </c>
       <c r="G55" t="n">
-        <v>-2208941.300853744</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2163,15 @@
         <v>84</v>
       </c>
       <c r="G56" t="n">
-        <v>-2209025.300853744</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2193,15 @@
         <v>84</v>
       </c>
       <c r="G57" t="n">
-        <v>-2208941.300853744</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2223,15 @@
         <v>42</v>
       </c>
       <c r="G58" t="n">
-        <v>-2208899.300853744</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2253,15 @@
         <v>8712.8174</v>
       </c>
       <c r="G59" t="n">
-        <v>-2217612.118253744</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2283,15 @@
         <v>130</v>
       </c>
       <c r="G60" t="n">
-        <v>-2217482.118253744</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2313,15 @@
         <v>42764.0228</v>
       </c>
       <c r="G61" t="n">
-        <v>-2260246.141053744</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2343,15 @@
         <v>12802.9052</v>
       </c>
       <c r="G62" t="n">
-        <v>-2273049.046253744</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2373,15 @@
         <v>23705.2272</v>
       </c>
       <c r="G63" t="n">
-        <v>-2273049.046253744</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2403,15 @@
         <v>18914.8864</v>
       </c>
       <c r="G64" t="n">
-        <v>-2254134.159853743</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2433,15 @@
         <v>344678.2548</v>
       </c>
       <c r="G65" t="n">
-        <v>-2598812.414653744</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2463,15 @@
         <v>1300</v>
       </c>
       <c r="G66" t="n">
-        <v>-2597512.414653744</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2493,15 @@
         <v>6459.6004</v>
       </c>
       <c r="G67" t="n">
-        <v>-2591052.814253744</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2523,15 @@
         <v>3646.6429</v>
       </c>
       <c r="G68" t="n">
-        <v>-2594699.457153744</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2553,15 @@
         <v>79426.52559999999</v>
       </c>
       <c r="G69" t="n">
-        <v>-2674125.982753743</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2583,15 @@
         <v>32549.2214</v>
       </c>
       <c r="G70" t="n">
-        <v>-2674125.982753743</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2613,15 @@
         <v>27226</v>
       </c>
       <c r="G71" t="n">
-        <v>-2646899.982753743</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2643,15 @@
         <v>30000</v>
       </c>
       <c r="G72" t="n">
-        <v>-2616899.982753743</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2673,15 @@
         <v>29452.5868</v>
       </c>
       <c r="G73" t="n">
-        <v>-2646352.569553744</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2703,15 @@
         <v>348982.6373</v>
       </c>
       <c r="G74" t="n">
-        <v>-2995335.206853744</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2733,15 @@
         <v>1507.5656</v>
       </c>
       <c r="G75" t="n">
-        <v>-2995335.206853744</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2763,15 @@
         <v>44832.8131</v>
       </c>
       <c r="G76" t="n">
-        <v>-2950502.393753744</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2793,15 @@
         <v>63930.5969</v>
       </c>
       <c r="G77" t="n">
-        <v>-2950502.393753744</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2823,15 @@
         <v>15053</v>
       </c>
       <c r="G78" t="n">
-        <v>-2935449.393753744</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2853,15 @@
         <v>7526</v>
       </c>
       <c r="G79" t="n">
-        <v>-2935449.393753744</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2883,15 @@
         <v>3763</v>
       </c>
       <c r="G80" t="n">
-        <v>-2939212.393753744</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2913,15 @@
         <v>3764</v>
       </c>
       <c r="G81" t="n">
-        <v>-2935448.393753744</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2943,15 @@
         <v>7865.5752</v>
       </c>
       <c r="G82" t="n">
-        <v>-2927582.818553744</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2973,15 @@
         <v>83886.8098</v>
       </c>
       <c r="G83" t="n">
-        <v>-3011469.628353744</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3003,15 @@
         <v>8012.4848</v>
       </c>
       <c r="G84" t="n">
-        <v>-3003457.143553744</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3033,15 @@
         <v>49091.678</v>
       </c>
       <c r="G85" t="n">
-        <v>-3052548.821553743</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3063,15 @@
         <v>26782.6471</v>
       </c>
       <c r="G86" t="n">
-        <v>-3052548.821553743</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3093,15 @@
         <v>37859.8057</v>
       </c>
       <c r="G87" t="n">
-        <v>-3014689.015853744</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3123,15 @@
         <v>28587.865</v>
       </c>
       <c r="G88" t="n">
-        <v>-3043276.880853744</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3153,15 @@
         <v>4358.8697</v>
       </c>
       <c r="G89" t="n">
-        <v>-3043276.880853744</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3183,15 @@
         <v>5642.2768</v>
       </c>
       <c r="G90" t="n">
-        <v>-3043276.880853744</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3213,15 @@
         <v>3488.6168</v>
       </c>
       <c r="G91" t="n">
-        <v>-3039788.264053744</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3243,15 @@
         <v>6278.7551</v>
       </c>
       <c r="G92" t="n">
-        <v>-3046067.019153744</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3273,15 @@
         <v>8869.616599999999</v>
       </c>
       <c r="G93" t="n">
-        <v>-3054936.635753744</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3303,15 @@
         <v>1000</v>
       </c>
       <c r="G94" t="n">
-        <v>-3053936.635753744</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3333,15 @@
         <v>43</v>
       </c>
       <c r="G95" t="n">
-        <v>-3053893.635753744</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3363,15 @@
         <v>87</v>
       </c>
       <c r="G96" t="n">
-        <v>-3053806.635753744</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3393,15 @@
         <v>10299.9659</v>
       </c>
       <c r="G97" t="n">
-        <v>-3064106.601653744</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3423,15 @@
         <v>11876.8285</v>
       </c>
       <c r="G98" t="n">
-        <v>-3064106.601653744</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3453,15 @@
         <v>4565.37</v>
       </c>
       <c r="G99" t="n">
-        <v>-3068671.971653744</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3483,15 @@
         <v>12064.7466</v>
       </c>
       <c r="G100" t="n">
-        <v>-3068671.971653744</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3513,15 @@
         <v>65467.9187</v>
       </c>
       <c r="G101" t="n">
-        <v>-3003204.052953744</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3543,15 @@
         <v>21.7392</v>
       </c>
       <c r="G102" t="n">
-        <v>-3003182.313753744</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3573,15 @@
         <v>50365.6715</v>
       </c>
       <c r="G103" t="n">
-        <v>-3053547.985253744</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3603,15 @@
         <v>3976</v>
       </c>
       <c r="G104" t="n">
-        <v>-3057523.985253744</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3633,15 @@
         <v>21.5518</v>
       </c>
       <c r="G105" t="n">
-        <v>-3057502.433453744</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3663,15 @@
         <v>7696.748</v>
       </c>
       <c r="G106" t="n">
-        <v>-3065199.181453744</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3693,15 @@
         <v>38863.017</v>
       </c>
       <c r="G107" t="n">
-        <v>-3065199.181453744</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3723,15 @@
         <v>21.4593</v>
       </c>
       <c r="G108" t="n">
-        <v>-3065177.722153744</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3753,15 @@
         <v>191.8925</v>
       </c>
       <c r="G109" t="n">
-        <v>-3065369.614653744</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3783,15 @@
         <v>39416</v>
       </c>
       <c r="G110" t="n">
-        <v>-3104785.614653744</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3813,15 @@
         <v>973.2497</v>
       </c>
       <c r="G111" t="n">
-        <v>-3103812.364953744</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3843,15 @@
         <v>4314.9206</v>
       </c>
       <c r="G112" t="n">
-        <v>-3103812.364953744</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3873,15 @@
         <v>250498.0665</v>
       </c>
       <c r="G113" t="n">
-        <v>-3354310.431453744</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3903,15 @@
         <v>86</v>
       </c>
       <c r="G114" t="n">
-        <v>-3354224.431453744</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3933,15 @@
         <v>4248.0884</v>
       </c>
       <c r="G115" t="n">
-        <v>-3358472.519853744</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3963,15 @@
         <v>148969.7505</v>
       </c>
       <c r="G116" t="n">
-        <v>-3507442.270353744</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3993,15 @@
         <v>17137.9605</v>
       </c>
       <c r="G117" t="n">
-        <v>-3507442.270353744</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4023,15 @@
         <v>263.8316151202749</v>
       </c>
       <c r="G118" t="n">
-        <v>-3507178.438738624</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4053,15 @@
         <v>86488.38860000001</v>
       </c>
       <c r="G119" t="n">
-        <v>-3593666.827338624</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4083,15 @@
         <v>82455</v>
       </c>
       <c r="G120" t="n">
-        <v>-3593666.827338624</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4113,15 @@
         <v>197699.8499</v>
       </c>
       <c r="G121" t="n">
-        <v>-3593666.827338624</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4143,15 @@
         <v>13000.3426</v>
       </c>
       <c r="G122" t="n">
-        <v>-3593666.827338624</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4173,15 @@
         <v>17194.2302</v>
       </c>
       <c r="G123" t="n">
-        <v>-3576472.597138624</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4203,15 @@
         <v>279.0737</v>
       </c>
       <c r="G124" t="n">
-        <v>-3576193.523438624</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4233,15 @@
         <v>582.5234441602728</v>
       </c>
       <c r="G125" t="n">
-        <v>-3575610.999994464</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4263,15 @@
         <v>50730</v>
       </c>
       <c r="G126" t="n">
-        <v>-3626340.999994464</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4293,15 @@
         <v>202138.8608</v>
       </c>
       <c r="G127" t="n">
-        <v>-3828479.860794464</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4323,15 @@
         <v>4891.6686</v>
       </c>
       <c r="G128" t="n">
-        <v>-3828479.860794464</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4353,15 @@
         <v>71892.92630000001</v>
       </c>
       <c r="G129" t="n">
-        <v>-3900372.787094464</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4383,19 @@
         <v>10693.3269</v>
       </c>
       <c r="G130" t="n">
-        <v>-3900372.787094464</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>11.53</v>
+      </c>
+      <c r="I130" t="n">
+        <v>11.53</v>
+      </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4417,23 @@
         <v>88626</v>
       </c>
       <c r="G131" t="n">
-        <v>-3988998.787094464</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>11.53</v>
+      </c>
+      <c r="I131" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4455,23 @@
         <v>2583.3934</v>
       </c>
       <c r="G132" t="n">
-        <v>-3991582.180494464</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>11.5</v>
+      </c>
+      <c r="I132" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4493,23 @@
         <v>382.2504</v>
       </c>
       <c r="G133" t="n">
-        <v>-3991964.430894463</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>11.48</v>
+      </c>
+      <c r="I133" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,22 +4531,23 @@
         <v>66286.81299999999</v>
       </c>
       <c r="G134" t="n">
-        <v>-3925677.617894463</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>11.38</v>
       </c>
       <c r="I134" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="J134" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>11.53</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4841,26 +4569,23 @@
         <v>174.9965</v>
       </c>
       <c r="G135" t="n">
-        <v>-3925677.617894463</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>11.45</v>
       </c>
       <c r="I135" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="J135" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>11.53</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4882,24 +4607,23 @@
         <v>6288.0484</v>
       </c>
       <c r="G136" t="n">
-        <v>-3925677.617894463</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>11.45</v>
+      </c>
+      <c r="I136" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4921,26 +4645,23 @@
         <v>10934.4575</v>
       </c>
       <c r="G137" t="n">
-        <v>-3936612.075394463</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>11.45</v>
       </c>
       <c r="I137" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="J137" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>11.53</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4962,26 +4683,23 @@
         <v>174836.471</v>
       </c>
       <c r="G138" t="n">
-        <v>-3761775.604394463</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>11.38</v>
       </c>
       <c r="I138" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="J138" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K138" t="inlineStr">
+        <v>11.53</v>
+      </c>
+      <c r="J138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5003,24 +4721,23 @@
         <v>45271.8734</v>
       </c>
       <c r="G139" t="n">
-        <v>-3716503.730994463</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K139" t="inlineStr">
+        <v>11.53</v>
+      </c>
+      <c r="I139" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5042,24 +4759,23 @@
         <v>253.8204</v>
       </c>
       <c r="G140" t="n">
-        <v>-3716503.730994463</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K140" t="inlineStr">
+        <v>11.67</v>
+      </c>
+      <c r="I140" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5081,24 +4797,23 @@
         <v>100</v>
       </c>
       <c r="G141" t="n">
-        <v>-3716603.730994463</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K141" t="inlineStr">
+        <v>11.67</v>
+      </c>
+      <c r="I141" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5120,24 +4835,23 @@
         <v>44</v>
       </c>
       <c r="G142" t="n">
-        <v>-3716559.730994463</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K142" t="inlineStr">
+        <v>11.48</v>
+      </c>
+      <c r="I142" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5159,24 +4873,23 @@
         <v>230272.215</v>
       </c>
       <c r="G143" t="n">
-        <v>-3486287.515994464</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K143" t="inlineStr">
+        <v>11.66</v>
+      </c>
+      <c r="I143" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5198,24 +4911,23 @@
         <v>5473.4805</v>
       </c>
       <c r="G144" t="n">
-        <v>-3486287.515994464</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K144" t="inlineStr">
+        <v>11.69</v>
+      </c>
+      <c r="I144" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5237,24 +4949,23 @@
         <v>15500</v>
       </c>
       <c r="G145" t="n">
-        <v>-3470787.515994464</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K145" t="inlineStr">
+        <v>11.69</v>
+      </c>
+      <c r="I145" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5276,24 +4987,21 @@
         <v>11364.49</v>
       </c>
       <c r="G146" t="n">
-        <v>-3482152.005994464</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K146" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5315,24 +5023,21 @@
         <v>5000</v>
       </c>
       <c r="G147" t="n">
-        <v>-3487152.005994464</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K147" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5354,24 +5059,21 @@
         <v>5485.263</v>
       </c>
       <c r="G148" t="n">
-        <v>-3492637.268994464</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K148" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5393,24 +5095,21 @@
         <v>43</v>
       </c>
       <c r="G149" t="n">
-        <v>-3492680.268994464</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K149" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5432,24 +5131,21 @@
         <v>42</v>
       </c>
       <c r="G150" t="n">
-        <v>-3492638.268994464</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K150" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5471,24 +5167,21 @@
         <v>8516.9318</v>
       </c>
       <c r="G151" t="n">
-        <v>-3501155.200794464</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K151" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5510,24 +5203,21 @@
         <v>6470.169</v>
       </c>
       <c r="G152" t="n">
-        <v>-3507625.369794464</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K152" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5549,24 +5239,21 @@
         <v>45</v>
       </c>
       <c r="G153" t="n">
-        <v>-3507580.369794464</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K153" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5588,24 +5275,21 @@
         <v>55108.1576</v>
       </c>
       <c r="G154" t="n">
-        <v>-3562688.527394464</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K154" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5627,24 +5311,21 @@
         <v>1756.4455</v>
       </c>
       <c r="G155" t="n">
-        <v>-3562688.527394464</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K155" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5666,24 +5347,21 @@
         <v>88</v>
       </c>
       <c r="G156" t="n">
-        <v>-3562600.527394464</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K156" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5705,24 +5383,21 @@
         <v>88</v>
       </c>
       <c r="G157" t="n">
-        <v>-3562512.527394464</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K157" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5744,24 +5419,21 @@
         <v>191787.7247</v>
       </c>
       <c r="G158" t="n">
-        <v>-3754300.252094464</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K158" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5783,24 +5455,21 @@
         <v>101528.7913</v>
       </c>
       <c r="G159" t="n">
-        <v>-3855829.043394464</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K159" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5822,24 +5491,21 @@
         <v>4307.1201</v>
       </c>
       <c r="G160" t="n">
-        <v>-3855829.043394464</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K160" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5861,24 +5527,21 @@
         <v>29313.6387</v>
       </c>
       <c r="G161" t="n">
-        <v>-3855829.043394464</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K161" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5900,24 +5563,23 @@
         <v>44</v>
       </c>
       <c r="G162" t="n">
-        <v>-3855785.043394464</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K162" t="inlineStr">
+        <v>11.51</v>
+      </c>
+      <c r="I162" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5939,24 +5601,21 @@
         <v>1670.992366412214</v>
       </c>
       <c r="G163" t="n">
-        <v>-3857456.035760876</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K163" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5978,24 +5637,21 @@
         <v>43</v>
       </c>
       <c r="G164" t="n">
-        <v>-3857413.035760876</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K164" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6017,24 +5673,21 @@
         <v>87446.97</v>
       </c>
       <c r="G165" t="n">
-        <v>-3857413.035760876</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K165" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6056,24 +5709,21 @@
         <v>1507.5656</v>
       </c>
       <c r="G166" t="n">
-        <v>-3858920.601360876</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K166" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6095,24 +5745,21 @@
         <v>3515.025466893039</v>
       </c>
       <c r="G167" t="n">
-        <v>-3855405.575893983</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K167" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6134,24 +5781,21 @@
         <v>2401.6342</v>
       </c>
       <c r="G168" t="n">
-        <v>-3855405.575893983</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K168" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6173,24 +5817,21 @@
         <v>65259.46</v>
       </c>
       <c r="G169" t="n">
-        <v>-3920665.035893983</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K169" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6212,24 +5853,21 @@
         <v>72755</v>
       </c>
       <c r="G170" t="n">
-        <v>-3920665.035893983</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K170" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6251,24 +5889,21 @@
         <v>77872.2668</v>
       </c>
       <c r="G171" t="n">
-        <v>-3920665.035893983</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K171" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6290,24 +5925,21 @@
         <v>2401.6342</v>
       </c>
       <c r="G172" t="n">
-        <v>-3923066.670093983</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K172" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6329,24 +5961,21 @@
         <v>44</v>
       </c>
       <c r="G173" t="n">
-        <v>-3923022.670093983</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K173" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6368,24 +5997,21 @@
         <v>421.7747</v>
       </c>
       <c r="G174" t="n">
-        <v>-3923022.670093983</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K174" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6407,24 +6033,21 @@
         <v>16944.8124</v>
       </c>
       <c r="G175" t="n">
-        <v>-3906077.857693983</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K175" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6446,24 +6069,21 @@
         <v>16861.441</v>
       </c>
       <c r="G176" t="n">
-        <v>-3922939.298693983</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K176" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6485,24 +6105,21 @@
         <v>4028</v>
       </c>
       <c r="G177" t="n">
-        <v>-3926967.298693983</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K177" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6524,24 +6141,21 @@
         <v>30745.8067</v>
       </c>
       <c r="G178" t="n">
-        <v>-3957713.105393983</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K178" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6563,24 +6177,21 @@
         <v>3060.4467</v>
       </c>
       <c r="G179" t="n">
-        <v>-3957713.105393983</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K179" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6602,24 +6213,21 @@
         <v>43</v>
       </c>
       <c r="G180" t="n">
-        <v>-3957670.105393983</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K180" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6641,24 +6249,21 @@
         <v>43</v>
       </c>
       <c r="G181" t="n">
-        <v>-3957627.105393983</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K181" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6680,24 +6285,21 @@
         <v>14471.737</v>
       </c>
       <c r="G182" t="n">
-        <v>-3957627.105393983</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K182" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6719,24 +6321,21 @@
         <v>21707</v>
       </c>
       <c r="G183" t="n">
-        <v>-3935920.105393983</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K183" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6758,24 +6357,21 @@
         <v>4028</v>
       </c>
       <c r="G184" t="n">
-        <v>-3931892.105393983</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K184" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6797,24 +6393,21 @@
         <v>1857.4631</v>
       </c>
       <c r="G185" t="n">
-        <v>-3933749.568493983</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K185" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6836,24 +6429,21 @@
         <v>84</v>
       </c>
       <c r="G186" t="n">
-        <v>-3933749.568493983</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K186" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6875,24 +6465,21 @@
         <v>4978</v>
       </c>
       <c r="G187" t="n">
-        <v>-3938727.568493983</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1.034028620988725</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6914,24 +6501,15 @@
         <v>35975.3773</v>
       </c>
       <c r="G188" t="n">
-        <v>-3974702.945793983</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6953,24 +6531,15 @@
         <v>13711.6227</v>
       </c>
       <c r="G189" t="n">
-        <v>-3988414.568493983</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6992,24 +6561,15 @@
         <v>44</v>
       </c>
       <c r="G190" t="n">
-        <v>-3988370.568493983</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7031,24 +6591,15 @@
         <v>4419.1215</v>
       </c>
       <c r="G191" t="n">
-        <v>-3988370.568493983</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7070,24 +6621,15 @@
         <v>163.7945</v>
       </c>
       <c r="G192" t="n">
-        <v>-3988534.362993983</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7109,24 +6651,15 @@
         <v>44</v>
       </c>
       <c r="G193" t="n">
-        <v>-3988490.362993983</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7148,24 +6681,15 @@
         <v>23251.94</v>
       </c>
       <c r="G194" t="n">
-        <v>-4011742.302993983</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7187,24 +6711,15 @@
         <v>44</v>
       </c>
       <c r="G195" t="n">
-        <v>-4011698.302993983</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7226,24 +6741,15 @@
         <v>89419.06</v>
       </c>
       <c r="G196" t="n">
-        <v>-4101117.362993983</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7265,26 +6771,15 @@
         <v>255</v>
       </c>
       <c r="G197" t="n">
-        <v>-4100862.362993983</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="J197" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7306,24 +6801,15 @@
         <v>44</v>
       </c>
       <c r="G198" t="n">
-        <v>-4100818.362993983</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7345,24 +6831,15 @@
         <v>17383.714</v>
       </c>
       <c r="G199" t="n">
-        <v>-4100818.362993983</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7384,24 +6861,15 @@
         <v>43</v>
       </c>
       <c r="G200" t="n">
-        <v>-4100775.362993983</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7423,24 +6891,15 @@
         <v>2135.7566</v>
       </c>
       <c r="G201" t="n">
-        <v>-4100775.362993983</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7462,24 +6921,15 @@
         <v>5962.8375</v>
       </c>
       <c r="G202" t="n">
-        <v>-4100775.362993983</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7501,24 +6951,15 @@
         <v>44</v>
       </c>
       <c r="G203" t="n">
-        <v>-4100731.362993983</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7540,24 +6981,15 @@
         <v>10000</v>
       </c>
       <c r="G204" t="n">
-        <v>-4100731.362993983</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7579,24 +7011,15 @@
         <v>2702.9762</v>
       </c>
       <c r="G205" t="n">
-        <v>-4100731.362993983</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7618,24 +7041,15 @@
         <v>34051.7149</v>
       </c>
       <c r="G206" t="n">
-        <v>-4134783.077893983</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7657,24 +7071,15 @@
         <v>7879</v>
       </c>
       <c r="G207" t="n">
-        <v>-4142662.077893983</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7696,26 +7101,15 @@
         <v>38059.3679</v>
       </c>
       <c r="G208" t="n">
-        <v>-4142662.077893983</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="J208" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7737,26 +7131,15 @@
         <v>280.1614</v>
       </c>
       <c r="G209" t="n">
-        <v>-4142662.077893983</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="J209" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7778,26 +7161,15 @@
         <v>23080.254</v>
       </c>
       <c r="G210" t="n">
-        <v>-4165742.331893983</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="J210" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7819,26 +7191,15 @@
         <v>64939.626</v>
       </c>
       <c r="G211" t="n">
-        <v>-4230681.957893983</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="J211" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7860,26 +7221,15 @@
         <v>44</v>
       </c>
       <c r="G212" t="n">
-        <v>-4230637.957893983</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="J212" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7901,26 +7251,15 @@
         <v>23627.4707</v>
       </c>
       <c r="G213" t="n">
-        <v>-4230637.957893983</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="J213" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7942,26 +7281,15 @@
         <v>44</v>
       </c>
       <c r="G214" t="n">
-        <v>-4230593.957893983</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="J214" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7983,26 +7311,15 @@
         <v>4974</v>
       </c>
       <c r="G215" t="n">
-        <v>-4235567.957893983</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J215" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8024,26 +7341,15 @@
         <v>44</v>
       </c>
       <c r="G216" t="n">
-        <v>-4235523.957893983</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="J216" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8065,26 +7371,15 @@
         <v>603.9689387402933</v>
       </c>
       <c r="G217" t="n">
-        <v>-4235523.957893983</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="J217" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8106,26 +7401,15 @@
         <v>85.2329</v>
       </c>
       <c r="G218" t="n">
-        <v>-4235523.957893983</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="J218" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
